--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\自作\myProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF1903C-2BFD-4AB4-90B0-8C25FC78E456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADB213B-1A41-4F52-B12E-0E57F0A433BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="425">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -3746,7 +3746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3798,6 +3798,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -4205,7 +4211,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4236,8 +4242,11 @@
     <xf numFmtId="14" fontId="2" fillId="9" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4646,9 +4655,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="14" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
     <cellStyle name="20% - アクセント 2" xfId="2" builtinId="34"/>
+    <cellStyle name="20% - アクセント 3" xfId="10" builtinId="38"/>
     <cellStyle name="20% - アクセント 5" xfId="5" builtinId="46"/>
     <cellStyle name="40% - アクセント 4" xfId="1" builtinId="43"/>
     <cellStyle name="40% - アクセント 5" xfId="6" builtinId="47"/>
@@ -19098,10 +19120,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64C319C-B3F7-46D4-A76A-A521F6B05E0F}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A2:Y46"/>
+  <dimension ref="A2:Z46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -19122,11 +19144,12 @@
     <col min="20" max="20" width="10.875" style="25" customWidth="1"/>
     <col min="21" max="21" width="10.5" style="25" customWidth="1"/>
     <col min="22" max="23" width="7.625" style="25" customWidth="1"/>
-    <col min="24" max="24" width="56.625" style="42" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="42"/>
+    <col min="24" max="24" width="44.875" style="136" customWidth="1"/>
+    <col min="25" max="25" width="56.625" style="42" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="J2" s="23" t="s">
         <v>289</v>
       </c>
@@ -19148,8 +19171,11 @@
       <c r="W2" s="25" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.4">
+      <c r="X2" s="136" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B3" s="42" t="s">
         <v>91</v>
       </c>
@@ -19196,11 +19222,11 @@
       <c r="V3" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="X3" s="42" t="s">
+      <c r="Y3" s="42" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="46" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:25" s="46" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="46" t="s">
         <v>303</v>
       </c>
@@ -19259,8 +19285,9 @@
         <v>133</v>
       </c>
       <c r="W4" s="49"/>
-    </row>
-    <row r="5" spans="1:24" s="8" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="X4" s="137"/>
+    </row>
+    <row r="5" spans="1:25" s="8" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>304</v>
       </c>
@@ -19338,11 +19365,12 @@
         <f>V5/10</f>
         <v>36.25</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="138"/>
+      <c r="Y5" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>305</v>
       </c>
@@ -19420,11 +19448,12 @@
         <f t="shared" ref="W6:W20" si="7">V6/10</f>
         <v>45.32</v>
       </c>
-      <c r="X6" s="42" t="s">
+      <c r="X6" s="138"/>
+      <c r="Y6" s="42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B7" s="42" t="s">
         <v>71</v>
       </c>
@@ -19499,11 +19528,12 @@
         <f t="shared" si="7"/>
         <v>38.769999999999996</v>
       </c>
-      <c r="X7" s="42" t="s">
+      <c r="X7" s="138"/>
+      <c r="Y7" s="42" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>110</v>
       </c>
@@ -19581,11 +19611,12 @@
         <f t="shared" si="7"/>
         <v>30.838000000000001</v>
       </c>
-      <c r="X8" s="42" t="s">
+      <c r="X8" s="138"/>
+      <c r="Y8" s="42" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>384</v>
       </c>
@@ -19663,11 +19694,12 @@
         <f t="shared" si="7"/>
         <v>26.27</v>
       </c>
-      <c r="X9" s="42" t="s">
+      <c r="X9" s="138"/>
+      <c r="Y9" s="42" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="42" t="s">
         <v>424</v>
       </c>
@@ -19745,11 +19777,12 @@
         <f t="shared" si="7"/>
         <v>26.919</v>
       </c>
-      <c r="X10" s="42" t="s">
+      <c r="X10" s="138"/>
+      <c r="Y10" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>306</v>
       </c>
@@ -19825,11 +19858,12 @@
         <f t="shared" si="7"/>
         <v>47.244</v>
       </c>
-      <c r="X11" s="42" t="s">
+      <c r="X11" s="138"/>
+      <c r="Y11" s="42" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B12" s="42" t="s">
         <v>121</v>
       </c>
@@ -19904,11 +19938,12 @@
         <f t="shared" si="7"/>
         <v>36.428999999999995</v>
       </c>
-      <c r="X12" s="42" t="s">
+      <c r="X12" s="138"/>
+      <c r="Y12" s="42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B13" s="42" t="s">
         <v>135</v>
       </c>
@@ -19983,11 +20018,12 @@
         <f t="shared" si="7"/>
         <v>25.951999999999998</v>
       </c>
-      <c r="X13" s="42" t="s">
+      <c r="X13" s="138"/>
+      <c r="Y13" s="42" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B14" s="42" t="s">
         <v>139</v>
       </c>
@@ -20062,11 +20098,12 @@
         <f t="shared" si="7"/>
         <v>51.287999999999997</v>
       </c>
-      <c r="X14" s="42" t="s">
+      <c r="X14" s="138"/>
+      <c r="Y14" s="42" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B15" s="42" t="s">
         <v>153</v>
       </c>
@@ -20141,11 +20178,12 @@
         <f t="shared" si="7"/>
         <v>29.024000000000001</v>
       </c>
-      <c r="X15" s="42" t="s">
+      <c r="X15" s="138"/>
+      <c r="Y15" s="42" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="21" t="s">
         <v>141</v>
       </c>
@@ -20220,11 +20258,12 @@
         <f t="shared" si="7"/>
         <v>28.703999999999997</v>
       </c>
-      <c r="X16" s="42" t="s">
+      <c r="X16" s="138"/>
+      <c r="Y16" s="42" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="21" t="s">
         <v>144</v>
       </c>
@@ -20299,11 +20338,12 @@
         <f t="shared" si="7"/>
         <v>18.734999999999999</v>
       </c>
-      <c r="X17" s="42" t="s">
+      <c r="X17" s="138"/>
+      <c r="Y17" s="42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="18" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="21" t="s">
         <v>146</v>
       </c>
@@ -20378,11 +20418,12 @@
         <f t="shared" si="7"/>
         <v>22.251999999999999</v>
       </c>
-      <c r="X18" s="42" t="s">
+      <c r="X18" s="138"/>
+      <c r="Y18" s="42" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="21" t="s">
         <v>149</v>
       </c>
@@ -20457,11 +20498,12 @@
         <f t="shared" si="7"/>
         <v>24.634</v>
       </c>
-      <c r="X19" s="42" t="s">
+      <c r="X19" s="138"/>
+      <c r="Y19" s="42" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="20" spans="1:24" s="21" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
         <v>193</v>
       </c>
@@ -20536,11 +20578,12 @@
         <f t="shared" si="7"/>
         <v>52.2</v>
       </c>
-      <c r="X20" s="42" t="s">
+      <c r="X20" s="138"/>
+      <c r="Y20" s="42" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" s="21"/>
       <c r="B21" s="21" t="s">
         <v>120</v>
@@ -20616,11 +20659,12 @@
         <f>V21/10</f>
         <v>36.533999999999999</v>
       </c>
-      <c r="X21" s="42" t="s">
+      <c r="X21" s="138"/>
+      <c r="Y21" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" s="21"/>
       <c r="B22" s="21" t="s">
         <v>137</v>
@@ -20696,12 +20740,15 @@
         <f>V22/10</f>
         <v>25.225000000000001</v>
       </c>
-      <c r="X22" s="42" t="s">
+      <c r="X22" s="138"/>
+      <c r="Y22" s="42" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:24" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="1:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X24" s="139"/>
+    </row>
+    <row r="25" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="70" t="s">
         <v>404</v>
       </c>
@@ -20720,8 +20767,9 @@
       <c r="K25" s="88"/>
       <c r="L25" s="88"/>
       <c r="M25" s="88"/>
-    </row>
-    <row r="26" spans="1:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X25" s="139"/>
+    </row>
+    <row r="26" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="70" t="s">
         <v>406</v>
       </c>
@@ -20737,51 +20785,86 @@
       <c r="K26" s="117"/>
       <c r="L26" s="117"/>
       <c r="M26" s="117"/>
-    </row>
-    <row r="27" spans="1:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X26" s="139"/>
+    </row>
+    <row r="27" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X27" s="139"/>
+    </row>
+    <row r="28" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X28" s="139"/>
+    </row>
+    <row r="29" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X29" s="139"/>
+    </row>
+    <row r="30" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="87" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X30" s="139"/>
+    </row>
+    <row r="31" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X31" s="139"/>
+    </row>
+    <row r="32" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="87" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="33" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="34" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="35" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="36" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="37" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="38" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="39" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="40" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="41" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="42" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="43" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="44" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="45" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
-    <row r="46" s="70" customFormat="1" x14ac:dyDescent="0.4"/>
+      <c r="X32" s="139"/>
+    </row>
+    <row r="33" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X33" s="139"/>
+    </row>
+    <row r="34" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X34" s="139"/>
+    </row>
+    <row r="35" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X35" s="139"/>
+    </row>
+    <row r="36" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X36" s="139"/>
+    </row>
+    <row r="37" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X37" s="139"/>
+    </row>
+    <row r="38" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X38" s="139"/>
+    </row>
+    <row r="39" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X39" s="139"/>
+    </row>
+    <row r="40" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X40" s="139"/>
+    </row>
+    <row r="41" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X41" s="139"/>
+    </row>
+    <row r="42" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X42" s="139"/>
+    </row>
+    <row r="43" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X43" s="139"/>
+    </row>
+    <row r="44" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X44" s="139"/>
+    </row>
+    <row r="45" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X45" s="139"/>
+    </row>
+    <row r="46" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="X46" s="139"/>
+    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="E3:F3"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADB213B-1A41-4F52-B12E-0E57F0A433BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F7A79E-6666-4B99-8F21-8F71E3960D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId1"/>
-    <sheet name="作業スケジュール" sheetId="15" r:id="rId2"/>
-    <sheet name="戦車のステータス" sheetId="9" r:id="rId3"/>
-    <sheet name="タイトル&amp;選択&amp;リザルト" sheetId="4" r:id="rId4"/>
-    <sheet name="ポーズ画面" sheetId="12" r:id="rId5"/>
-    <sheet name="ゲーム画面の仕様" sheetId="13" r:id="rId6"/>
-    <sheet name="敵" sheetId="17" r:id="rId7"/>
-    <sheet name="味方AI" sheetId="16" r:id="rId8"/>
-    <sheet name="ゲーム（プログラム）" sheetId="1" r:id="rId9"/>
-    <sheet name="チュートリアル" sheetId="11" r:id="rId10"/>
-    <sheet name="クラス図" sheetId="6" r:id="rId11"/>
-    <sheet name="操作方法" sheetId="7" r:id="rId12"/>
-    <sheet name="デザイン" sheetId="5" r:id="rId13"/>
-    <sheet name="サウンド" sheetId="10" r:id="rId14"/>
+    <sheet name="戦車のステータス" sheetId="9" r:id="rId2"/>
+    <sheet name="タイトル&amp;選択&amp;リザルト" sheetId="4" r:id="rId3"/>
+    <sheet name="ポーズ画面" sheetId="12" r:id="rId4"/>
+    <sheet name="ゲーム画面の仕様" sheetId="13" r:id="rId5"/>
+    <sheet name="敵" sheetId="17" r:id="rId6"/>
+    <sheet name="味方AI" sheetId="16" r:id="rId7"/>
+    <sheet name="ゲーム（プログラム）" sheetId="1" r:id="rId8"/>
+    <sheet name="チュートリアル" sheetId="11" r:id="rId9"/>
+    <sheet name="クラス図" sheetId="6" r:id="rId10"/>
+    <sheet name="操作方法" sheetId="7" r:id="rId11"/>
+    <sheet name="デザイン" sheetId="5" r:id="rId12"/>
+    <sheet name="サウンド" sheetId="10" r:id="rId13"/>
+    <sheet name="作業スケジュール" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業スケジュール!$BL$1:$CF$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">作業スケジュール!$BL$1:$CF$61</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="426">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -3522,6 +3522,19 @@
   </si>
   <si>
     <t>Sherman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポットライトを使って、戦車を目立たせる</t>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センシャ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>メダ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4517,6 +4530,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="10" borderId="14" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4654,18 +4679,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="21" xfId="10" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="10" borderId="14" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="10">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -5159,15 +5172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>8657</xdr:colOff>
+      <xdr:colOff>25976</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>105798</xdr:rowOff>
+      <xdr:rowOff>71162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3183087</xdr:colOff>
+      <xdr:colOff>3200406</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>80530</xdr:rowOff>
+      <xdr:rowOff>45894</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5182,7 +5195,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4476748" y="3153798"/>
+          <a:off x="4494067" y="3119162"/>
           <a:ext cx="3867157" cy="2641732"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15354,32 +15367,32 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="92"/>
-      <c r="I2" s="105" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
+      <c r="I2" s="109" t="s">
         <v>218</v>
       </c>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="107"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="111"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="93"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="110"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="99"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="114"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I4" s="27" t="s">
@@ -15415,13 +15428,13 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="111" t="s">
+      <c r="B7" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -15430,11 +15443,11 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -15453,56 +15466,56 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="105"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="102"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="104"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108"/>
     </row>
     <row r="15" spans="2:15" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="96" t="s">
+      <c r="B15" s="100" t="s">
         <v>330</v>
       </c>
-      <c r="C15" s="96"/>
+      <c r="C15" s="100"/>
       <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="96" t="s">
+      <c r="E15" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="96"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="96" t="s">
+      <c r="H15" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="96"/>
+      <c r="I15" s="100"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="96" t="s">
+      <c r="K15" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="96"/>
+      <c r="L15" s="100"/>
       <c r="M15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="96" t="s">
+      <c r="N15" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="96"/>
+      <c r="O15" s="100"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E16" t="s">
@@ -15516,10 +15529,10 @@
     </row>
     <row r="18" spans="5:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="5:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H19" s="97" t="s">
+      <c r="H19" s="101" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="98"/>
+      <c r="I19" s="102"/>
       <c r="J19" t="s">
         <v>211</v>
       </c>
@@ -15545,65 +15558,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B46575-883B-481C-B347-C52B57709347}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="B2:O4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="15" max="15" width="36.125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="135" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="112"/>
-      <c r="G2" t="s">
-        <v>329</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" t="s">
-        <v>328</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O4" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E595F97-285D-45D1-8FDC-D251DEBEBBCC}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="C1:V35"/>
@@ -15620,58 +15574,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="O1" s="135" t="s">
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="O1" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="S33" s="112"/>
-      <c r="T33" s="112"/>
-      <c r="U33" s="112"/>
-      <c r="V33" s="112"/>
+      <c r="S33" s="116"/>
+      <c r="T33" s="116"/>
+      <c r="U33" s="116"/>
+      <c r="V33" s="116"/>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C34" s="135" t="s">
+      <c r="C34" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="135"/>
-      <c r="E34" s="135"/>
-      <c r="F34" s="135"/>
-      <c r="G34" s="135"/>
-      <c r="S34" s="112"/>
-      <c r="T34" s="112"/>
-      <c r="U34" s="112"/>
-      <c r="V34" s="112"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="S34" s="116"/>
+      <c r="T34" s="116"/>
+      <c r="U34" s="116"/>
+      <c r="V34" s="116"/>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C35" s="135"/>
-      <c r="D35" s="135"/>
-      <c r="E35" s="135"/>
-      <c r="F35" s="135"/>
-      <c r="G35" s="135"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15687,7 +15641,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D682D3EA-40D3-4F3B-9CCB-CED52C63D011}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="Z22:AB27"/>
@@ -15757,7 +15711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A309391-4223-49DB-A8EB-7D621A5E6BA9}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G12"/>
@@ -15943,7 +15897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD86610-6E0A-4791-B49C-97215B1D62A7}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:J13"/>
@@ -16235,12 +16189,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8DC02A-2CF9-4EAE-BFDB-9A1C5F221124}">
   <dimension ref="A1:DB60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="CG60" sqref="CG60"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -16260,14 +16214,14 @@
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A1" s="73"/>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="117" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="115"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="119"/>
       <c r="H1" s="44">
         <v>44413</v>
       </c>
@@ -19117,12 +19071,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64C319C-B3F7-46D4-A76A-A521F6B05E0F}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
@@ -19144,7 +19098,7 @@
     <col min="20" max="20" width="10.875" style="25" customWidth="1"/>
     <col min="21" max="21" width="10.5" style="25" customWidth="1"/>
     <col min="22" max="23" width="7.625" style="25" customWidth="1"/>
-    <col min="24" max="24" width="44.875" style="136" customWidth="1"/>
+    <col min="24" max="24" width="44.875" style="90" customWidth="1"/>
     <col min="25" max="25" width="56.625" style="42" customWidth="1"/>
     <col min="27" max="16384" width="9" style="42"/>
   </cols>
@@ -19171,7 +19125,7 @@
       <c r="W2" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="X2" s="136" t="s">
+      <c r="X2" s="90" t="s">
         <v>404</v>
       </c>
     </row>
@@ -19185,31 +19139,31 @@
       <c r="D3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="120" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116" t="s">
+      <c r="F3" s="120"/>
+      <c r="G3" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="116"/>
+      <c r="H3" s="120"/>
       <c r="I3" s="20" t="s">
         <v>96</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="K3" s="116" t="s">
+      <c r="K3" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="116"/>
-      <c r="P3" s="116" t="s">
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120"/>
+      <c r="P3" s="120" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="116"/>
+      <c r="Q3" s="120"/>
       <c r="R3" s="42" t="s">
         <v>97</v>
       </c>
@@ -19285,7 +19239,7 @@
         <v>133</v>
       </c>
       <c r="W4" s="49"/>
-      <c r="X4" s="137"/>
+      <c r="X4" s="91"/>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
@@ -19365,7 +19319,7 @@
         <f>V5/10</f>
         <v>36.25</v>
       </c>
-      <c r="X5" s="138"/>
+      <c r="X5" s="92"/>
       <c r="Y5" s="7" t="s">
         <v>101</v>
       </c>
@@ -19448,7 +19402,7 @@
         <f t="shared" ref="W6:W20" si="7">V6/10</f>
         <v>45.32</v>
       </c>
-      <c r="X6" s="138"/>
+      <c r="X6" s="92"/>
       <c r="Y6" s="42" t="s">
         <v>102</v>
       </c>
@@ -19528,7 +19482,7 @@
         <f t="shared" si="7"/>
         <v>38.769999999999996</v>
       </c>
-      <c r="X7" s="138"/>
+      <c r="X7" s="92"/>
       <c r="Y7" s="42" t="s">
         <v>103</v>
       </c>
@@ -19611,7 +19565,7 @@
         <f t="shared" si="7"/>
         <v>30.838000000000001</v>
       </c>
-      <c r="X8" s="138"/>
+      <c r="X8" s="92"/>
       <c r="Y8" s="42" t="s">
         <v>112</v>
       </c>
@@ -19694,7 +19648,7 @@
         <f t="shared" si="7"/>
         <v>26.27</v>
       </c>
-      <c r="X9" s="138"/>
+      <c r="X9" s="92"/>
       <c r="Y9" s="42" t="s">
         <v>118</v>
       </c>
@@ -19777,7 +19731,7 @@
         <f t="shared" si="7"/>
         <v>26.919</v>
       </c>
-      <c r="X10" s="138"/>
+      <c r="X10" s="92"/>
       <c r="Y10" s="42" t="s">
         <v>119</v>
       </c>
@@ -19858,7 +19812,7 @@
         <f t="shared" si="7"/>
         <v>47.244</v>
       </c>
-      <c r="X11" s="138"/>
+      <c r="X11" s="92"/>
       <c r="Y11" s="42" t="s">
         <v>117</v>
       </c>
@@ -19938,7 +19892,7 @@
         <f t="shared" si="7"/>
         <v>36.428999999999995</v>
       </c>
-      <c r="X12" s="138"/>
+      <c r="X12" s="92"/>
       <c r="Y12" s="42" t="s">
         <v>134</v>
       </c>
@@ -20018,7 +19972,7 @@
         <f t="shared" si="7"/>
         <v>25.951999999999998</v>
       </c>
-      <c r="X13" s="138"/>
+      <c r="X13" s="92"/>
       <c r="Y13" s="42" t="s">
         <v>136</v>
       </c>
@@ -20098,7 +20052,7 @@
         <f t="shared" si="7"/>
         <v>51.287999999999997</v>
       </c>
-      <c r="X14" s="138"/>
+      <c r="X14" s="92"/>
       <c r="Y14" s="42" t="s">
         <v>140</v>
       </c>
@@ -20178,7 +20132,7 @@
         <f t="shared" si="7"/>
         <v>29.024000000000001</v>
       </c>
-      <c r="X15" s="138"/>
+      <c r="X15" s="92"/>
       <c r="Y15" s="42" t="s">
         <v>155</v>
       </c>
@@ -20258,7 +20212,7 @@
         <f t="shared" si="7"/>
         <v>28.703999999999997</v>
       </c>
-      <c r="X16" s="138"/>
+      <c r="X16" s="92"/>
       <c r="Y16" s="42" t="s">
         <v>143</v>
       </c>
@@ -20338,7 +20292,7 @@
         <f t="shared" si="7"/>
         <v>18.734999999999999</v>
       </c>
-      <c r="X17" s="138"/>
+      <c r="X17" s="92"/>
       <c r="Y17" s="42" t="s">
         <v>145</v>
       </c>
@@ -20418,7 +20372,7 @@
         <f t="shared" si="7"/>
         <v>22.251999999999999</v>
       </c>
-      <c r="X18" s="138"/>
+      <c r="X18" s="92"/>
       <c r="Y18" s="42" t="s">
         <v>148</v>
       </c>
@@ -20498,7 +20452,7 @@
         <f t="shared" si="7"/>
         <v>24.634</v>
       </c>
-      <c r="X19" s="138"/>
+      <c r="X19" s="92"/>
       <c r="Y19" s="42" t="s">
         <v>151</v>
       </c>
@@ -20578,7 +20532,7 @@
         <f t="shared" si="7"/>
         <v>52.2</v>
       </c>
-      <c r="X20" s="138"/>
+      <c r="X20" s="92"/>
       <c r="Y20" s="42" t="s">
         <v>152</v>
       </c>
@@ -20659,7 +20613,7 @@
         <f>V21/10</f>
         <v>36.533999999999999</v>
       </c>
-      <c r="X21" s="138"/>
+      <c r="X21" s="92"/>
       <c r="Y21" s="42" t="s">
         <v>217</v>
       </c>
@@ -20740,13 +20694,13 @@
         <f>V22/10</f>
         <v>25.225000000000001</v>
       </c>
-      <c r="X22" s="138"/>
+      <c r="X22" s="92"/>
       <c r="Y22" s="42" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X24" s="139"/>
+      <c r="X24" s="93"/>
     </row>
     <row r="25" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="70" t="s">
@@ -20767,103 +20721,103 @@
       <c r="K25" s="88"/>
       <c r="L25" s="88"/>
       <c r="M25" s="88"/>
-      <c r="X25" s="139"/>
+      <c r="X25" s="93"/>
     </row>
     <row r="26" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="70" t="s">
         <v>406</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="121" t="s">
         <v>414</v>
       </c>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="117"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="117"/>
-      <c r="M26" s="117"/>
-      <c r="X26" s="139"/>
+      <c r="E26" s="121"/>
+      <c r="F26" s="121"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
+      <c r="K26" s="121"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="121"/>
+      <c r="X26" s="93"/>
     </row>
     <row r="27" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="X27" s="139"/>
+      <c r="X27" s="93"/>
     </row>
     <row r="28" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="X28" s="139"/>
+      <c r="X28" s="93"/>
     </row>
     <row r="29" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="X29" s="139"/>
+      <c r="X29" s="93"/>
     </row>
     <row r="30" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="87" t="s">
         <v>410</v>
       </c>
-      <c r="X30" s="139"/>
+      <c r="X30" s="93"/>
     </row>
     <row r="31" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="X31" s="139"/>
+      <c r="X31" s="93"/>
     </row>
     <row r="32" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="87" t="s">
         <v>412</v>
       </c>
-      <c r="X32" s="139"/>
+      <c r="X32" s="93"/>
     </row>
     <row r="33" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X33" s="139"/>
+      <c r="X33" s="93"/>
     </row>
     <row r="34" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X34" s="139"/>
+      <c r="X34" s="93"/>
     </row>
     <row r="35" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X35" s="139"/>
+      <c r="X35" s="93"/>
     </row>
     <row r="36" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X36" s="139"/>
+      <c r="X36" s="93"/>
     </row>
     <row r="37" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X37" s="139"/>
+      <c r="X37" s="93"/>
     </row>
     <row r="38" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X38" s="139"/>
+      <c r="X38" s="93"/>
     </row>
     <row r="39" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X39" s="139"/>
+      <c r="X39" s="93"/>
     </row>
     <row r="40" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X40" s="139"/>
+      <c r="X40" s="93"/>
     </row>
     <row r="41" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X41" s="139"/>
+      <c r="X41" s="93"/>
     </row>
     <row r="42" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X42" s="139"/>
+      <c r="X42" s="93"/>
     </row>
     <row r="43" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X43" s="139"/>
+      <c r="X43" s="93"/>
     </row>
     <row r="44" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X44" s="139"/>
+      <c r="X44" s="93"/>
     </row>
     <row r="45" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X45" s="139"/>
+      <c r="X45" s="93"/>
     </row>
     <row r="46" spans="24:24" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="X46" s="139"/>
+      <c r="X46" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -20880,13 +20834,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A92D0F-E9DE-4982-A6B9-91FAB732DBD9}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R58"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T66" sqref="T66"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10:N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -20896,7 +20850,7 @@
     <col min="4" max="4" width="50.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
@@ -20904,7 +20858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
@@ -20912,14 +20866,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="H9" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="44.25" x14ac:dyDescent="0.4">
@@ -20976,7 +20935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12DCD76-5273-4CA2-9E7A-8BC5E74993CF}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:S32"/>
@@ -20991,18 +20950,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="O4" t="s">
@@ -21086,7 +21045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F840A3-C673-472F-B158-91E7EE049523}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AT44"/>
@@ -21146,261 +21105,261 @@
     </row>
     <row r="22" spans="28:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="28:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AD23" s="122" t="s">
+      <c r="AD23" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="AE23" s="123"/>
-      <c r="AF23" s="123"/>
-      <c r="AG23" s="123"/>
-      <c r="AH23" s="123"/>
-      <c r="AI23" s="124"/>
+      <c r="AE23" s="127"/>
+      <c r="AF23" s="127"/>
+      <c r="AG23" s="127"/>
+      <c r="AH23" s="127"/>
+      <c r="AI23" s="128"/>
     </row>
     <row r="24" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD24" s="125"/>
-      <c r="AE24" s="126"/>
-      <c r="AF24" s="126"/>
-      <c r="AG24" s="126"/>
-      <c r="AH24" s="126"/>
-      <c r="AI24" s="127"/>
+      <c r="AD24" s="129"/>
+      <c r="AE24" s="130"/>
+      <c r="AF24" s="130"/>
+      <c r="AG24" s="130"/>
+      <c r="AH24" s="130"/>
+      <c r="AI24" s="131"/>
     </row>
     <row r="25" spans="28:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AD25" s="125"/>
-      <c r="AE25" s="126"/>
-      <c r="AF25" s="126"/>
-      <c r="AG25" s="126"/>
-      <c r="AH25" s="126"/>
-      <c r="AI25" s="127"/>
+      <c r="AD25" s="129"/>
+      <c r="AE25" s="130"/>
+      <c r="AF25" s="130"/>
+      <c r="AG25" s="130"/>
+      <c r="AH25" s="130"/>
+      <c r="AI25" s="131"/>
     </row>
     <row r="26" spans="28:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="129"/>
-      <c r="AF26" s="129"/>
-      <c r="AG26" s="129"/>
-      <c r="AH26" s="129"/>
-      <c r="AI26" s="130"/>
+      <c r="AD26" s="132"/>
+      <c r="AE26" s="133"/>
+      <c r="AF26" s="133"/>
+      <c r="AG26" s="133"/>
+      <c r="AH26" s="133"/>
+      <c r="AI26" s="134"/>
     </row>
     <row r="28" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD28" s="131" t="s">
+      <c r="AD28" s="135" t="s">
         <v>388</v>
       </c>
-      <c r="AE28" s="132"/>
-      <c r="AF28" s="132"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="132"/>
-      <c r="AI28" s="132"/>
-      <c r="AJ28" s="132"/>
-      <c r="AK28" s="132"/>
-      <c r="AL28" s="132"/>
-      <c r="AM28" s="132"/>
-      <c r="AN28" s="132"/>
-      <c r="AO28" s="132"/>
-      <c r="AP28" s="132"/>
-      <c r="AQ28" s="132"/>
-      <c r="AR28" s="132"/>
-      <c r="AS28" s="132"/>
-      <c r="AT28" s="132"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="136"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="136"/>
+      <c r="AJ28" s="136"/>
+      <c r="AK28" s="136"/>
+      <c r="AL28" s="136"/>
+      <c r="AM28" s="136"/>
+      <c r="AN28" s="136"/>
+      <c r="AO28" s="136"/>
+      <c r="AP28" s="136"/>
+      <c r="AQ28" s="136"/>
+      <c r="AR28" s="136"/>
+      <c r="AS28" s="136"/>
+      <c r="AT28" s="136"/>
     </row>
     <row r="29" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD29" s="132"/>
-      <c r="AE29" s="132"/>
-      <c r="AF29" s="132"/>
-      <c r="AG29" s="132"/>
-      <c r="AH29" s="132"/>
-      <c r="AI29" s="132"/>
-      <c r="AJ29" s="132"/>
-      <c r="AK29" s="132"/>
-      <c r="AL29" s="132"/>
-      <c r="AM29" s="132"/>
-      <c r="AN29" s="132"/>
-      <c r="AO29" s="132"/>
-      <c r="AP29" s="132"/>
-      <c r="AQ29" s="132"/>
-      <c r="AR29" s="132"/>
-      <c r="AS29" s="132"/>
-      <c r="AT29" s="132"/>
+      <c r="AD29" s="136"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="136"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="136"/>
+      <c r="AJ29" s="136"/>
+      <c r="AK29" s="136"/>
+      <c r="AL29" s="136"/>
+      <c r="AM29" s="136"/>
+      <c r="AN29" s="136"/>
+      <c r="AO29" s="136"/>
+      <c r="AP29" s="136"/>
+      <c r="AQ29" s="136"/>
+      <c r="AR29" s="136"/>
+      <c r="AS29" s="136"/>
+      <c r="AT29" s="136"/>
     </row>
     <row r="30" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD30" s="120" t="s">
+      <c r="AD30" s="124" t="s">
         <v>389</v>
       </c>
-      <c r="AE30" s="121"/>
-      <c r="AF30" s="121"/>
-      <c r="AG30" s="121"/>
-      <c r="AH30" s="121"/>
-      <c r="AI30" s="121"/>
-      <c r="AJ30" s="121"/>
-      <c r="AK30" s="121"/>
-      <c r="AL30" s="121"/>
-      <c r="AM30" s="121"/>
-      <c r="AN30" s="121"/>
-      <c r="AO30" s="121"/>
-      <c r="AP30" s="121"/>
-      <c r="AQ30" s="121"/>
-      <c r="AR30" s="121"/>
-      <c r="AS30" s="121"/>
-      <c r="AT30" s="121"/>
+      <c r="AE30" s="125"/>
+      <c r="AF30" s="125"/>
+      <c r="AG30" s="125"/>
+      <c r="AH30" s="125"/>
+      <c r="AI30" s="125"/>
+      <c r="AJ30" s="125"/>
+      <c r="AK30" s="125"/>
+      <c r="AL30" s="125"/>
+      <c r="AM30" s="125"/>
+      <c r="AN30" s="125"/>
+      <c r="AO30" s="125"/>
+      <c r="AP30" s="125"/>
+      <c r="AQ30" s="125"/>
+      <c r="AR30" s="125"/>
+      <c r="AS30" s="125"/>
+      <c r="AT30" s="125"/>
     </row>
     <row r="31" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD31" s="121"/>
-      <c r="AE31" s="121"/>
-      <c r="AF31" s="121"/>
-      <c r="AG31" s="121"/>
-      <c r="AH31" s="121"/>
-      <c r="AI31" s="121"/>
-      <c r="AJ31" s="121"/>
-      <c r="AK31" s="121"/>
-      <c r="AL31" s="121"/>
-      <c r="AM31" s="121"/>
-      <c r="AN31" s="121"/>
-      <c r="AO31" s="121"/>
-      <c r="AP31" s="121"/>
-      <c r="AQ31" s="121"/>
-      <c r="AR31" s="121"/>
-      <c r="AS31" s="121"/>
-      <c r="AT31" s="121"/>
+      <c r="AD31" s="125"/>
+      <c r="AE31" s="125"/>
+      <c r="AF31" s="125"/>
+      <c r="AG31" s="125"/>
+      <c r="AH31" s="125"/>
+      <c r="AI31" s="125"/>
+      <c r="AJ31" s="125"/>
+      <c r="AK31" s="125"/>
+      <c r="AL31" s="125"/>
+      <c r="AM31" s="125"/>
+      <c r="AN31" s="125"/>
+      <c r="AO31" s="125"/>
+      <c r="AP31" s="125"/>
+      <c r="AQ31" s="125"/>
+      <c r="AR31" s="125"/>
+      <c r="AS31" s="125"/>
+      <c r="AT31" s="125"/>
     </row>
     <row r="32" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD32" s="120" t="s">
+      <c r="AD32" s="124" t="s">
         <v>390</v>
       </c>
-      <c r="AE32" s="121"/>
-      <c r="AF32" s="121"/>
-      <c r="AG32" s="121"/>
-      <c r="AH32" s="121"/>
-      <c r="AI32" s="121"/>
-      <c r="AJ32" s="121"/>
-      <c r="AK32" s="121"/>
-      <c r="AL32" s="121"/>
-      <c r="AM32" s="121"/>
-      <c r="AN32" s="121"/>
-      <c r="AO32" s="121"/>
-      <c r="AP32" s="121"/>
-      <c r="AQ32" s="121"/>
-      <c r="AR32" s="121"/>
-      <c r="AS32" s="121"/>
-      <c r="AT32" s="121"/>
+      <c r="AE32" s="125"/>
+      <c r="AF32" s="125"/>
+      <c r="AG32" s="125"/>
+      <c r="AH32" s="125"/>
+      <c r="AI32" s="125"/>
+      <c r="AJ32" s="125"/>
+      <c r="AK32" s="125"/>
+      <c r="AL32" s="125"/>
+      <c r="AM32" s="125"/>
+      <c r="AN32" s="125"/>
+      <c r="AO32" s="125"/>
+      <c r="AP32" s="125"/>
+      <c r="AQ32" s="125"/>
+      <c r="AR32" s="125"/>
+      <c r="AS32" s="125"/>
+      <c r="AT32" s="125"/>
     </row>
     <row r="33" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD33" s="121"/>
-      <c r="AE33" s="121"/>
-      <c r="AF33" s="121"/>
-      <c r="AG33" s="121"/>
-      <c r="AH33" s="121"/>
-      <c r="AI33" s="121"/>
-      <c r="AJ33" s="121"/>
-      <c r="AK33" s="121"/>
-      <c r="AL33" s="121"/>
-      <c r="AM33" s="121"/>
-      <c r="AN33" s="121"/>
-      <c r="AO33" s="121"/>
-      <c r="AP33" s="121"/>
-      <c r="AQ33" s="121"/>
-      <c r="AR33" s="121"/>
-      <c r="AS33" s="121"/>
-      <c r="AT33" s="121"/>
+      <c r="AD33" s="125"/>
+      <c r="AE33" s="125"/>
+      <c r="AF33" s="125"/>
+      <c r="AG33" s="125"/>
+      <c r="AH33" s="125"/>
+      <c r="AI33" s="125"/>
+      <c r="AJ33" s="125"/>
+      <c r="AK33" s="125"/>
+      <c r="AL33" s="125"/>
+      <c r="AM33" s="125"/>
+      <c r="AN33" s="125"/>
+      <c r="AO33" s="125"/>
+      <c r="AP33" s="125"/>
+      <c r="AQ33" s="125"/>
+      <c r="AR33" s="125"/>
+      <c r="AS33" s="125"/>
+      <c r="AT33" s="125"/>
     </row>
     <row r="34" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD34" s="120" t="s">
+      <c r="AD34" s="124" t="s">
         <v>391</v>
       </c>
-      <c r="AE34" s="121"/>
-      <c r="AF34" s="121"/>
-      <c r="AG34" s="121"/>
-      <c r="AH34" s="121"/>
-      <c r="AI34" s="121"/>
-      <c r="AJ34" s="121"/>
-      <c r="AK34" s="121"/>
-      <c r="AL34" s="121"/>
-      <c r="AM34" s="121"/>
-      <c r="AN34" s="121"/>
-      <c r="AO34" s="121"/>
-      <c r="AP34" s="121"/>
-      <c r="AQ34" s="121"/>
-      <c r="AR34" s="121"/>
-      <c r="AS34" s="121"/>
-      <c r="AT34" s="121"/>
+      <c r="AE34" s="125"/>
+      <c r="AF34" s="125"/>
+      <c r="AG34" s="125"/>
+      <c r="AH34" s="125"/>
+      <c r="AI34" s="125"/>
+      <c r="AJ34" s="125"/>
+      <c r="AK34" s="125"/>
+      <c r="AL34" s="125"/>
+      <c r="AM34" s="125"/>
+      <c r="AN34" s="125"/>
+      <c r="AO34" s="125"/>
+      <c r="AP34" s="125"/>
+      <c r="AQ34" s="125"/>
+      <c r="AR34" s="125"/>
+      <c r="AS34" s="125"/>
+      <c r="AT34" s="125"/>
     </row>
     <row r="35" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD35" s="121"/>
-      <c r="AE35" s="121"/>
-      <c r="AF35" s="121"/>
-      <c r="AG35" s="121"/>
-      <c r="AH35" s="121"/>
-      <c r="AI35" s="121"/>
-      <c r="AJ35" s="121"/>
-      <c r="AK35" s="121"/>
-      <c r="AL35" s="121"/>
-      <c r="AM35" s="121"/>
-      <c r="AN35" s="121"/>
-      <c r="AO35" s="121"/>
-      <c r="AP35" s="121"/>
-      <c r="AQ35" s="121"/>
-      <c r="AR35" s="121"/>
-      <c r="AS35" s="121"/>
-      <c r="AT35" s="121"/>
+      <c r="AD35" s="125"/>
+      <c r="AE35" s="125"/>
+      <c r="AF35" s="125"/>
+      <c r="AG35" s="125"/>
+      <c r="AH35" s="125"/>
+      <c r="AI35" s="125"/>
+      <c r="AJ35" s="125"/>
+      <c r="AK35" s="125"/>
+      <c r="AL35" s="125"/>
+      <c r="AM35" s="125"/>
+      <c r="AN35" s="125"/>
+      <c r="AO35" s="125"/>
+      <c r="AP35" s="125"/>
+      <c r="AQ35" s="125"/>
+      <c r="AR35" s="125"/>
+      <c r="AS35" s="125"/>
+      <c r="AT35" s="125"/>
     </row>
     <row r="36" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD36" s="120"/>
-      <c r="AE36" s="121"/>
-      <c r="AF36" s="121"/>
-      <c r="AG36" s="121"/>
-      <c r="AH36" s="121"/>
-      <c r="AI36" s="121"/>
-      <c r="AJ36" s="121"/>
-      <c r="AK36" s="121"/>
-      <c r="AL36" s="121"/>
-      <c r="AM36" s="121"/>
-      <c r="AN36" s="121"/>
-      <c r="AO36" s="121"/>
-      <c r="AP36" s="121"/>
-      <c r="AQ36" s="121"/>
-      <c r="AR36" s="121"/>
-      <c r="AS36" s="121"/>
-      <c r="AT36" s="121"/>
+      <c r="AD36" s="124"/>
+      <c r="AE36" s="125"/>
+      <c r="AF36" s="125"/>
+      <c r="AG36" s="125"/>
+      <c r="AH36" s="125"/>
+      <c r="AI36" s="125"/>
+      <c r="AJ36" s="125"/>
+      <c r="AK36" s="125"/>
+      <c r="AL36" s="125"/>
+      <c r="AM36" s="125"/>
+      <c r="AN36" s="125"/>
+      <c r="AO36" s="125"/>
+      <c r="AP36" s="125"/>
+      <c r="AQ36" s="125"/>
+      <c r="AR36" s="125"/>
+      <c r="AS36" s="125"/>
+      <c r="AT36" s="125"/>
     </row>
     <row r="37" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD37" s="121"/>
-      <c r="AE37" s="121"/>
-      <c r="AF37" s="121"/>
-      <c r="AG37" s="121"/>
-      <c r="AH37" s="121"/>
-      <c r="AI37" s="121"/>
-      <c r="AJ37" s="121"/>
-      <c r="AK37" s="121"/>
-      <c r="AL37" s="121"/>
-      <c r="AM37" s="121"/>
-      <c r="AN37" s="121"/>
-      <c r="AO37" s="121"/>
-      <c r="AP37" s="121"/>
-      <c r="AQ37" s="121"/>
-      <c r="AR37" s="121"/>
-      <c r="AS37" s="121"/>
-      <c r="AT37" s="121"/>
+      <c r="AD37" s="125"/>
+      <c r="AE37" s="125"/>
+      <c r="AF37" s="125"/>
+      <c r="AG37" s="125"/>
+      <c r="AH37" s="125"/>
+      <c r="AI37" s="125"/>
+      <c r="AJ37" s="125"/>
+      <c r="AK37" s="125"/>
+      <c r="AL37" s="125"/>
+      <c r="AM37" s="125"/>
+      <c r="AN37" s="125"/>
+      <c r="AO37" s="125"/>
+      <c r="AP37" s="125"/>
+      <c r="AQ37" s="125"/>
+      <c r="AR37" s="125"/>
+      <c r="AS37" s="125"/>
+      <c r="AT37" s="125"/>
     </row>
     <row r="42" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD42" s="119" t="s">
+      <c r="AD42" s="123" t="s">
         <v>421</v>
       </c>
-      <c r="AE42" s="119"/>
-      <c r="AF42" s="119"/>
-      <c r="AG42" s="119"/>
-      <c r="AH42" s="119"/>
-      <c r="AI42" s="119"/>
-      <c r="AJ42" s="119"/>
-      <c r="AK42" s="119"/>
+      <c r="AE42" s="123"/>
+      <c r="AF42" s="123"/>
+      <c r="AG42" s="123"/>
+      <c r="AH42" s="123"/>
+      <c r="AI42" s="123"/>
+      <c r="AJ42" s="123"/>
+      <c r="AK42" s="123"/>
     </row>
     <row r="43" spans="20:46" ht="33" x14ac:dyDescent="0.4">
       <c r="T43" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="AD43" s="119"/>
-      <c r="AE43" s="119"/>
-      <c r="AF43" s="119"/>
-      <c r="AG43" s="119"/>
-      <c r="AH43" s="119"/>
-      <c r="AI43" s="119"/>
-      <c r="AJ43" s="119"/>
-      <c r="AK43" s="119"/>
+      <c r="AD43" s="123"/>
+      <c r="AE43" s="123"/>
+      <c r="AF43" s="123"/>
+      <c r="AG43" s="123"/>
+      <c r="AH43" s="123"/>
+      <c r="AI43" s="123"/>
+      <c r="AJ43" s="123"/>
+      <c r="AK43" s="123"/>
     </row>
     <row r="44" spans="20:46" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T44" s="34" t="s">
@@ -21428,12 +21387,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FBE3EA-CD5B-4001-B514-A4237CED1ACB}">
   <dimension ref="C6:AA47"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AC42" sqref="AC42"/>
+      <selection activeCell="Y46" sqref="Y46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22591,7 +22550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9B6789-F08D-48A9-9501-8547128533AC}">
   <dimension ref="A2:G9"/>
   <sheetViews>
@@ -22606,20 +22565,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="137" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
       <c r="F3" s="72" t="s">
         <v>341</v>
       </c>
@@ -22686,7 +22645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9333299-5564-4C9F-BA84-D4349436EAE5}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J31"/>
@@ -22715,10 +22674,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="134"/>
+      <c r="F1" s="138"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -23134,4 +23093,63 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B46575-883B-481C-B347-C52B57709347}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B2:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="15" max="15" width="36.125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B2" s="139" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" t="s">
+        <v>329</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="116"/>
+      <c r="G3" t="s">
+        <v>328</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O4" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F7A79E-6666-4B99-8F21-8F71E3960D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F2CF4A-7431-435E-817E-7CDCBCEEBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="4" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="428">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -3535,6 +3535,14 @@
     <rPh sb="15" eb="17">
       <t>メダ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SKILL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skill</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4611,15 +4619,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4678,6 +4677,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5499,7 +5507,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スキル</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -15574,32 +15585,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="O1" s="139" t="s">
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="O1" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="136"/>
+      <c r="S2" s="136"/>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.4">
       <c r="S33" s="116"/>
@@ -15608,24 +15619,24 @@
       <c r="V33" s="116"/>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C34" s="139" t="s">
+      <c r="C34" s="136" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="136"/>
+      <c r="F34" s="136"/>
+      <c r="G34" s="136"/>
       <c r="S34" s="116"/>
       <c r="T34" s="116"/>
       <c r="U34" s="116"/>
       <c r="V34" s="116"/>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
+      <c r="C35" s="136"/>
+      <c r="D35" s="136"/>
+      <c r="E35" s="136"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15903,7 +15914,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16144,6 +16155,15 @@
         <v>243</v>
       </c>
       <c r="E10" s="1"/>
+      <c r="F10" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
@@ -16214,14 +16234,14 @@
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A1" s="73"/>
-      <c r="B1" s="117" t="s">
+      <c r="B1" s="137" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="119"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="139"/>
       <c r="H1" s="44">
         <v>44413</v>
       </c>
@@ -19139,31 +19159,31 @@
       <c r="D3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="120" t="s">
+      <c r="E3" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120" t="s">
+      <c r="F3" s="117"/>
+      <c r="G3" s="117" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="120"/>
+      <c r="H3" s="117"/>
       <c r="I3" s="20" t="s">
         <v>96</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="K3" s="120" t="s">
+      <c r="K3" s="117" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120" t="s">
+      <c r="L3" s="117"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="120"/>
+      <c r="Q3" s="117"/>
       <c r="R3" s="42" t="s">
         <v>97</v>
       </c>
@@ -20727,18 +20747,18 @@
       <c r="B26" s="70" t="s">
         <v>406</v>
       </c>
-      <c r="D26" s="121" t="s">
+      <c r="D26" s="118" t="s">
         <v>414</v>
       </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="118"/>
       <c r="X26" s="93"/>
     </row>
     <row r="27" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
@@ -20839,7 +20859,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M10" sqref="M10:N19"/>
     </sheetView>
   </sheetViews>
@@ -20950,7 +20970,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B2" s="122" t="s">
+      <c r="B2" s="119" t="s">
         <v>201</v>
       </c>
       <c r="C2" s="116"/>
@@ -21050,8 +21070,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AT44"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AP17" sqref="AP17"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23:AI26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -21105,261 +21125,261 @@
     </row>
     <row r="22" spans="28:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="28:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AD23" s="126" t="s">
+      <c r="AD23" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="AE23" s="127"/>
-      <c r="AF23" s="127"/>
-      <c r="AG23" s="127"/>
-      <c r="AH23" s="127"/>
-      <c r="AI23" s="128"/>
+      <c r="AE23" s="124"/>
+      <c r="AF23" s="124"/>
+      <c r="AG23" s="124"/>
+      <c r="AH23" s="124"/>
+      <c r="AI23" s="125"/>
     </row>
     <row r="24" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD24" s="129"/>
-      <c r="AE24" s="130"/>
-      <c r="AF24" s="130"/>
-      <c r="AG24" s="130"/>
-      <c r="AH24" s="130"/>
-      <c r="AI24" s="131"/>
+      <c r="AD24" s="126"/>
+      <c r="AE24" s="127"/>
+      <c r="AF24" s="127"/>
+      <c r="AG24" s="127"/>
+      <c r="AH24" s="127"/>
+      <c r="AI24" s="128"/>
     </row>
     <row r="25" spans="28:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AD25" s="129"/>
-      <c r="AE25" s="130"/>
-      <c r="AF25" s="130"/>
-      <c r="AG25" s="130"/>
-      <c r="AH25" s="130"/>
-      <c r="AI25" s="131"/>
+      <c r="AD25" s="126"/>
+      <c r="AE25" s="127"/>
+      <c r="AF25" s="127"/>
+      <c r="AG25" s="127"/>
+      <c r="AH25" s="127"/>
+      <c r="AI25" s="128"/>
     </row>
     <row r="26" spans="28:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="133"/>
-      <c r="AF26" s="133"/>
-      <c r="AG26" s="133"/>
-      <c r="AH26" s="133"/>
-      <c r="AI26" s="134"/>
+      <c r="AD26" s="129"/>
+      <c r="AE26" s="130"/>
+      <c r="AF26" s="130"/>
+      <c r="AG26" s="130"/>
+      <c r="AH26" s="130"/>
+      <c r="AI26" s="131"/>
     </row>
     <row r="28" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD28" s="135" t="s">
+      <c r="AD28" s="132" t="s">
         <v>388</v>
       </c>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="136"/>
-      <c r="AG28" s="136"/>
-      <c r="AH28" s="136"/>
-      <c r="AI28" s="136"/>
-      <c r="AJ28" s="136"/>
-      <c r="AK28" s="136"/>
-      <c r="AL28" s="136"/>
-      <c r="AM28" s="136"/>
-      <c r="AN28" s="136"/>
-      <c r="AO28" s="136"/>
-      <c r="AP28" s="136"/>
-      <c r="AQ28" s="136"/>
-      <c r="AR28" s="136"/>
-      <c r="AS28" s="136"/>
-      <c r="AT28" s="136"/>
+      <c r="AE28" s="133"/>
+      <c r="AF28" s="133"/>
+      <c r="AG28" s="133"/>
+      <c r="AH28" s="133"/>
+      <c r="AI28" s="133"/>
+      <c r="AJ28" s="133"/>
+      <c r="AK28" s="133"/>
+      <c r="AL28" s="133"/>
+      <c r="AM28" s="133"/>
+      <c r="AN28" s="133"/>
+      <c r="AO28" s="133"/>
+      <c r="AP28" s="133"/>
+      <c r="AQ28" s="133"/>
+      <c r="AR28" s="133"/>
+      <c r="AS28" s="133"/>
+      <c r="AT28" s="133"/>
     </row>
     <row r="29" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD29" s="136"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="136"/>
-      <c r="AG29" s="136"/>
-      <c r="AH29" s="136"/>
-      <c r="AI29" s="136"/>
-      <c r="AJ29" s="136"/>
-      <c r="AK29" s="136"/>
-      <c r="AL29" s="136"/>
-      <c r="AM29" s="136"/>
-      <c r="AN29" s="136"/>
-      <c r="AO29" s="136"/>
-      <c r="AP29" s="136"/>
-      <c r="AQ29" s="136"/>
-      <c r="AR29" s="136"/>
-      <c r="AS29" s="136"/>
-      <c r="AT29" s="136"/>
+      <c r="AD29" s="133"/>
+      <c r="AE29" s="133"/>
+      <c r="AF29" s="133"/>
+      <c r="AG29" s="133"/>
+      <c r="AH29" s="133"/>
+      <c r="AI29" s="133"/>
+      <c r="AJ29" s="133"/>
+      <c r="AK29" s="133"/>
+      <c r="AL29" s="133"/>
+      <c r="AM29" s="133"/>
+      <c r="AN29" s="133"/>
+      <c r="AO29" s="133"/>
+      <c r="AP29" s="133"/>
+      <c r="AQ29" s="133"/>
+      <c r="AR29" s="133"/>
+      <c r="AS29" s="133"/>
+      <c r="AT29" s="133"/>
     </row>
     <row r="30" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD30" s="124" t="s">
+      <c r="AD30" s="121" t="s">
         <v>389</v>
       </c>
-      <c r="AE30" s="125"/>
-      <c r="AF30" s="125"/>
-      <c r="AG30" s="125"/>
-      <c r="AH30" s="125"/>
-      <c r="AI30" s="125"/>
-      <c r="AJ30" s="125"/>
-      <c r="AK30" s="125"/>
-      <c r="AL30" s="125"/>
-      <c r="AM30" s="125"/>
-      <c r="AN30" s="125"/>
-      <c r="AO30" s="125"/>
-      <c r="AP30" s="125"/>
-      <c r="AQ30" s="125"/>
-      <c r="AR30" s="125"/>
-      <c r="AS30" s="125"/>
-      <c r="AT30" s="125"/>
+      <c r="AE30" s="122"/>
+      <c r="AF30" s="122"/>
+      <c r="AG30" s="122"/>
+      <c r="AH30" s="122"/>
+      <c r="AI30" s="122"/>
+      <c r="AJ30" s="122"/>
+      <c r="AK30" s="122"/>
+      <c r="AL30" s="122"/>
+      <c r="AM30" s="122"/>
+      <c r="AN30" s="122"/>
+      <c r="AO30" s="122"/>
+      <c r="AP30" s="122"/>
+      <c r="AQ30" s="122"/>
+      <c r="AR30" s="122"/>
+      <c r="AS30" s="122"/>
+      <c r="AT30" s="122"/>
     </row>
     <row r="31" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD31" s="125"/>
-      <c r="AE31" s="125"/>
-      <c r="AF31" s="125"/>
-      <c r="AG31" s="125"/>
-      <c r="AH31" s="125"/>
-      <c r="AI31" s="125"/>
-      <c r="AJ31" s="125"/>
-      <c r="AK31" s="125"/>
-      <c r="AL31" s="125"/>
-      <c r="AM31" s="125"/>
-      <c r="AN31" s="125"/>
-      <c r="AO31" s="125"/>
-      <c r="AP31" s="125"/>
-      <c r="AQ31" s="125"/>
-      <c r="AR31" s="125"/>
-      <c r="AS31" s="125"/>
-      <c r="AT31" s="125"/>
+      <c r="AD31" s="122"/>
+      <c r="AE31" s="122"/>
+      <c r="AF31" s="122"/>
+      <c r="AG31" s="122"/>
+      <c r="AH31" s="122"/>
+      <c r="AI31" s="122"/>
+      <c r="AJ31" s="122"/>
+      <c r="AK31" s="122"/>
+      <c r="AL31" s="122"/>
+      <c r="AM31" s="122"/>
+      <c r="AN31" s="122"/>
+      <c r="AO31" s="122"/>
+      <c r="AP31" s="122"/>
+      <c r="AQ31" s="122"/>
+      <c r="AR31" s="122"/>
+      <c r="AS31" s="122"/>
+      <c r="AT31" s="122"/>
     </row>
     <row r="32" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD32" s="124" t="s">
+      <c r="AD32" s="121" t="s">
         <v>390</v>
       </c>
-      <c r="AE32" s="125"/>
-      <c r="AF32" s="125"/>
-      <c r="AG32" s="125"/>
-      <c r="AH32" s="125"/>
-      <c r="AI32" s="125"/>
-      <c r="AJ32" s="125"/>
-      <c r="AK32" s="125"/>
-      <c r="AL32" s="125"/>
-      <c r="AM32" s="125"/>
-      <c r="AN32" s="125"/>
-      <c r="AO32" s="125"/>
-      <c r="AP32" s="125"/>
-      <c r="AQ32" s="125"/>
-      <c r="AR32" s="125"/>
-      <c r="AS32" s="125"/>
-      <c r="AT32" s="125"/>
+      <c r="AE32" s="122"/>
+      <c r="AF32" s="122"/>
+      <c r="AG32" s="122"/>
+      <c r="AH32" s="122"/>
+      <c r="AI32" s="122"/>
+      <c r="AJ32" s="122"/>
+      <c r="AK32" s="122"/>
+      <c r="AL32" s="122"/>
+      <c r="AM32" s="122"/>
+      <c r="AN32" s="122"/>
+      <c r="AO32" s="122"/>
+      <c r="AP32" s="122"/>
+      <c r="AQ32" s="122"/>
+      <c r="AR32" s="122"/>
+      <c r="AS32" s="122"/>
+      <c r="AT32" s="122"/>
     </row>
     <row r="33" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD33" s="125"/>
-      <c r="AE33" s="125"/>
-      <c r="AF33" s="125"/>
-      <c r="AG33" s="125"/>
-      <c r="AH33" s="125"/>
-      <c r="AI33" s="125"/>
-      <c r="AJ33" s="125"/>
-      <c r="AK33" s="125"/>
-      <c r="AL33" s="125"/>
-      <c r="AM33" s="125"/>
-      <c r="AN33" s="125"/>
-      <c r="AO33" s="125"/>
-      <c r="AP33" s="125"/>
-      <c r="AQ33" s="125"/>
-      <c r="AR33" s="125"/>
-      <c r="AS33" s="125"/>
-      <c r="AT33" s="125"/>
+      <c r="AD33" s="122"/>
+      <c r="AE33" s="122"/>
+      <c r="AF33" s="122"/>
+      <c r="AG33" s="122"/>
+      <c r="AH33" s="122"/>
+      <c r="AI33" s="122"/>
+      <c r="AJ33" s="122"/>
+      <c r="AK33" s="122"/>
+      <c r="AL33" s="122"/>
+      <c r="AM33" s="122"/>
+      <c r="AN33" s="122"/>
+      <c r="AO33" s="122"/>
+      <c r="AP33" s="122"/>
+      <c r="AQ33" s="122"/>
+      <c r="AR33" s="122"/>
+      <c r="AS33" s="122"/>
+      <c r="AT33" s="122"/>
     </row>
     <row r="34" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD34" s="124" t="s">
+      <c r="AD34" s="121" t="s">
         <v>391</v>
       </c>
-      <c r="AE34" s="125"/>
-      <c r="AF34" s="125"/>
-      <c r="AG34" s="125"/>
-      <c r="AH34" s="125"/>
-      <c r="AI34" s="125"/>
-      <c r="AJ34" s="125"/>
-      <c r="AK34" s="125"/>
-      <c r="AL34" s="125"/>
-      <c r="AM34" s="125"/>
-      <c r="AN34" s="125"/>
-      <c r="AO34" s="125"/>
-      <c r="AP34" s="125"/>
-      <c r="AQ34" s="125"/>
-      <c r="AR34" s="125"/>
-      <c r="AS34" s="125"/>
-      <c r="AT34" s="125"/>
+      <c r="AE34" s="122"/>
+      <c r="AF34" s="122"/>
+      <c r="AG34" s="122"/>
+      <c r="AH34" s="122"/>
+      <c r="AI34" s="122"/>
+      <c r="AJ34" s="122"/>
+      <c r="AK34" s="122"/>
+      <c r="AL34" s="122"/>
+      <c r="AM34" s="122"/>
+      <c r="AN34" s="122"/>
+      <c r="AO34" s="122"/>
+      <c r="AP34" s="122"/>
+      <c r="AQ34" s="122"/>
+      <c r="AR34" s="122"/>
+      <c r="AS34" s="122"/>
+      <c r="AT34" s="122"/>
     </row>
     <row r="35" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD35" s="125"/>
-      <c r="AE35" s="125"/>
-      <c r="AF35" s="125"/>
-      <c r="AG35" s="125"/>
-      <c r="AH35" s="125"/>
-      <c r="AI35" s="125"/>
-      <c r="AJ35" s="125"/>
-      <c r="AK35" s="125"/>
-      <c r="AL35" s="125"/>
-      <c r="AM35" s="125"/>
-      <c r="AN35" s="125"/>
-      <c r="AO35" s="125"/>
-      <c r="AP35" s="125"/>
-      <c r="AQ35" s="125"/>
-      <c r="AR35" s="125"/>
-      <c r="AS35" s="125"/>
-      <c r="AT35" s="125"/>
+      <c r="AD35" s="122"/>
+      <c r="AE35" s="122"/>
+      <c r="AF35" s="122"/>
+      <c r="AG35" s="122"/>
+      <c r="AH35" s="122"/>
+      <c r="AI35" s="122"/>
+      <c r="AJ35" s="122"/>
+      <c r="AK35" s="122"/>
+      <c r="AL35" s="122"/>
+      <c r="AM35" s="122"/>
+      <c r="AN35" s="122"/>
+      <c r="AO35" s="122"/>
+      <c r="AP35" s="122"/>
+      <c r="AQ35" s="122"/>
+      <c r="AR35" s="122"/>
+      <c r="AS35" s="122"/>
+      <c r="AT35" s="122"/>
     </row>
     <row r="36" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD36" s="124"/>
-      <c r="AE36" s="125"/>
-      <c r="AF36" s="125"/>
-      <c r="AG36" s="125"/>
-      <c r="AH36" s="125"/>
-      <c r="AI36" s="125"/>
-      <c r="AJ36" s="125"/>
-      <c r="AK36" s="125"/>
-      <c r="AL36" s="125"/>
-      <c r="AM36" s="125"/>
-      <c r="AN36" s="125"/>
-      <c r="AO36" s="125"/>
-      <c r="AP36" s="125"/>
-      <c r="AQ36" s="125"/>
-      <c r="AR36" s="125"/>
-      <c r="AS36" s="125"/>
-      <c r="AT36" s="125"/>
+      <c r="AD36" s="121"/>
+      <c r="AE36" s="122"/>
+      <c r="AF36" s="122"/>
+      <c r="AG36" s="122"/>
+      <c r="AH36" s="122"/>
+      <c r="AI36" s="122"/>
+      <c r="AJ36" s="122"/>
+      <c r="AK36" s="122"/>
+      <c r="AL36" s="122"/>
+      <c r="AM36" s="122"/>
+      <c r="AN36" s="122"/>
+      <c r="AO36" s="122"/>
+      <c r="AP36" s="122"/>
+      <c r="AQ36" s="122"/>
+      <c r="AR36" s="122"/>
+      <c r="AS36" s="122"/>
+      <c r="AT36" s="122"/>
     </row>
     <row r="37" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD37" s="125"/>
-      <c r="AE37" s="125"/>
-      <c r="AF37" s="125"/>
-      <c r="AG37" s="125"/>
-      <c r="AH37" s="125"/>
-      <c r="AI37" s="125"/>
-      <c r="AJ37" s="125"/>
-      <c r="AK37" s="125"/>
-      <c r="AL37" s="125"/>
-      <c r="AM37" s="125"/>
-      <c r="AN37" s="125"/>
-      <c r="AO37" s="125"/>
-      <c r="AP37" s="125"/>
-      <c r="AQ37" s="125"/>
-      <c r="AR37" s="125"/>
-      <c r="AS37" s="125"/>
-      <c r="AT37" s="125"/>
+      <c r="AD37" s="122"/>
+      <c r="AE37" s="122"/>
+      <c r="AF37" s="122"/>
+      <c r="AG37" s="122"/>
+      <c r="AH37" s="122"/>
+      <c r="AI37" s="122"/>
+      <c r="AJ37" s="122"/>
+      <c r="AK37" s="122"/>
+      <c r="AL37" s="122"/>
+      <c r="AM37" s="122"/>
+      <c r="AN37" s="122"/>
+      <c r="AO37" s="122"/>
+      <c r="AP37" s="122"/>
+      <c r="AQ37" s="122"/>
+      <c r="AR37" s="122"/>
+      <c r="AS37" s="122"/>
+      <c r="AT37" s="122"/>
     </row>
     <row r="42" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD42" s="123" t="s">
+      <c r="AD42" s="120" t="s">
         <v>421</v>
       </c>
-      <c r="AE42" s="123"/>
-      <c r="AF42" s="123"/>
-      <c r="AG42" s="123"/>
-      <c r="AH42" s="123"/>
-      <c r="AI42" s="123"/>
-      <c r="AJ42" s="123"/>
-      <c r="AK42" s="123"/>
+      <c r="AE42" s="120"/>
+      <c r="AF42" s="120"/>
+      <c r="AG42" s="120"/>
+      <c r="AH42" s="120"/>
+      <c r="AI42" s="120"/>
+      <c r="AJ42" s="120"/>
+      <c r="AK42" s="120"/>
     </row>
     <row r="43" spans="20:46" ht="33" x14ac:dyDescent="0.4">
       <c r="T43" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="AD43" s="123"/>
-      <c r="AE43" s="123"/>
-      <c r="AF43" s="123"/>
-      <c r="AG43" s="123"/>
-      <c r="AH43" s="123"/>
-      <c r="AI43" s="123"/>
-      <c r="AJ43" s="123"/>
-      <c r="AK43" s="123"/>
+      <c r="AD43" s="120"/>
+      <c r="AE43" s="120"/>
+      <c r="AF43" s="120"/>
+      <c r="AG43" s="120"/>
+      <c r="AH43" s="120"/>
+      <c r="AI43" s="120"/>
+      <c r="AJ43" s="120"/>
+      <c r="AK43" s="120"/>
     </row>
     <row r="44" spans="20:46" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T44" s="34" t="s">
@@ -22565,20 +22585,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="134" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
       <c r="F3" s="72" t="s">
         <v>341</v>
       </c>
@@ -22674,10 +22694,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="138" t="s">
+      <c r="E1" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="138"/>
+      <c r="F1" s="135"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -23111,7 +23131,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="136" t="s">
         <v>189</v>
       </c>
       <c r="C2" s="116"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F2CF4A-7431-435E-817E-7CDCBCEEBC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15250D69-2FAD-4E1C-84EE-F03B02673382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="4" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId1"/>
-    <sheet name="戦車のステータス" sheetId="9" r:id="rId2"/>
-    <sheet name="タイトル&amp;選択&amp;リザルト" sheetId="4" r:id="rId3"/>
-    <sheet name="ポーズ画面" sheetId="12" r:id="rId4"/>
-    <sheet name="ゲーム画面の仕様" sheetId="13" r:id="rId5"/>
-    <sheet name="敵" sheetId="17" r:id="rId6"/>
-    <sheet name="味方AI" sheetId="16" r:id="rId7"/>
-    <sheet name="ゲーム（プログラム）" sheetId="1" r:id="rId8"/>
+    <sheet name="ゲーム（プログラム）" sheetId="1" r:id="rId2"/>
+    <sheet name="戦車のステータス" sheetId="9" r:id="rId3"/>
+    <sheet name="タイトル&amp;選択&amp;リザルト" sheetId="4" r:id="rId4"/>
+    <sheet name="ポーズ画面" sheetId="12" r:id="rId5"/>
+    <sheet name="ゲーム画面の仕様" sheetId="13" r:id="rId6"/>
+    <sheet name="敵" sheetId="17" r:id="rId7"/>
+    <sheet name="味方AI" sheetId="16" r:id="rId8"/>
     <sheet name="チュートリアル" sheetId="11" r:id="rId9"/>
-    <sheet name="クラス図" sheetId="6" r:id="rId10"/>
+    <sheet name="クラス図" sheetId="6" state="hidden" r:id="rId10"/>
     <sheet name="操作方法" sheetId="7" r:id="rId11"/>
     <sheet name="デザイン" sheetId="5" r:id="rId12"/>
     <sheet name="サウンド" sheetId="10" r:id="rId13"/>
@@ -52,6 +52,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={9F564455-3C72-411C-BD3C-A1431551859E}</author>
+  </authors>
+  <commentList>
+    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{9F564455-3C72-411C-BD3C-A1431551859E}">
+      <text>
+        <t>[スレッド化されたコメント]
+使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
+コメント:
+    オレンジは完成済み</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={1D813032-6145-4CA9-A357-E5F7051E0ECF}</author>
   </authors>
   <commentList>
@@ -69,7 +87,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={C755F188-33F1-465C-A83B-8C46D255DFAD}</author>
@@ -85,24 +103,6 @@
 殲滅ゲージが必要になるから、２、３はなし
 返信:
 ４は自分用の殲滅ゲージを追加する必要がある</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={9F564455-3C72-411C-BD3C-A1431551859E}</author>
-  </authors>
-  <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{9F564455-3C72-411C-BD3C-A1431551859E}">
-      <text>
-        <t>[スレッド化されたコメント]
-使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
-コメント:
-    オレンジは完成済み</t>
       </text>
     </comment>
   </commentList>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="434">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -3543,6 +3543,63 @@
   </si>
   <si>
     <t>Skill</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓↓夏まで↓↓</t>
+    <rPh sb="2" eb="3">
+      <t>ナツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OBBの壁のめり込みを直す</t>
+    <rPh sb="4" eb="5">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考記事あり</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>どんなマップがいいか研究する？</t>
+    <rPh sb="10" eb="12">
+      <t>ケンキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を複数配置できるようにする</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3828,7 +3885,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -4231,6 +4288,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4267,7 +4335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4688,6 +4756,15 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - アクセント 2" xfId="2" builtinId="34"/>
@@ -4702,7 +4779,23 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="予定" xfId="7" xr:uid="{F50910B9-FE2C-4E6F-B2E3-BEDFA886AE69}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE4D6"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE4D6"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -15312,6 +15405,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A40" dT="2021-08-03T14:16:24.08" personId="{18D29A4B-27EE-402D-B054-99034510212C}" id="{9F564455-3C72-411C-BD3C-A1431551859E}">
+    <text>オレンジは完成済み</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="E2" dT="2021-08-03T13:36:13.09" personId="{18D29A4B-27EE-402D-B054-99034510212C}" id="{1D813032-6145-4CA9-A357-E5F7051E0ECF}">
     <text>青が実際にプログラムで使う数値
 オレンジは作成済み
@@ -15320,7 +15421,7 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="A1" dT="2021-08-03T14:41:41.43" personId="{18D29A4B-27EE-402D-B054-99034510212C}" id="{C755F188-33F1-465C-A83B-8C46D255DFAD}">
     <text>プレイヤー戦車の上はリロードが見えなくなるので１は却下。</text>
@@ -15330,14 +15431,6 @@
   </threadedComment>
   <threadedComment ref="A1" dT="2021-08-03T14:44:17.24" personId="{18D29A4B-27EE-402D-B054-99034510212C}" id="{58CBCC7A-8EE1-4AE4-AAE4-B9E99643451A}" parentId="{C755F188-33F1-465C-A83B-8C46D255DFAD}">
     <text>４は自分用の殲滅ゲージを追加する必要がある</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A11" dT="2021-08-03T14:16:24.08" personId="{18D29A4B-27EE-402D-B054-99034510212C}" id="{9F564455-3C72-411C-BD3C-A1431551859E}">
-    <text>オレンジは完成済み</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -16224,12 +16317,10 @@
     <col min="3" max="3" width="39.25" style="36" customWidth="1"/>
     <col min="4" max="6" width="10.625" style="36" customWidth="1"/>
     <col min="7" max="7" width="9" style="68"/>
-    <col min="8" max="33" width="9" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="34" max="34" width="9" style="36" hidden="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="35" max="63" width="9" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="64" max="84" width="0" style="36" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="85" max="85" width="9" style="36" collapsed="1"/>
-    <col min="86" max="16384" width="9" style="36"/>
+    <col min="8" max="33" width="9" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="34" max="34" width="9" style="36" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="35" max="84" width="9" style="36" customWidth="1" outlineLevel="1"/>
+    <col min="85" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.4">
@@ -19092,6 +19183,528 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9333299-5564-4C9F-BA84-D4349436EAE5}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:J60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="53.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4" customWidth="1"/>
+    <col min="3" max="3" width="51.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="6" width="45" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="135" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="135"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B2" s="4">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E9" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E12" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E13" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E14" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E15" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="E16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E17" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E18" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E19" s="4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E20" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E21" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E22" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30" s="140" t="s">
+        <v>428</v>
+      </c>
+      <c r="B30" s="141"/>
+      <c r="C30" s="142"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="75">
+        <v>3</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="75">
+        <v>4</v>
+      </c>
+      <c r="C32" s="75" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="4">
+        <v>4</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="4">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="4">
+        <v>5</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="4">
+        <v>5</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="4">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="6">
+        <v>1</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A41" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B41" s="6">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" s="6">
+        <v>1</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="6">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A44" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="6">
+        <v>1</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A45" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="6">
+        <v>1</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A46" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="6">
+        <v>2</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A47" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" s="6">
+        <v>2</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A48" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" s="6">
+        <v>2</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="6">
+        <v>2</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A50" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="6">
+        <v>2</v>
+      </c>
+      <c r="C50" s="6"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A51" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="6">
+        <v>2</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A52" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="6">
+        <v>2</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="6">
+        <v>2</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A54" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="6">
+        <v>2</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A55" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="6">
+        <v>2</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A56" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56" s="6">
+        <v>3</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A57" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="6">
+        <v>3</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="6">
+        <v>3</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A59" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="6">
+        <v>3</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A60" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B60" s="6">
+        <v>5</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:C60">
+    <sortCondition descending="1" sortBy="cellColor" ref="A31:A60" dxfId="2"/>
+    <sortCondition ref="B31:B60"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A30:C30"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64C319C-B3F7-46D4-A76A-A521F6B05E0F}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:Z46"/>
@@ -20854,7 +21467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A92D0F-E9DE-4982-A6B9-91FAB732DBD9}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R58"/>
@@ -20955,7 +21568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12DCD76-5273-4CA2-9E7A-8BC5E74993CF}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:S32"/>
@@ -21065,12 +21678,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F840A3-C673-472F-B158-91E7EE049523}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AT44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="AD23" sqref="AD23:AI26"/>
     </sheetView>
   </sheetViews>
@@ -21407,7 +22020,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FBE3EA-CD5B-4001-B514-A4237CED1ACB}">
   <dimension ref="C6:AA47"/>
   <sheetViews>
@@ -22570,12 +23183,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9B6789-F08D-48A9-9501-8547128533AC}">
   <dimension ref="A2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22662,456 +23275,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9333299-5564-4C9F-BA84-D4349436EAE5}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:J31"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="53.75" style="4" customWidth="1"/>
-    <col min="2" max="2" width="9" style="4" customWidth="1"/>
-    <col min="3" max="3" width="51.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="5" max="6" width="45" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="135"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="75">
-        <v>3</v>
-      </c>
-      <c r="C2" s="75" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="75">
-        <v>4</v>
-      </c>
-      <c r="C3" s="75" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="4">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="4">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="4">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="E10" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A17" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="6">
-        <v>2</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A18" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B18" s="6">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" s="6">
-        <v>2</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A20" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="6">
-        <v>2</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="6">
-        <v>2</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="E21" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A22" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="6">
-        <v>2</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="6">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25" s="6">
-        <v>2</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="6">
-        <v>2</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="6">
-        <v>3</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28" s="6">
-        <v>3</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A29" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="6">
-        <v>3</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="6">
-        <v>3</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B31" s="6">
-        <v>5</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C31">
-    <sortCondition descending="1" sortBy="cellColor" ref="A2:A31" dxfId="0"/>
-    <sortCondition ref="B2:B31"/>
-  </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="E1:F1"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15250D69-2FAD-4E1C-84EE-F03B02673382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC647828-B74D-4928-967D-A3CC9C4918FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="436">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -3600,6 +3600,14 @@
     <rPh sb="4" eb="6">
       <t>ハイチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3824,7 +3832,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3882,6 +3890,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -4335,7 +4349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4687,6 +4701,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4741,9 +4767,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4756,14 +4779,8 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4779,23 +4796,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="予定" xfId="7" xr:uid="{F50910B9-FE2C-4E6F-B2E3-BEDFA886AE69}"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -15463,7 +15464,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H15" sqref="H15:I15"/>
     </sheetView>
   </sheetViews>
@@ -15678,32 +15679,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="O1" s="136" t="s">
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="O1" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="136"/>
-      <c r="Q1" s="136"/>
-      <c r="R1" s="136"/>
-      <c r="S1" s="136"/>
+      <c r="P1" s="139"/>
+      <c r="Q1" s="139"/>
+      <c r="R1" s="139"/>
+      <c r="S1" s="139"/>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="136"/>
-      <c r="S2" s="136"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="139"/>
+      <c r="Q2" s="139"/>
+      <c r="R2" s="139"/>
+      <c r="S2" s="139"/>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.4">
       <c r="S33" s="116"/>
@@ -15712,24 +15713,24 @@
       <c r="V33" s="116"/>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C34" s="136" t="s">
+      <c r="C34" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
       <c r="S34" s="116"/>
       <c r="T34" s="116"/>
       <c r="U34" s="116"/>
       <c r="V34" s="116"/>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C35" s="136"/>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
+      <c r="C35" s="139"/>
+      <c r="D35" s="139"/>
+      <c r="E35" s="139"/>
+      <c r="F35" s="139"/>
+      <c r="G35" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15748,14 +15749,22 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D682D3EA-40D3-4F3B-9CCB-CED52C63D011}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="Z22:AB27"/>
+  <dimension ref="R14:AB28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
+    <row r="14" spans="18:19" x14ac:dyDescent="0.4">
+      <c r="R14" s="143" t="s">
+        <v>435</v>
+      </c>
+      <c r="S14" s="143" t="s">
+        <v>404</v>
+      </c>
+    </row>
     <row r="22" spans="26:28" x14ac:dyDescent="0.4">
       <c r="Z22" t="s">
         <v>178</v>
@@ -15805,6 +15814,14 @@
       </c>
       <c r="AA27" t="s">
         <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="26:28" x14ac:dyDescent="0.4">
+      <c r="Z28" s="143" t="s">
+        <v>434</v>
+      </c>
+      <c r="AA28" s="143" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -16007,7 +16024,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="F17" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -16325,14 +16342,14 @@
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A1" s="73"/>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="140" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
-      <c r="G1" s="139"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="142"/>
       <c r="H1" s="44">
         <v>44413</v>
       </c>
@@ -19188,7 +19205,7 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -19211,10 +19228,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="135" t="s">
+      <c r="E1" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="135"/>
+      <c r="F1" s="117"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -19365,11 +19382,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="140" t="s">
+      <c r="A30" s="118" t="s">
         <v>428</v>
       </c>
-      <c r="B30" s="141"/>
-      <c r="C30" s="142"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="120"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="75" t="s">
@@ -19690,7 +19707,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:C60">
-    <sortCondition descending="1" sortBy="cellColor" ref="A31:A60" dxfId="2"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="A31:A60" dxfId="0"/>
     <sortCondition ref="B31:B60"/>
   </sortState>
   <mergeCells count="2">
@@ -19772,31 +19789,31 @@
       <c r="D3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="117" t="s">
+      <c r="E3" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117" t="s">
+      <c r="F3" s="121"/>
+      <c r="G3" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="117"/>
+      <c r="H3" s="121"/>
       <c r="I3" s="20" t="s">
         <v>96</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="K3" s="117" t="s">
+      <c r="K3" s="121" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="117"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117" t="s">
+      <c r="L3" s="121"/>
+      <c r="M3" s="121"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="121"/>
+      <c r="P3" s="121" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="117"/>
+      <c r="Q3" s="121"/>
       <c r="R3" s="42" t="s">
         <v>97</v>
       </c>
@@ -21360,18 +21377,18 @@
       <c r="B26" s="70" t="s">
         <v>406</v>
       </c>
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="122" t="s">
         <v>414</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="118"/>
-      <c r="J26" s="118"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="118"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="122"/>
+      <c r="M26" s="122"/>
       <c r="X26" s="93"/>
     </row>
     <row r="27" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
@@ -21472,7 +21489,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R58"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M10" sqref="M10:N19"/>
     </sheetView>
   </sheetViews>
@@ -21573,7 +21590,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:S32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -21583,7 +21600,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="123" t="s">
         <v>201</v>
       </c>
       <c r="C2" s="116"/>
@@ -21683,8 +21700,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AT44"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23:AI26"/>
+    <sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -21738,261 +21755,261 @@
     </row>
     <row r="22" spans="28:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="28:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AD23" s="123" t="s">
+      <c r="AD23" s="127" t="s">
         <v>123</v>
       </c>
-      <c r="AE23" s="124"/>
-      <c r="AF23" s="124"/>
-      <c r="AG23" s="124"/>
-      <c r="AH23" s="124"/>
-      <c r="AI23" s="125"/>
+      <c r="AE23" s="128"/>
+      <c r="AF23" s="128"/>
+      <c r="AG23" s="128"/>
+      <c r="AH23" s="128"/>
+      <c r="AI23" s="129"/>
     </row>
     <row r="24" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD24" s="126"/>
-      <c r="AE24" s="127"/>
-      <c r="AF24" s="127"/>
-      <c r="AG24" s="127"/>
-      <c r="AH24" s="127"/>
-      <c r="AI24" s="128"/>
+      <c r="AD24" s="130"/>
+      <c r="AE24" s="131"/>
+      <c r="AF24" s="131"/>
+      <c r="AG24" s="131"/>
+      <c r="AH24" s="131"/>
+      <c r="AI24" s="132"/>
     </row>
     <row r="25" spans="28:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AD25" s="126"/>
-      <c r="AE25" s="127"/>
-      <c r="AF25" s="127"/>
-      <c r="AG25" s="127"/>
-      <c r="AH25" s="127"/>
-      <c r="AI25" s="128"/>
+      <c r="AD25" s="130"/>
+      <c r="AE25" s="131"/>
+      <c r="AF25" s="131"/>
+      <c r="AG25" s="131"/>
+      <c r="AH25" s="131"/>
+      <c r="AI25" s="132"/>
     </row>
     <row r="26" spans="28:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AD26" s="129"/>
-      <c r="AE26" s="130"/>
-      <c r="AF26" s="130"/>
-      <c r="AG26" s="130"/>
-      <c r="AH26" s="130"/>
-      <c r="AI26" s="131"/>
+      <c r="AD26" s="133"/>
+      <c r="AE26" s="134"/>
+      <c r="AF26" s="134"/>
+      <c r="AG26" s="134"/>
+      <c r="AH26" s="134"/>
+      <c r="AI26" s="135"/>
     </row>
     <row r="28" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD28" s="132" t="s">
+      <c r="AD28" s="136" t="s">
         <v>388</v>
       </c>
-      <c r="AE28" s="133"/>
-      <c r="AF28" s="133"/>
-      <c r="AG28" s="133"/>
-      <c r="AH28" s="133"/>
-      <c r="AI28" s="133"/>
-      <c r="AJ28" s="133"/>
-      <c r="AK28" s="133"/>
-      <c r="AL28" s="133"/>
-      <c r="AM28" s="133"/>
-      <c r="AN28" s="133"/>
-      <c r="AO28" s="133"/>
-      <c r="AP28" s="133"/>
-      <c r="AQ28" s="133"/>
-      <c r="AR28" s="133"/>
-      <c r="AS28" s="133"/>
-      <c r="AT28" s="133"/>
+      <c r="AE28" s="137"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="137"/>
+      <c r="AH28" s="137"/>
+      <c r="AI28" s="137"/>
+      <c r="AJ28" s="137"/>
+      <c r="AK28" s="137"/>
+      <c r="AL28" s="137"/>
+      <c r="AM28" s="137"/>
+      <c r="AN28" s="137"/>
+      <c r="AO28" s="137"/>
+      <c r="AP28" s="137"/>
+      <c r="AQ28" s="137"/>
+      <c r="AR28" s="137"/>
+      <c r="AS28" s="137"/>
+      <c r="AT28" s="137"/>
     </row>
     <row r="29" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD29" s="133"/>
-      <c r="AE29" s="133"/>
-      <c r="AF29" s="133"/>
-      <c r="AG29" s="133"/>
-      <c r="AH29" s="133"/>
-      <c r="AI29" s="133"/>
-      <c r="AJ29" s="133"/>
-      <c r="AK29" s="133"/>
-      <c r="AL29" s="133"/>
-      <c r="AM29" s="133"/>
-      <c r="AN29" s="133"/>
-      <c r="AO29" s="133"/>
-      <c r="AP29" s="133"/>
-      <c r="AQ29" s="133"/>
-      <c r="AR29" s="133"/>
-      <c r="AS29" s="133"/>
-      <c r="AT29" s="133"/>
+      <c r="AD29" s="137"/>
+      <c r="AE29" s="137"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="137"/>
+      <c r="AH29" s="137"/>
+      <c r="AI29" s="137"/>
+      <c r="AJ29" s="137"/>
+      <c r="AK29" s="137"/>
+      <c r="AL29" s="137"/>
+      <c r="AM29" s="137"/>
+      <c r="AN29" s="137"/>
+      <c r="AO29" s="137"/>
+      <c r="AP29" s="137"/>
+      <c r="AQ29" s="137"/>
+      <c r="AR29" s="137"/>
+      <c r="AS29" s="137"/>
+      <c r="AT29" s="137"/>
     </row>
     <row r="30" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD30" s="121" t="s">
+      <c r="AD30" s="125" t="s">
         <v>389</v>
       </c>
-      <c r="AE30" s="122"/>
-      <c r="AF30" s="122"/>
-      <c r="AG30" s="122"/>
-      <c r="AH30" s="122"/>
-      <c r="AI30" s="122"/>
-      <c r="AJ30" s="122"/>
-      <c r="AK30" s="122"/>
-      <c r="AL30" s="122"/>
-      <c r="AM30" s="122"/>
-      <c r="AN30" s="122"/>
-      <c r="AO30" s="122"/>
-      <c r="AP30" s="122"/>
-      <c r="AQ30" s="122"/>
-      <c r="AR30" s="122"/>
-      <c r="AS30" s="122"/>
-      <c r="AT30" s="122"/>
+      <c r="AE30" s="126"/>
+      <c r="AF30" s="126"/>
+      <c r="AG30" s="126"/>
+      <c r="AH30" s="126"/>
+      <c r="AI30" s="126"/>
+      <c r="AJ30" s="126"/>
+      <c r="AK30" s="126"/>
+      <c r="AL30" s="126"/>
+      <c r="AM30" s="126"/>
+      <c r="AN30" s="126"/>
+      <c r="AO30" s="126"/>
+      <c r="AP30" s="126"/>
+      <c r="AQ30" s="126"/>
+      <c r="AR30" s="126"/>
+      <c r="AS30" s="126"/>
+      <c r="AT30" s="126"/>
     </row>
     <row r="31" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD31" s="122"/>
-      <c r="AE31" s="122"/>
-      <c r="AF31" s="122"/>
-      <c r="AG31" s="122"/>
-      <c r="AH31" s="122"/>
-      <c r="AI31" s="122"/>
-      <c r="AJ31" s="122"/>
-      <c r="AK31" s="122"/>
-      <c r="AL31" s="122"/>
-      <c r="AM31" s="122"/>
-      <c r="AN31" s="122"/>
-      <c r="AO31" s="122"/>
-      <c r="AP31" s="122"/>
-      <c r="AQ31" s="122"/>
-      <c r="AR31" s="122"/>
-      <c r="AS31" s="122"/>
-      <c r="AT31" s="122"/>
+      <c r="AD31" s="126"/>
+      <c r="AE31" s="126"/>
+      <c r="AF31" s="126"/>
+      <c r="AG31" s="126"/>
+      <c r="AH31" s="126"/>
+      <c r="AI31" s="126"/>
+      <c r="AJ31" s="126"/>
+      <c r="AK31" s="126"/>
+      <c r="AL31" s="126"/>
+      <c r="AM31" s="126"/>
+      <c r="AN31" s="126"/>
+      <c r="AO31" s="126"/>
+      <c r="AP31" s="126"/>
+      <c r="AQ31" s="126"/>
+      <c r="AR31" s="126"/>
+      <c r="AS31" s="126"/>
+      <c r="AT31" s="126"/>
     </row>
     <row r="32" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD32" s="121" t="s">
+      <c r="AD32" s="125" t="s">
         <v>390</v>
       </c>
-      <c r="AE32" s="122"/>
-      <c r="AF32" s="122"/>
-      <c r="AG32" s="122"/>
-      <c r="AH32" s="122"/>
-      <c r="AI32" s="122"/>
-      <c r="AJ32" s="122"/>
-      <c r="AK32" s="122"/>
-      <c r="AL32" s="122"/>
-      <c r="AM32" s="122"/>
-      <c r="AN32" s="122"/>
-      <c r="AO32" s="122"/>
-      <c r="AP32" s="122"/>
-      <c r="AQ32" s="122"/>
-      <c r="AR32" s="122"/>
-      <c r="AS32" s="122"/>
-      <c r="AT32" s="122"/>
+      <c r="AE32" s="126"/>
+      <c r="AF32" s="126"/>
+      <c r="AG32" s="126"/>
+      <c r="AH32" s="126"/>
+      <c r="AI32" s="126"/>
+      <c r="AJ32" s="126"/>
+      <c r="AK32" s="126"/>
+      <c r="AL32" s="126"/>
+      <c r="AM32" s="126"/>
+      <c r="AN32" s="126"/>
+      <c r="AO32" s="126"/>
+      <c r="AP32" s="126"/>
+      <c r="AQ32" s="126"/>
+      <c r="AR32" s="126"/>
+      <c r="AS32" s="126"/>
+      <c r="AT32" s="126"/>
     </row>
     <row r="33" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD33" s="122"/>
-      <c r="AE33" s="122"/>
-      <c r="AF33" s="122"/>
-      <c r="AG33" s="122"/>
-      <c r="AH33" s="122"/>
-      <c r="AI33" s="122"/>
-      <c r="AJ33" s="122"/>
-      <c r="AK33" s="122"/>
-      <c r="AL33" s="122"/>
-      <c r="AM33" s="122"/>
-      <c r="AN33" s="122"/>
-      <c r="AO33" s="122"/>
-      <c r="AP33" s="122"/>
-      <c r="AQ33" s="122"/>
-      <c r="AR33" s="122"/>
-      <c r="AS33" s="122"/>
-      <c r="AT33" s="122"/>
+      <c r="AD33" s="126"/>
+      <c r="AE33" s="126"/>
+      <c r="AF33" s="126"/>
+      <c r="AG33" s="126"/>
+      <c r="AH33" s="126"/>
+      <c r="AI33" s="126"/>
+      <c r="AJ33" s="126"/>
+      <c r="AK33" s="126"/>
+      <c r="AL33" s="126"/>
+      <c r="AM33" s="126"/>
+      <c r="AN33" s="126"/>
+      <c r="AO33" s="126"/>
+      <c r="AP33" s="126"/>
+      <c r="AQ33" s="126"/>
+      <c r="AR33" s="126"/>
+      <c r="AS33" s="126"/>
+      <c r="AT33" s="126"/>
     </row>
     <row r="34" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD34" s="121" t="s">
+      <c r="AD34" s="125" t="s">
         <v>391</v>
       </c>
-      <c r="AE34" s="122"/>
-      <c r="AF34" s="122"/>
-      <c r="AG34" s="122"/>
-      <c r="AH34" s="122"/>
-      <c r="AI34" s="122"/>
-      <c r="AJ34" s="122"/>
-      <c r="AK34" s="122"/>
-      <c r="AL34" s="122"/>
-      <c r="AM34" s="122"/>
-      <c r="AN34" s="122"/>
-      <c r="AO34" s="122"/>
-      <c r="AP34" s="122"/>
-      <c r="AQ34" s="122"/>
-      <c r="AR34" s="122"/>
-      <c r="AS34" s="122"/>
-      <c r="AT34" s="122"/>
+      <c r="AE34" s="126"/>
+      <c r="AF34" s="126"/>
+      <c r="AG34" s="126"/>
+      <c r="AH34" s="126"/>
+      <c r="AI34" s="126"/>
+      <c r="AJ34" s="126"/>
+      <c r="AK34" s="126"/>
+      <c r="AL34" s="126"/>
+      <c r="AM34" s="126"/>
+      <c r="AN34" s="126"/>
+      <c r="AO34" s="126"/>
+      <c r="AP34" s="126"/>
+      <c r="AQ34" s="126"/>
+      <c r="AR34" s="126"/>
+      <c r="AS34" s="126"/>
+      <c r="AT34" s="126"/>
     </row>
     <row r="35" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD35" s="122"/>
-      <c r="AE35" s="122"/>
-      <c r="AF35" s="122"/>
-      <c r="AG35" s="122"/>
-      <c r="AH35" s="122"/>
-      <c r="AI35" s="122"/>
-      <c r="AJ35" s="122"/>
-      <c r="AK35" s="122"/>
-      <c r="AL35" s="122"/>
-      <c r="AM35" s="122"/>
-      <c r="AN35" s="122"/>
-      <c r="AO35" s="122"/>
-      <c r="AP35" s="122"/>
-      <c r="AQ35" s="122"/>
-      <c r="AR35" s="122"/>
-      <c r="AS35" s="122"/>
-      <c r="AT35" s="122"/>
+      <c r="AD35" s="126"/>
+      <c r="AE35" s="126"/>
+      <c r="AF35" s="126"/>
+      <c r="AG35" s="126"/>
+      <c r="AH35" s="126"/>
+      <c r="AI35" s="126"/>
+      <c r="AJ35" s="126"/>
+      <c r="AK35" s="126"/>
+      <c r="AL35" s="126"/>
+      <c r="AM35" s="126"/>
+      <c r="AN35" s="126"/>
+      <c r="AO35" s="126"/>
+      <c r="AP35" s="126"/>
+      <c r="AQ35" s="126"/>
+      <c r="AR35" s="126"/>
+      <c r="AS35" s="126"/>
+      <c r="AT35" s="126"/>
     </row>
     <row r="36" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD36" s="121"/>
-      <c r="AE36" s="122"/>
-      <c r="AF36" s="122"/>
-      <c r="AG36" s="122"/>
-      <c r="AH36" s="122"/>
-      <c r="AI36" s="122"/>
-      <c r="AJ36" s="122"/>
-      <c r="AK36" s="122"/>
-      <c r="AL36" s="122"/>
-      <c r="AM36" s="122"/>
-      <c r="AN36" s="122"/>
-      <c r="AO36" s="122"/>
-      <c r="AP36" s="122"/>
-      <c r="AQ36" s="122"/>
-      <c r="AR36" s="122"/>
-      <c r="AS36" s="122"/>
-      <c r="AT36" s="122"/>
+      <c r="AD36" s="125"/>
+      <c r="AE36" s="126"/>
+      <c r="AF36" s="126"/>
+      <c r="AG36" s="126"/>
+      <c r="AH36" s="126"/>
+      <c r="AI36" s="126"/>
+      <c r="AJ36" s="126"/>
+      <c r="AK36" s="126"/>
+      <c r="AL36" s="126"/>
+      <c r="AM36" s="126"/>
+      <c r="AN36" s="126"/>
+      <c r="AO36" s="126"/>
+      <c r="AP36" s="126"/>
+      <c r="AQ36" s="126"/>
+      <c r="AR36" s="126"/>
+      <c r="AS36" s="126"/>
+      <c r="AT36" s="126"/>
     </row>
     <row r="37" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD37" s="122"/>
-      <c r="AE37" s="122"/>
-      <c r="AF37" s="122"/>
-      <c r="AG37" s="122"/>
-      <c r="AH37" s="122"/>
-      <c r="AI37" s="122"/>
-      <c r="AJ37" s="122"/>
-      <c r="AK37" s="122"/>
-      <c r="AL37" s="122"/>
-      <c r="AM37" s="122"/>
-      <c r="AN37" s="122"/>
-      <c r="AO37" s="122"/>
-      <c r="AP37" s="122"/>
-      <c r="AQ37" s="122"/>
-      <c r="AR37" s="122"/>
-      <c r="AS37" s="122"/>
-      <c r="AT37" s="122"/>
+      <c r="AD37" s="126"/>
+      <c r="AE37" s="126"/>
+      <c r="AF37" s="126"/>
+      <c r="AG37" s="126"/>
+      <c r="AH37" s="126"/>
+      <c r="AI37" s="126"/>
+      <c r="AJ37" s="126"/>
+      <c r="AK37" s="126"/>
+      <c r="AL37" s="126"/>
+      <c r="AM37" s="126"/>
+      <c r="AN37" s="126"/>
+      <c r="AO37" s="126"/>
+      <c r="AP37" s="126"/>
+      <c r="AQ37" s="126"/>
+      <c r="AR37" s="126"/>
+      <c r="AS37" s="126"/>
+      <c r="AT37" s="126"/>
     </row>
     <row r="42" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD42" s="120" t="s">
+      <c r="AD42" s="124" t="s">
         <v>421</v>
       </c>
-      <c r="AE42" s="120"/>
-      <c r="AF42" s="120"/>
-      <c r="AG42" s="120"/>
-      <c r="AH42" s="120"/>
-      <c r="AI42" s="120"/>
-      <c r="AJ42" s="120"/>
-      <c r="AK42" s="120"/>
+      <c r="AE42" s="124"/>
+      <c r="AF42" s="124"/>
+      <c r="AG42" s="124"/>
+      <c r="AH42" s="124"/>
+      <c r="AI42" s="124"/>
+      <c r="AJ42" s="124"/>
+      <c r="AK42" s="124"/>
     </row>
     <row r="43" spans="20:46" ht="33" x14ac:dyDescent="0.4">
       <c r="T43" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="AD43" s="120"/>
-      <c r="AE43" s="120"/>
-      <c r="AF43" s="120"/>
-      <c r="AG43" s="120"/>
-      <c r="AH43" s="120"/>
-      <c r="AI43" s="120"/>
-      <c r="AJ43" s="120"/>
-      <c r="AK43" s="120"/>
+      <c r="AD43" s="124"/>
+      <c r="AE43" s="124"/>
+      <c r="AF43" s="124"/>
+      <c r="AG43" s="124"/>
+      <c r="AH43" s="124"/>
+      <c r="AI43" s="124"/>
+      <c r="AJ43" s="124"/>
+      <c r="AK43" s="124"/>
     </row>
     <row r="44" spans="20:46" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T44" s="34" t="s">
@@ -23198,20 +23215,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="138" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
       <c r="F3" s="72" t="s">
         <v>341</v>
       </c>
@@ -23294,7 +23311,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="136" t="s">
+      <c r="B2" s="139" t="s">
         <v>189</v>
       </c>
       <c r="C2" s="116"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC647828-B74D-4928-967D-A3CC9C4918FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CC0E6E-9933-459B-A73D-77986BC51025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="437">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -3608,6 +3608,10 @@
   </si>
   <si>
     <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4349,7 +4353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4632,6 +4636,9 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4779,8 +4786,32 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -8570,6 +8601,482 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7D6076-FDCF-4645-89AF-28AFB1E859EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="17392650"/>
+          <a:ext cx="9639300" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788188AA-E4BF-476B-B5B5-CC1C1DA4A02C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="24955500"/>
+          <a:ext cx="9639300" cy="1295400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2CB62C8-2EED-4BC5-A4AB-F03B70A35D2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="18707100"/>
+          <a:ext cx="6819900" cy="6267450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F288CCD-770F-4758-ADF1-451EF5145632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="24441150"/>
+          <a:ext cx="2019300" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="グラフィックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D60D6EB-B855-429A-84CC-4E73147E4EF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="24460200"/>
+          <a:ext cx="2028825" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A340E3B6-602A-49C7-B830-3129E57F0A95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="18669000"/>
+          <a:ext cx="2019300" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="グラフィックス 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64913B6-0CCC-4F18-BCB7-2ECC102404B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2762250" y="18688050"/>
+          <a:ext cx="2028825" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{098AFF26-78B4-41CE-8ECE-D5CEE8340F06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5086350" y="20650200"/>
+          <a:ext cx="2209800" cy="2266950"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15472,32 +15979,32 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="I2" s="109" t="s">
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="97"/>
+      <c r="I2" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="112"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="97"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="99"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="114"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="100"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="114"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="115"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I4" s="27" t="s">
@@ -15533,13 +16040,13 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="116" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -15548,11 +16055,11 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="116"/>
-      <c r="F8" s="116"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -15571,56 +16078,56 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="109"/>
     </row>
     <row r="15" spans="2:15" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="100" t="s">
+      <c r="B15" s="101" t="s">
         <v>330</v>
       </c>
-      <c r="C15" s="100"/>
+      <c r="C15" s="101"/>
       <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="100" t="s">
+      <c r="E15" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="100"/>
+      <c r="F15" s="101"/>
       <c r="G15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="100" t="s">
+      <c r="H15" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="100"/>
+      <c r="I15" s="101"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="100" t="s">
+      <c r="K15" s="101" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="100"/>
+      <c r="L15" s="101"/>
       <c r="M15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="100" t="s">
+      <c r="N15" s="101" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="100"/>
+      <c r="O15" s="101"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E16" t="s">
@@ -15634,10 +16141,10 @@
     </row>
     <row r="18" spans="5:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="5:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H19" s="101" t="s">
+      <c r="H19" s="102" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="102"/>
+      <c r="I19" s="103"/>
       <c r="J19" t="s">
         <v>211</v>
       </c>
@@ -15679,58 +16186,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="O1" s="139" t="s">
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="O1" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="139"/>
-      <c r="Q2" s="139"/>
-      <c r="R2" s="139"/>
-      <c r="S2" s="139"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="S33" s="116"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="116"/>
-      <c r="V33" s="116"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="117"/>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C34" s="139" t="s">
+      <c r="C34" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="S34" s="116"/>
-      <c r="T34" s="116"/>
-      <c r="U34" s="116"/>
-      <c r="V34" s="116"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="S34" s="117"/>
+      <c r="T34" s="117"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="117"/>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C35" s="139"/>
-      <c r="D35" s="139"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15758,10 +16265,10 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="14" spans="18:19" x14ac:dyDescent="0.4">
-      <c r="R14" s="143" t="s">
+      <c r="R14" s="94" t="s">
         <v>435</v>
       </c>
-      <c r="S14" s="143" t="s">
+      <c r="S14" s="94" t="s">
         <v>404</v>
       </c>
     </row>
@@ -15817,10 +16324,10 @@
       </c>
     </row>
     <row r="28" spans="26:28" x14ac:dyDescent="0.4">
-      <c r="Z28" s="143" t="s">
+      <c r="Z28" s="94" t="s">
         <v>434</v>
       </c>
-      <c r="AA28" s="143" t="s">
+      <c r="AA28" s="94" t="s">
         <v>404</v>
       </c>
     </row>
@@ -16342,14 +16849,14 @@
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A1" s="73"/>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="141" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="141"/>
-      <c r="D1" s="141"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="143"/>
       <c r="H1" s="44">
         <v>44413</v>
       </c>
@@ -19204,7 +19711,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -19228,10 +19735,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="117" t="s">
+      <c r="E1" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="117"/>
+      <c r="F1" s="118"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -19382,11 +19889,11 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="118" t="s">
+      <c r="A30" s="119" t="s">
         <v>428</v>
       </c>
-      <c r="B30" s="119"/>
-      <c r="C30" s="120"/>
+      <c r="B30" s="120"/>
+      <c r="C30" s="121"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="75" t="s">
@@ -19789,31 +20296,31 @@
       <c r="D3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121" t="s">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="121"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="20" t="s">
         <v>96</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="K3" s="121" t="s">
+      <c r="K3" s="122" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121" t="s">
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="121"/>
+      <c r="Q3" s="122"/>
       <c r="R3" s="42" t="s">
         <v>97</v>
       </c>
@@ -21377,18 +21884,18 @@
       <c r="B26" s="70" t="s">
         <v>406</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="123" t="s">
         <v>414</v>
       </c>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="122"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="122"/>
-      <c r="M26" s="122"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="123"/>
       <c r="X26" s="93"/>
     </row>
     <row r="27" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
@@ -21600,18 +22107,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B2" s="123" t="s">
+      <c r="B2" s="124" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="O4" t="s">
@@ -21698,10 +22205,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F840A3-C673-472F-B158-91E7EE049523}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AT44"/>
+  <dimension ref="A1:AT58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="W86" sqref="W85:W86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -21755,261 +22262,261 @@
     </row>
     <row r="22" spans="28:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="28:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AD23" s="127" t="s">
+      <c r="AD23" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="AE23" s="128"/>
-      <c r="AF23" s="128"/>
-      <c r="AG23" s="128"/>
-      <c r="AH23" s="128"/>
-      <c r="AI23" s="129"/>
+      <c r="AE23" s="129"/>
+      <c r="AF23" s="129"/>
+      <c r="AG23" s="129"/>
+      <c r="AH23" s="129"/>
+      <c r="AI23" s="130"/>
     </row>
     <row r="24" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD24" s="130"/>
-      <c r="AE24" s="131"/>
-      <c r="AF24" s="131"/>
-      <c r="AG24" s="131"/>
-      <c r="AH24" s="131"/>
-      <c r="AI24" s="132"/>
+      <c r="AD24" s="131"/>
+      <c r="AE24" s="132"/>
+      <c r="AF24" s="132"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="133"/>
     </row>
     <row r="25" spans="28:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AD25" s="130"/>
-      <c r="AE25" s="131"/>
-      <c r="AF25" s="131"/>
-      <c r="AG25" s="131"/>
-      <c r="AH25" s="131"/>
-      <c r="AI25" s="132"/>
+      <c r="AD25" s="131"/>
+      <c r="AE25" s="132"/>
+      <c r="AF25" s="132"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="133"/>
     </row>
     <row r="26" spans="28:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AD26" s="133"/>
-      <c r="AE26" s="134"/>
-      <c r="AF26" s="134"/>
-      <c r="AG26" s="134"/>
-      <c r="AH26" s="134"/>
-      <c r="AI26" s="135"/>
+      <c r="AD26" s="134"/>
+      <c r="AE26" s="135"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="135"/>
+      <c r="AH26" s="135"/>
+      <c r="AI26" s="136"/>
     </row>
     <row r="28" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD28" s="136" t="s">
+      <c r="AD28" s="137" t="s">
         <v>388</v>
       </c>
-      <c r="AE28" s="137"/>
-      <c r="AF28" s="137"/>
-      <c r="AG28" s="137"/>
-      <c r="AH28" s="137"/>
-      <c r="AI28" s="137"/>
-      <c r="AJ28" s="137"/>
-      <c r="AK28" s="137"/>
-      <c r="AL28" s="137"/>
-      <c r="AM28" s="137"/>
-      <c r="AN28" s="137"/>
-      <c r="AO28" s="137"/>
-      <c r="AP28" s="137"/>
-      <c r="AQ28" s="137"/>
-      <c r="AR28" s="137"/>
-      <c r="AS28" s="137"/>
-      <c r="AT28" s="137"/>
+      <c r="AE28" s="138"/>
+      <c r="AF28" s="138"/>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="138"/>
+      <c r="AJ28" s="138"/>
+      <c r="AK28" s="138"/>
+      <c r="AL28" s="138"/>
+      <c r="AM28" s="138"/>
+      <c r="AN28" s="138"/>
+      <c r="AO28" s="138"/>
+      <c r="AP28" s="138"/>
+      <c r="AQ28" s="138"/>
+      <c r="AR28" s="138"/>
+      <c r="AS28" s="138"/>
+      <c r="AT28" s="138"/>
     </row>
     <row r="29" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD29" s="137"/>
-      <c r="AE29" s="137"/>
-      <c r="AF29" s="137"/>
-      <c r="AG29" s="137"/>
-      <c r="AH29" s="137"/>
-      <c r="AI29" s="137"/>
-      <c r="AJ29" s="137"/>
-      <c r="AK29" s="137"/>
-      <c r="AL29" s="137"/>
-      <c r="AM29" s="137"/>
-      <c r="AN29" s="137"/>
-      <c r="AO29" s="137"/>
-      <c r="AP29" s="137"/>
-      <c r="AQ29" s="137"/>
-      <c r="AR29" s="137"/>
-      <c r="AS29" s="137"/>
-      <c r="AT29" s="137"/>
+      <c r="AD29" s="138"/>
+      <c r="AE29" s="138"/>
+      <c r="AF29" s="138"/>
+      <c r="AG29" s="138"/>
+      <c r="AH29" s="138"/>
+      <c r="AI29" s="138"/>
+      <c r="AJ29" s="138"/>
+      <c r="AK29" s="138"/>
+      <c r="AL29" s="138"/>
+      <c r="AM29" s="138"/>
+      <c r="AN29" s="138"/>
+      <c r="AO29" s="138"/>
+      <c r="AP29" s="138"/>
+      <c r="AQ29" s="138"/>
+      <c r="AR29" s="138"/>
+      <c r="AS29" s="138"/>
+      <c r="AT29" s="138"/>
     </row>
     <row r="30" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD30" s="125" t="s">
+      <c r="AD30" s="126" t="s">
         <v>389</v>
       </c>
-      <c r="AE30" s="126"/>
-      <c r="AF30" s="126"/>
-      <c r="AG30" s="126"/>
-      <c r="AH30" s="126"/>
-      <c r="AI30" s="126"/>
-      <c r="AJ30" s="126"/>
-      <c r="AK30" s="126"/>
-      <c r="AL30" s="126"/>
-      <c r="AM30" s="126"/>
-      <c r="AN30" s="126"/>
-      <c r="AO30" s="126"/>
-      <c r="AP30" s="126"/>
-      <c r="AQ30" s="126"/>
-      <c r="AR30" s="126"/>
-      <c r="AS30" s="126"/>
-      <c r="AT30" s="126"/>
+      <c r="AE30" s="127"/>
+      <c r="AF30" s="127"/>
+      <c r="AG30" s="127"/>
+      <c r="AH30" s="127"/>
+      <c r="AI30" s="127"/>
+      <c r="AJ30" s="127"/>
+      <c r="AK30" s="127"/>
+      <c r="AL30" s="127"/>
+      <c r="AM30" s="127"/>
+      <c r="AN30" s="127"/>
+      <c r="AO30" s="127"/>
+      <c r="AP30" s="127"/>
+      <c r="AQ30" s="127"/>
+      <c r="AR30" s="127"/>
+      <c r="AS30" s="127"/>
+      <c r="AT30" s="127"/>
     </row>
     <row r="31" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD31" s="126"/>
-      <c r="AE31" s="126"/>
-      <c r="AF31" s="126"/>
-      <c r="AG31" s="126"/>
-      <c r="AH31" s="126"/>
-      <c r="AI31" s="126"/>
-      <c r="AJ31" s="126"/>
-      <c r="AK31" s="126"/>
-      <c r="AL31" s="126"/>
-      <c r="AM31" s="126"/>
-      <c r="AN31" s="126"/>
-      <c r="AO31" s="126"/>
-      <c r="AP31" s="126"/>
-      <c r="AQ31" s="126"/>
-      <c r="AR31" s="126"/>
-      <c r="AS31" s="126"/>
-      <c r="AT31" s="126"/>
+      <c r="AD31" s="127"/>
+      <c r="AE31" s="127"/>
+      <c r="AF31" s="127"/>
+      <c r="AG31" s="127"/>
+      <c r="AH31" s="127"/>
+      <c r="AI31" s="127"/>
+      <c r="AJ31" s="127"/>
+      <c r="AK31" s="127"/>
+      <c r="AL31" s="127"/>
+      <c r="AM31" s="127"/>
+      <c r="AN31" s="127"/>
+      <c r="AO31" s="127"/>
+      <c r="AP31" s="127"/>
+      <c r="AQ31" s="127"/>
+      <c r="AR31" s="127"/>
+      <c r="AS31" s="127"/>
+      <c r="AT31" s="127"/>
     </row>
     <row r="32" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD32" s="125" t="s">
+      <c r="AD32" s="126" t="s">
         <v>390</v>
       </c>
-      <c r="AE32" s="126"/>
-      <c r="AF32" s="126"/>
-      <c r="AG32" s="126"/>
-      <c r="AH32" s="126"/>
-      <c r="AI32" s="126"/>
-      <c r="AJ32" s="126"/>
-      <c r="AK32" s="126"/>
-      <c r="AL32" s="126"/>
-      <c r="AM32" s="126"/>
-      <c r="AN32" s="126"/>
-      <c r="AO32" s="126"/>
-      <c r="AP32" s="126"/>
-      <c r="AQ32" s="126"/>
-      <c r="AR32" s="126"/>
-      <c r="AS32" s="126"/>
-      <c r="AT32" s="126"/>
+      <c r="AE32" s="127"/>
+      <c r="AF32" s="127"/>
+      <c r="AG32" s="127"/>
+      <c r="AH32" s="127"/>
+      <c r="AI32" s="127"/>
+      <c r="AJ32" s="127"/>
+      <c r="AK32" s="127"/>
+      <c r="AL32" s="127"/>
+      <c r="AM32" s="127"/>
+      <c r="AN32" s="127"/>
+      <c r="AO32" s="127"/>
+      <c r="AP32" s="127"/>
+      <c r="AQ32" s="127"/>
+      <c r="AR32" s="127"/>
+      <c r="AS32" s="127"/>
+      <c r="AT32" s="127"/>
     </row>
     <row r="33" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD33" s="126"/>
-      <c r="AE33" s="126"/>
-      <c r="AF33" s="126"/>
-      <c r="AG33" s="126"/>
-      <c r="AH33" s="126"/>
-      <c r="AI33" s="126"/>
-      <c r="AJ33" s="126"/>
-      <c r="AK33" s="126"/>
-      <c r="AL33" s="126"/>
-      <c r="AM33" s="126"/>
-      <c r="AN33" s="126"/>
-      <c r="AO33" s="126"/>
-      <c r="AP33" s="126"/>
-      <c r="AQ33" s="126"/>
-      <c r="AR33" s="126"/>
-      <c r="AS33" s="126"/>
-      <c r="AT33" s="126"/>
+      <c r="AD33" s="127"/>
+      <c r="AE33" s="127"/>
+      <c r="AF33" s="127"/>
+      <c r="AG33" s="127"/>
+      <c r="AH33" s="127"/>
+      <c r="AI33" s="127"/>
+      <c r="AJ33" s="127"/>
+      <c r="AK33" s="127"/>
+      <c r="AL33" s="127"/>
+      <c r="AM33" s="127"/>
+      <c r="AN33" s="127"/>
+      <c r="AO33" s="127"/>
+      <c r="AP33" s="127"/>
+      <c r="AQ33" s="127"/>
+      <c r="AR33" s="127"/>
+      <c r="AS33" s="127"/>
+      <c r="AT33" s="127"/>
     </row>
     <row r="34" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD34" s="125" t="s">
+      <c r="AD34" s="126" t="s">
         <v>391</v>
       </c>
-      <c r="AE34" s="126"/>
-      <c r="AF34" s="126"/>
-      <c r="AG34" s="126"/>
-      <c r="AH34" s="126"/>
-      <c r="AI34" s="126"/>
-      <c r="AJ34" s="126"/>
-      <c r="AK34" s="126"/>
-      <c r="AL34" s="126"/>
-      <c r="AM34" s="126"/>
-      <c r="AN34" s="126"/>
-      <c r="AO34" s="126"/>
-      <c r="AP34" s="126"/>
-      <c r="AQ34" s="126"/>
-      <c r="AR34" s="126"/>
-      <c r="AS34" s="126"/>
-      <c r="AT34" s="126"/>
+      <c r="AE34" s="127"/>
+      <c r="AF34" s="127"/>
+      <c r="AG34" s="127"/>
+      <c r="AH34" s="127"/>
+      <c r="AI34" s="127"/>
+      <c r="AJ34" s="127"/>
+      <c r="AK34" s="127"/>
+      <c r="AL34" s="127"/>
+      <c r="AM34" s="127"/>
+      <c r="AN34" s="127"/>
+      <c r="AO34" s="127"/>
+      <c r="AP34" s="127"/>
+      <c r="AQ34" s="127"/>
+      <c r="AR34" s="127"/>
+      <c r="AS34" s="127"/>
+      <c r="AT34" s="127"/>
     </row>
     <row r="35" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD35" s="126"/>
-      <c r="AE35" s="126"/>
-      <c r="AF35" s="126"/>
-      <c r="AG35" s="126"/>
-      <c r="AH35" s="126"/>
-      <c r="AI35" s="126"/>
-      <c r="AJ35" s="126"/>
-      <c r="AK35" s="126"/>
-      <c r="AL35" s="126"/>
-      <c r="AM35" s="126"/>
-      <c r="AN35" s="126"/>
-      <c r="AO35" s="126"/>
-      <c r="AP35" s="126"/>
-      <c r="AQ35" s="126"/>
-      <c r="AR35" s="126"/>
-      <c r="AS35" s="126"/>
-      <c r="AT35" s="126"/>
+      <c r="AD35" s="127"/>
+      <c r="AE35" s="127"/>
+      <c r="AF35" s="127"/>
+      <c r="AG35" s="127"/>
+      <c r="AH35" s="127"/>
+      <c r="AI35" s="127"/>
+      <c r="AJ35" s="127"/>
+      <c r="AK35" s="127"/>
+      <c r="AL35" s="127"/>
+      <c r="AM35" s="127"/>
+      <c r="AN35" s="127"/>
+      <c r="AO35" s="127"/>
+      <c r="AP35" s="127"/>
+      <c r="AQ35" s="127"/>
+      <c r="AR35" s="127"/>
+      <c r="AS35" s="127"/>
+      <c r="AT35" s="127"/>
     </row>
     <row r="36" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD36" s="125"/>
-      <c r="AE36" s="126"/>
-      <c r="AF36" s="126"/>
-      <c r="AG36" s="126"/>
-      <c r="AH36" s="126"/>
-      <c r="AI36" s="126"/>
-      <c r="AJ36" s="126"/>
-      <c r="AK36" s="126"/>
-      <c r="AL36" s="126"/>
-      <c r="AM36" s="126"/>
-      <c r="AN36" s="126"/>
-      <c r="AO36" s="126"/>
-      <c r="AP36" s="126"/>
-      <c r="AQ36" s="126"/>
-      <c r="AR36" s="126"/>
-      <c r="AS36" s="126"/>
-      <c r="AT36" s="126"/>
+      <c r="AD36" s="126"/>
+      <c r="AE36" s="127"/>
+      <c r="AF36" s="127"/>
+      <c r="AG36" s="127"/>
+      <c r="AH36" s="127"/>
+      <c r="AI36" s="127"/>
+      <c r="AJ36" s="127"/>
+      <c r="AK36" s="127"/>
+      <c r="AL36" s="127"/>
+      <c r="AM36" s="127"/>
+      <c r="AN36" s="127"/>
+      <c r="AO36" s="127"/>
+      <c r="AP36" s="127"/>
+      <c r="AQ36" s="127"/>
+      <c r="AR36" s="127"/>
+      <c r="AS36" s="127"/>
+      <c r="AT36" s="127"/>
     </row>
     <row r="37" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD37" s="126"/>
-      <c r="AE37" s="126"/>
-      <c r="AF37" s="126"/>
-      <c r="AG37" s="126"/>
-      <c r="AH37" s="126"/>
-      <c r="AI37" s="126"/>
-      <c r="AJ37" s="126"/>
-      <c r="AK37" s="126"/>
-      <c r="AL37" s="126"/>
-      <c r="AM37" s="126"/>
-      <c r="AN37" s="126"/>
-      <c r="AO37" s="126"/>
-      <c r="AP37" s="126"/>
-      <c r="AQ37" s="126"/>
-      <c r="AR37" s="126"/>
-      <c r="AS37" s="126"/>
-      <c r="AT37" s="126"/>
+      <c r="AD37" s="127"/>
+      <c r="AE37" s="127"/>
+      <c r="AF37" s="127"/>
+      <c r="AG37" s="127"/>
+      <c r="AH37" s="127"/>
+      <c r="AI37" s="127"/>
+      <c r="AJ37" s="127"/>
+      <c r="AK37" s="127"/>
+      <c r="AL37" s="127"/>
+      <c r="AM37" s="127"/>
+      <c r="AN37" s="127"/>
+      <c r="AO37" s="127"/>
+      <c r="AP37" s="127"/>
+      <c r="AQ37" s="127"/>
+      <c r="AR37" s="127"/>
+      <c r="AS37" s="127"/>
+      <c r="AT37" s="127"/>
     </row>
     <row r="42" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD42" s="124" t="s">
+      <c r="AD42" s="125" t="s">
         <v>421</v>
       </c>
-      <c r="AE42" s="124"/>
-      <c r="AF42" s="124"/>
-      <c r="AG42" s="124"/>
-      <c r="AH42" s="124"/>
-      <c r="AI42" s="124"/>
-      <c r="AJ42" s="124"/>
-      <c r="AK42" s="124"/>
+      <c r="AE42" s="125"/>
+      <c r="AF42" s="125"/>
+      <c r="AG42" s="125"/>
+      <c r="AH42" s="125"/>
+      <c r="AI42" s="125"/>
+      <c r="AJ42" s="125"/>
+      <c r="AK42" s="125"/>
     </row>
     <row r="43" spans="20:46" ht="33" x14ac:dyDescent="0.4">
       <c r="T43" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="AD43" s="124"/>
-      <c r="AE43" s="124"/>
-      <c r="AF43" s="124"/>
-      <c r="AG43" s="124"/>
-      <c r="AH43" s="124"/>
-      <c r="AI43" s="124"/>
-      <c r="AJ43" s="124"/>
-      <c r="AK43" s="124"/>
+      <c r="AD43" s="125"/>
+      <c r="AE43" s="125"/>
+      <c r="AF43" s="125"/>
+      <c r="AG43" s="125"/>
+      <c r="AH43" s="125"/>
+      <c r="AI43" s="125"/>
+      <c r="AJ43" s="125"/>
+      <c r="AK43" s="125"/>
     </row>
     <row r="44" spans="20:46" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T44" s="34" t="s">
@@ -22019,8 +22526,60 @@
         <v>422</v>
       </c>
     </row>
+    <row r="55" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C56" s="144" t="s">
+        <v>436</v>
+      </c>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+      <c r="G56" s="145"/>
+      <c r="H56" s="145"/>
+      <c r="I56" s="145"/>
+      <c r="J56" s="145"/>
+      <c r="K56" s="145"/>
+      <c r="L56" s="145"/>
+      <c r="M56" s="145"/>
+      <c r="N56" s="145"/>
+      <c r="O56" s="145"/>
+      <c r="P56" s="146"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.4">
+      <c r="C57" s="147"/>
+      <c r="D57" s="148"/>
+      <c r="E57" s="148"/>
+      <c r="F57" s="148"/>
+      <c r="G57" s="148"/>
+      <c r="H57" s="148"/>
+      <c r="I57" s="148"/>
+      <c r="J57" s="148"/>
+      <c r="K57" s="148"/>
+      <c r="L57" s="148"/>
+      <c r="M57" s="148"/>
+      <c r="N57" s="148"/>
+      <c r="O57" s="148"/>
+      <c r="P57" s="149"/>
+    </row>
+    <row r="58" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="150"/>
+      <c r="D58" s="151"/>
+      <c r="E58" s="151"/>
+      <c r="F58" s="151"/>
+      <c r="G58" s="151"/>
+      <c r="H58" s="151"/>
+      <c r="I58" s="151"/>
+      <c r="J58" s="151"/>
+      <c r="K58" s="151"/>
+      <c r="L58" s="151"/>
+      <c r="M58" s="151"/>
+      <c r="N58" s="151"/>
+      <c r="O58" s="151"/>
+      <c r="P58" s="152"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C56:P58"/>
     <mergeCell ref="AD42:AK43"/>
     <mergeCell ref="AD34:AT35"/>
     <mergeCell ref="AD36:AT37"/>
@@ -23215,20 +23774,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="139" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
+      <c r="C2" s="139"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="139"/>
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="138"/>
-      <c r="C3" s="138"/>
-      <c r="D3" s="138"/>
-      <c r="E3" s="138"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
       <c r="F3" s="72" t="s">
         <v>341</v>
       </c>
@@ -23311,13 +23870,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
       <c r="G2" t="s">
         <v>329</v>
       </c>
@@ -23326,11 +23885,11 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
       <c r="G3" t="s">
         <v>328</v>
       </c>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CC0E6E-9933-459B-A73D-77986BC51025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA3F311-938B-4757-AD5C-5EC229C74858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="5" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId1"/>
@@ -55,7 +55,7 @@
     <author>tc={9F564455-3C72-411C-BD3C-A1431551859E}</author>
   </authors>
   <commentList>
-    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{9F564455-3C72-411C-BD3C-A1431551859E}">
+    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{9F564455-3C72-411C-BD3C-A1431551859E}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="452">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -3612,6 +3612,135 @@
   </si>
   <si>
     <t>マップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミニマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊不可能</t>
+    <rPh sb="0" eb="2">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>フカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>破壊可能</t>
+    <rPh sb="0" eb="2">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレンジ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リスポーンポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大きさ</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>600*600</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾薬補給</t>
+    <rPh sb="0" eb="2">
+      <t>ダンヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <rPh sb="0" eb="1">
+      <t>ムラサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面左上の表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーは常に表示　戦車の向いている方に➡</t>
+    <rPh sb="6" eb="7">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センシャ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">300 * 300 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵はカメラの範囲に入っているならミニマップに移す</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4729,6 +4858,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4786,33 +4942,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="20% - アクセント 2" xfId="2" builtinId="34"/>
@@ -4827,7 +4956,15 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="予定" xfId="7" xr:uid="{F50910B9-FE2C-4E6F-B2E3-BEDFA886AE69}"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFCE4D6"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -7688,488 +7825,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>392568</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>554936</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>24133</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C74C1F19-F6AC-491F-B8E4-127607C72589}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="10244139" y="1122589"/>
-          <a:ext cx="4924868" cy="2872356"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>75110</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>209551</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F18D2B-69C9-4FE7-87F4-739426E20108}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="600075" y="561975"/>
-          <a:ext cx="4961435" cy="2790826"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>374296</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>151073</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>637716</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>83353</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3330C395-5C95-40F5-87EB-BD68E8F13460}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11457932" y="1363346"/>
-          <a:ext cx="5112511" cy="2893689"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>406976</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>147205</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>434685</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>39399</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2C4667-F1D1-490E-AF59-CB70BD81A01E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5948794" y="4511387"/>
-          <a:ext cx="4876800" cy="2763549"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>684356</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>116897</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C43D9C-ADDB-404E-9990-FABCD645F4C2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="561975" y="4535632"/>
-          <a:ext cx="4971472" cy="2816802"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="乗算記号 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D640F1-32CB-4B40-A30A-512DB0D8214A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="552450" y="257175"/>
-          <a:ext cx="1419225" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="乗算記号 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A65A69B-217A-4D2F-9024-D44FF0ED550E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5981700" y="266700"/>
-          <a:ext cx="1419225" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>309996</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>357621</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="乗算記号 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100871CE-826C-43F1-804E-BBA66482062E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11393632" y="917864"/>
-          <a:ext cx="1433080" cy="1164647"/>
-        </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>35</xdr:row>
@@ -8195,7 +7850,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8496,23 +8151,23 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>249382</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>60614</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>297007</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127289</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="乗算記号 15">
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1413A99A-7E60-4988-8C56-3B963D5BA598}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788188AA-E4BF-476B-B5B5-CC1C1DA4A02C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8520,23 +8175,27 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="249382" y="4327814"/>
-          <a:ext cx="1419225" cy="1457325"/>
+          <a:off x="1333500" y="26212800"/>
+          <a:ext cx="9639300" cy="628650"/>
         </a:xfrm>
-        <a:prstGeom prst="mathMultiply">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln/>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="3">
-          <a:schemeClr val="lt1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent2"/>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -8553,75 +8212,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>666751</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>110504</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>1436</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{963F67AC-DB3D-457C-87E3-FE8CEA9EEADC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10267951" y="6324600"/>
-          <a:ext cx="9044953" cy="5087786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7D6076-FDCF-4645-89AF-28AFB1E859EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2CB62C8-2EED-4BC5-A4AB-F03B70A35D2E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8629,8 +8238,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1333500" y="17392650"/>
-          <a:ext cx="9639300" cy="1295400"/>
+          <a:off x="1352550" y="17278350"/>
+          <a:ext cx="9601200" cy="8972550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8665,136 +8274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{788188AA-E4BF-476B-B5B5-CC1C1DA4A02C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="24955500"/>
-          <a:ext cx="9639300" cy="1295400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2CB62C8-2EED-4BC5-A4AB-F03B70A35D2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2762250" y="18707100"/>
-          <a:ext cx="6819900" cy="6267450"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8809,7 +8298,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="24441150"/>
+          <a:off x="8934450" y="24403050"/>
           <a:ext cx="2019300" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8853,14 +8342,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -8878,10 +8367,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8891,7 +8380,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2762250" y="24460200"/>
+          <a:off x="1352550" y="24460200"/>
           <a:ext cx="2028825" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8903,16 +8392,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8927,7 +8416,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7543800" y="18669000"/>
+          <a:off x="8915400" y="18707100"/>
           <a:ext cx="2019300" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8971,16 +8460,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>68</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8996,10 +8485,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9009,7 +8498,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2762250" y="18688050"/>
+          <a:off x="1333500" y="18707100"/>
           <a:ext cx="2028825" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9021,23 +8510,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="楕円 19">
+        <xdr:cNvPr id="21" name="楕円 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{098AFF26-78B4-41CE-8ECE-D5CEE8340F06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46859EDF-4D33-40C1-8FE7-7E695456BD9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9045,8 +8534,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5086350" y="20650200"/>
-          <a:ext cx="2209800" cy="2266950"/>
+          <a:off x="1741714" y="17145000"/>
+          <a:ext cx="908957" cy="897164"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -9054,15 +8543,946 @@
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
-          <a:schemeClr val="accent6">
+          <a:schemeClr val="accent2">
             <a:shade val="50000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent2"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="楕円 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FEBF2F-26FD-4785-A9ED-16C9CEDF7991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="17602200"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="楕円 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78F41BC-6B35-4011-8B67-8EAFE616CAFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="25184100"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231964BA-FBB2-4E23-9150-375F420375B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9925050" y="25222200"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BE95D7-EC6C-4E46-A674-17EFC2A376FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="16630650"/>
+          <a:ext cx="9582150" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B46FC8E0-0584-470B-BFA7-D53517C10962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10953750" y="16630650"/>
+          <a:ext cx="723900" cy="10306050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6F36872-2551-4DDF-8CFD-1F5DA1F2E2AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="16668750"/>
+          <a:ext cx="723900" cy="10306050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AFED680-4B90-43B2-BBF9-FE45006319AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="20859750"/>
+          <a:ext cx="1790700" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>397328</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>46567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>625928</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>218017</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="楕円 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C60E6AC1-E0B9-422D-9C24-DE541025928C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1758042" y="20578234"/>
+          <a:ext cx="908957" cy="897164"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>186871</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>229205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>415471</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="楕円 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA08A65-3D7D-4B3F-A908-45F3FF5DA266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9711871" y="20760872"/>
+          <a:ext cx="908957" cy="897164"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>408214</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>75594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>589642</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>120953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5C4D682-6E96-44FC-ADB2-73C42736BB29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15376071" y="18430118"/>
+          <a:ext cx="7665357" cy="7544406"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>60476</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>136070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>272141</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>196546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2D8EA1-A1D9-4601-9027-C13789D1FE6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16389047" y="19700118"/>
+          <a:ext cx="5654523" cy="4898571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>427265</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>177498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>449642</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>162379</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="二等辺三角形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DD5AE04-41B0-4C94-B9FB-7FB231B030DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="17989985">
+          <a:off x="19034882" y="23374048"/>
+          <a:ext cx="226786" cy="702734"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>151190</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>75596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>105833</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>35377</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="楕円 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F96EF87-1C92-4C98-8DF1-1AE3D6542129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16479761" y="21816786"/>
+          <a:ext cx="635001" cy="685496"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>227994</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>46568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>182637</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>6349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="楕円 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD53A8FA-2175-487D-B173-1A6749816935}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21319065" y="21787758"/>
+          <a:ext cx="635001" cy="685496"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>665239</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76806</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>333832</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>53826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="二等辺三角形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBCC46B4-97D9-4BFD-9118-457E7C476464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="19034882" y="20366568"/>
+          <a:ext cx="348950" cy="702734"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -15913,7 +16333,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A40" dT="2021-08-03T14:16:24.08" personId="{18D29A4B-27EE-402D-B054-99034510212C}" id="{9F564455-3C72-411C-BD3C-A1431551859E}">
+  <threadedComment ref="A17" dT="2021-08-03T14:16:24.08" personId="{18D29A4B-27EE-402D-B054-99034510212C}" id="{9F564455-3C72-411C-BD3C-A1431551859E}">
     <text>オレンジは完成済み</text>
   </threadedComment>
 </ThreadedComments>
@@ -15971,7 +16391,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H15" sqref="H15:I15"/>
     </sheetView>
   </sheetViews>
@@ -16186,32 +16606,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="140"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="140"/>
-      <c r="G1" s="140"/>
-      <c r="O1" s="140" t="s">
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="149"/>
+      <c r="O1" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="140"/>
-      <c r="Q1" s="140"/>
-      <c r="R1" s="140"/>
-      <c r="S1" s="140"/>
+      <c r="P1" s="149"/>
+      <c r="Q1" s="149"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="149"/>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="140"/>
-      <c r="G2" s="140"/>
-      <c r="O2" s="140"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="140"/>
-      <c r="S2" s="140"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.4">
       <c r="S33" s="117"/>
@@ -16220,24 +16640,24 @@
       <c r="V33" s="117"/>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C34" s="140" t="s">
+      <c r="C34" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="140"/>
-      <c r="E34" s="140"/>
-      <c r="F34" s="140"/>
-      <c r="G34" s="140"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
       <c r="S34" s="117"/>
       <c r="T34" s="117"/>
       <c r="U34" s="117"/>
       <c r="V34" s="117"/>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -16849,14 +17269,14 @@
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A1" s="73"/>
-      <c r="B1" s="141" t="s">
+      <c r="B1" s="150" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
-      <c r="F1" s="142"/>
-      <c r="G1" s="143"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="152"/>
       <c r="H1" s="44">
         <v>44413</v>
       </c>
@@ -19709,10 +20129,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9333299-5564-4C9F-BA84-D4349436EAE5}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -19809,46 +20229,123 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="119" t="s">
+        <v>428</v>
+      </c>
+      <c r="B7" s="120"/>
+      <c r="C7" s="121"/>
       <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="75">
+        <v>3</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>90</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="75" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="75">
+        <v>4</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>69</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="4">
+        <v>5</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="4">
+        <v>5</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>56</v>
       </c>
@@ -19859,367 +20356,260 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="E17" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="6">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="E20" s="4" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="6">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>355</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B25" s="6">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="6">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" s="6">
+        <v>2</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A30" s="119" t="s">
-        <v>428</v>
-      </c>
-      <c r="B30" s="120"/>
-      <c r="C30" s="121"/>
+      <c r="A30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A31" s="75" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31" s="75">
+      <c r="A31" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="6">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6">
+        <v>2</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="6">
         <v>3</v>
       </c>
-      <c r="C31" s="75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A32" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="75">
-        <v>4</v>
-      </c>
-      <c r="C32" s="75" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="4">
-        <v>4</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>13</v>
+      <c r="C33" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="4">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>39</v>
+      <c r="A34" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" s="6">
+        <v>3</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="4">
-        <v>4</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>41</v>
+      <c r="A35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="6">
+        <v>3</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="4">
+      <c r="A36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="6">
+        <v>3</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A37" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="6">
         <v>5</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="4">
-        <v>5</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A38" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B38" s="4">
-        <v>5</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A40" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B40" s="6">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A41" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B41" s="6">
-        <v>1</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A42" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="6">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A43" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="6">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A44" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B44" s="6">
-        <v>1</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A45" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="6">
-        <v>1</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A46" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6">
-        <v>2</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A47" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B47" s="6">
-        <v>2</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A48" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="6">
-        <v>2</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A49" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="6">
-        <v>2</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A50" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="6">
-        <v>2</v>
-      </c>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A51" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="6">
-        <v>2</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A52" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="6">
-        <v>2</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A53" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="6">
-        <v>2</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A54" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="6">
-        <v>2</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A55" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="6">
-        <v>2</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A56" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B56" s="6">
-        <v>3</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A57" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B57" s="6">
-        <v>3</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A58" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="6">
-        <v>3</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A59" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" s="6">
-        <v>3</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A60" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B60" s="6">
-        <v>5</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>74</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:C60">
-    <sortCondition descending="1" sortBy="cellColor" ref="A31:A60" dxfId="0"/>
-    <sortCondition ref="B31:B60"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C37">
+    <sortCondition descending="1" sortBy="cellColor" ref="A8:A37" dxfId="1"/>
+    <sortCondition ref="B8:B37"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22205,10 +22595,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F840A3-C673-472F-B158-91E7EE049523}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AT58"/>
+  <dimension ref="A1:AT66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="W86" sqref="W85:W86"/>
+    <sheetView topLeftCell="A79" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="AB44" sqref="AB44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22262,261 +22652,261 @@
     </row>
     <row r="22" spans="28:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="28:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AD23" s="128" t="s">
+      <c r="AD23" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="129"/>
-      <c r="AG23" s="129"/>
-      <c r="AH23" s="129"/>
-      <c r="AI23" s="130"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="138"/>
+      <c r="AG23" s="138"/>
+      <c r="AH23" s="138"/>
+      <c r="AI23" s="139"/>
     </row>
     <row r="24" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD24" s="131"/>
-      <c r="AE24" s="132"/>
-      <c r="AF24" s="132"/>
-      <c r="AG24" s="132"/>
-      <c r="AH24" s="132"/>
-      <c r="AI24" s="133"/>
+      <c r="AD24" s="140"/>
+      <c r="AE24" s="141"/>
+      <c r="AF24" s="141"/>
+      <c r="AG24" s="141"/>
+      <c r="AH24" s="141"/>
+      <c r="AI24" s="142"/>
     </row>
     <row r="25" spans="28:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AD25" s="131"/>
-      <c r="AE25" s="132"/>
-      <c r="AF25" s="132"/>
-      <c r="AG25" s="132"/>
-      <c r="AH25" s="132"/>
-      <c r="AI25" s="133"/>
+      <c r="AD25" s="140"/>
+      <c r="AE25" s="141"/>
+      <c r="AF25" s="141"/>
+      <c r="AG25" s="141"/>
+      <c r="AH25" s="141"/>
+      <c r="AI25" s="142"/>
     </row>
     <row r="26" spans="28:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AD26" s="134"/>
-      <c r="AE26" s="135"/>
-      <c r="AF26" s="135"/>
-      <c r="AG26" s="135"/>
-      <c r="AH26" s="135"/>
-      <c r="AI26" s="136"/>
+      <c r="AD26" s="143"/>
+      <c r="AE26" s="144"/>
+      <c r="AF26" s="144"/>
+      <c r="AG26" s="144"/>
+      <c r="AH26" s="144"/>
+      <c r="AI26" s="145"/>
     </row>
     <row r="28" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD28" s="137" t="s">
+      <c r="AD28" s="146" t="s">
         <v>388</v>
       </c>
-      <c r="AE28" s="138"/>
-      <c r="AF28" s="138"/>
-      <c r="AG28" s="138"/>
-      <c r="AH28" s="138"/>
-      <c r="AI28" s="138"/>
-      <c r="AJ28" s="138"/>
-      <c r="AK28" s="138"/>
-      <c r="AL28" s="138"/>
-      <c r="AM28" s="138"/>
-      <c r="AN28" s="138"/>
-      <c r="AO28" s="138"/>
-      <c r="AP28" s="138"/>
-      <c r="AQ28" s="138"/>
-      <c r="AR28" s="138"/>
-      <c r="AS28" s="138"/>
-      <c r="AT28" s="138"/>
+      <c r="AE28" s="147"/>
+      <c r="AF28" s="147"/>
+      <c r="AG28" s="147"/>
+      <c r="AH28" s="147"/>
+      <c r="AI28" s="147"/>
+      <c r="AJ28" s="147"/>
+      <c r="AK28" s="147"/>
+      <c r="AL28" s="147"/>
+      <c r="AM28" s="147"/>
+      <c r="AN28" s="147"/>
+      <c r="AO28" s="147"/>
+      <c r="AP28" s="147"/>
+      <c r="AQ28" s="147"/>
+      <c r="AR28" s="147"/>
+      <c r="AS28" s="147"/>
+      <c r="AT28" s="147"/>
     </row>
     <row r="29" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD29" s="138"/>
-      <c r="AE29" s="138"/>
-      <c r="AF29" s="138"/>
-      <c r="AG29" s="138"/>
-      <c r="AH29" s="138"/>
-      <c r="AI29" s="138"/>
-      <c r="AJ29" s="138"/>
-      <c r="AK29" s="138"/>
-      <c r="AL29" s="138"/>
-      <c r="AM29" s="138"/>
-      <c r="AN29" s="138"/>
-      <c r="AO29" s="138"/>
-      <c r="AP29" s="138"/>
-      <c r="AQ29" s="138"/>
-      <c r="AR29" s="138"/>
-      <c r="AS29" s="138"/>
-      <c r="AT29" s="138"/>
+      <c r="AD29" s="147"/>
+      <c r="AE29" s="147"/>
+      <c r="AF29" s="147"/>
+      <c r="AG29" s="147"/>
+      <c r="AH29" s="147"/>
+      <c r="AI29" s="147"/>
+      <c r="AJ29" s="147"/>
+      <c r="AK29" s="147"/>
+      <c r="AL29" s="147"/>
+      <c r="AM29" s="147"/>
+      <c r="AN29" s="147"/>
+      <c r="AO29" s="147"/>
+      <c r="AP29" s="147"/>
+      <c r="AQ29" s="147"/>
+      <c r="AR29" s="147"/>
+      <c r="AS29" s="147"/>
+      <c r="AT29" s="147"/>
     </row>
     <row r="30" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD30" s="126" t="s">
+      <c r="AD30" s="135" t="s">
         <v>389</v>
       </c>
-      <c r="AE30" s="127"/>
-      <c r="AF30" s="127"/>
-      <c r="AG30" s="127"/>
-      <c r="AH30" s="127"/>
-      <c r="AI30" s="127"/>
-      <c r="AJ30" s="127"/>
-      <c r="AK30" s="127"/>
-      <c r="AL30" s="127"/>
-      <c r="AM30" s="127"/>
-      <c r="AN30" s="127"/>
-      <c r="AO30" s="127"/>
-      <c r="AP30" s="127"/>
-      <c r="AQ30" s="127"/>
-      <c r="AR30" s="127"/>
-      <c r="AS30" s="127"/>
-      <c r="AT30" s="127"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="136"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="136"/>
+      <c r="AJ30" s="136"/>
+      <c r="AK30" s="136"/>
+      <c r="AL30" s="136"/>
+      <c r="AM30" s="136"/>
+      <c r="AN30" s="136"/>
+      <c r="AO30" s="136"/>
+      <c r="AP30" s="136"/>
+      <c r="AQ30" s="136"/>
+      <c r="AR30" s="136"/>
+      <c r="AS30" s="136"/>
+      <c r="AT30" s="136"/>
     </row>
     <row r="31" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD31" s="127"/>
-      <c r="AE31" s="127"/>
-      <c r="AF31" s="127"/>
-      <c r="AG31" s="127"/>
-      <c r="AH31" s="127"/>
-      <c r="AI31" s="127"/>
-      <c r="AJ31" s="127"/>
-      <c r="AK31" s="127"/>
-      <c r="AL31" s="127"/>
-      <c r="AM31" s="127"/>
-      <c r="AN31" s="127"/>
-      <c r="AO31" s="127"/>
-      <c r="AP31" s="127"/>
-      <c r="AQ31" s="127"/>
-      <c r="AR31" s="127"/>
-      <c r="AS31" s="127"/>
-      <c r="AT31" s="127"/>
+      <c r="AD31" s="136"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="136"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="136"/>
+      <c r="AJ31" s="136"/>
+      <c r="AK31" s="136"/>
+      <c r="AL31" s="136"/>
+      <c r="AM31" s="136"/>
+      <c r="AN31" s="136"/>
+      <c r="AO31" s="136"/>
+      <c r="AP31" s="136"/>
+      <c r="AQ31" s="136"/>
+      <c r="AR31" s="136"/>
+      <c r="AS31" s="136"/>
+      <c r="AT31" s="136"/>
     </row>
     <row r="32" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD32" s="126" t="s">
+      <c r="AD32" s="135" t="s">
         <v>390</v>
       </c>
-      <c r="AE32" s="127"/>
-      <c r="AF32" s="127"/>
-      <c r="AG32" s="127"/>
-      <c r="AH32" s="127"/>
-      <c r="AI32" s="127"/>
-      <c r="AJ32" s="127"/>
-      <c r="AK32" s="127"/>
-      <c r="AL32" s="127"/>
-      <c r="AM32" s="127"/>
-      <c r="AN32" s="127"/>
-      <c r="AO32" s="127"/>
-      <c r="AP32" s="127"/>
-      <c r="AQ32" s="127"/>
-      <c r="AR32" s="127"/>
-      <c r="AS32" s="127"/>
-      <c r="AT32" s="127"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="136"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="136"/>
+      <c r="AJ32" s="136"/>
+      <c r="AK32" s="136"/>
+      <c r="AL32" s="136"/>
+      <c r="AM32" s="136"/>
+      <c r="AN32" s="136"/>
+      <c r="AO32" s="136"/>
+      <c r="AP32" s="136"/>
+      <c r="AQ32" s="136"/>
+      <c r="AR32" s="136"/>
+      <c r="AS32" s="136"/>
+      <c r="AT32" s="136"/>
     </row>
     <row r="33" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD33" s="127"/>
-      <c r="AE33" s="127"/>
-      <c r="AF33" s="127"/>
-      <c r="AG33" s="127"/>
-      <c r="AH33" s="127"/>
-      <c r="AI33" s="127"/>
-      <c r="AJ33" s="127"/>
-      <c r="AK33" s="127"/>
-      <c r="AL33" s="127"/>
-      <c r="AM33" s="127"/>
-      <c r="AN33" s="127"/>
-      <c r="AO33" s="127"/>
-      <c r="AP33" s="127"/>
-      <c r="AQ33" s="127"/>
-      <c r="AR33" s="127"/>
-      <c r="AS33" s="127"/>
-      <c r="AT33" s="127"/>
+      <c r="AD33" s="136"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="136"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="136"/>
+      <c r="AJ33" s="136"/>
+      <c r="AK33" s="136"/>
+      <c r="AL33" s="136"/>
+      <c r="AM33" s="136"/>
+      <c r="AN33" s="136"/>
+      <c r="AO33" s="136"/>
+      <c r="AP33" s="136"/>
+      <c r="AQ33" s="136"/>
+      <c r="AR33" s="136"/>
+      <c r="AS33" s="136"/>
+      <c r="AT33" s="136"/>
     </row>
     <row r="34" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD34" s="126" t="s">
+      <c r="AD34" s="135" t="s">
         <v>391</v>
       </c>
-      <c r="AE34" s="127"/>
-      <c r="AF34" s="127"/>
-      <c r="AG34" s="127"/>
-      <c r="AH34" s="127"/>
-      <c r="AI34" s="127"/>
-      <c r="AJ34" s="127"/>
-      <c r="AK34" s="127"/>
-      <c r="AL34" s="127"/>
-      <c r="AM34" s="127"/>
-      <c r="AN34" s="127"/>
-      <c r="AO34" s="127"/>
-      <c r="AP34" s="127"/>
-      <c r="AQ34" s="127"/>
-      <c r="AR34" s="127"/>
-      <c r="AS34" s="127"/>
-      <c r="AT34" s="127"/>
+      <c r="AE34" s="136"/>
+      <c r="AF34" s="136"/>
+      <c r="AG34" s="136"/>
+      <c r="AH34" s="136"/>
+      <c r="AI34" s="136"/>
+      <c r="AJ34" s="136"/>
+      <c r="AK34" s="136"/>
+      <c r="AL34" s="136"/>
+      <c r="AM34" s="136"/>
+      <c r="AN34" s="136"/>
+      <c r="AO34" s="136"/>
+      <c r="AP34" s="136"/>
+      <c r="AQ34" s="136"/>
+      <c r="AR34" s="136"/>
+      <c r="AS34" s="136"/>
+      <c r="AT34" s="136"/>
     </row>
     <row r="35" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD35" s="127"/>
-      <c r="AE35" s="127"/>
-      <c r="AF35" s="127"/>
-      <c r="AG35" s="127"/>
-      <c r="AH35" s="127"/>
-      <c r="AI35" s="127"/>
-      <c r="AJ35" s="127"/>
-      <c r="AK35" s="127"/>
-      <c r="AL35" s="127"/>
-      <c r="AM35" s="127"/>
-      <c r="AN35" s="127"/>
-      <c r="AO35" s="127"/>
-      <c r="AP35" s="127"/>
-      <c r="AQ35" s="127"/>
-      <c r="AR35" s="127"/>
-      <c r="AS35" s="127"/>
-      <c r="AT35" s="127"/>
+      <c r="AD35" s="136"/>
+      <c r="AE35" s="136"/>
+      <c r="AF35" s="136"/>
+      <c r="AG35" s="136"/>
+      <c r="AH35" s="136"/>
+      <c r="AI35" s="136"/>
+      <c r="AJ35" s="136"/>
+      <c r="AK35" s="136"/>
+      <c r="AL35" s="136"/>
+      <c r="AM35" s="136"/>
+      <c r="AN35" s="136"/>
+      <c r="AO35" s="136"/>
+      <c r="AP35" s="136"/>
+      <c r="AQ35" s="136"/>
+      <c r="AR35" s="136"/>
+      <c r="AS35" s="136"/>
+      <c r="AT35" s="136"/>
     </row>
     <row r="36" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD36" s="126"/>
-      <c r="AE36" s="127"/>
-      <c r="AF36" s="127"/>
-      <c r="AG36" s="127"/>
-      <c r="AH36" s="127"/>
-      <c r="AI36" s="127"/>
-      <c r="AJ36" s="127"/>
-      <c r="AK36" s="127"/>
-      <c r="AL36" s="127"/>
-      <c r="AM36" s="127"/>
-      <c r="AN36" s="127"/>
-      <c r="AO36" s="127"/>
-      <c r="AP36" s="127"/>
-      <c r="AQ36" s="127"/>
-      <c r="AR36" s="127"/>
-      <c r="AS36" s="127"/>
-      <c r="AT36" s="127"/>
+      <c r="AD36" s="135"/>
+      <c r="AE36" s="136"/>
+      <c r="AF36" s="136"/>
+      <c r="AG36" s="136"/>
+      <c r="AH36" s="136"/>
+      <c r="AI36" s="136"/>
+      <c r="AJ36" s="136"/>
+      <c r="AK36" s="136"/>
+      <c r="AL36" s="136"/>
+      <c r="AM36" s="136"/>
+      <c r="AN36" s="136"/>
+      <c r="AO36" s="136"/>
+      <c r="AP36" s="136"/>
+      <c r="AQ36" s="136"/>
+      <c r="AR36" s="136"/>
+      <c r="AS36" s="136"/>
+      <c r="AT36" s="136"/>
     </row>
     <row r="37" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD37" s="127"/>
-      <c r="AE37" s="127"/>
-      <c r="AF37" s="127"/>
-      <c r="AG37" s="127"/>
-      <c r="AH37" s="127"/>
-      <c r="AI37" s="127"/>
-      <c r="AJ37" s="127"/>
-      <c r="AK37" s="127"/>
-      <c r="AL37" s="127"/>
-      <c r="AM37" s="127"/>
-      <c r="AN37" s="127"/>
-      <c r="AO37" s="127"/>
-      <c r="AP37" s="127"/>
-      <c r="AQ37" s="127"/>
-      <c r="AR37" s="127"/>
-      <c r="AS37" s="127"/>
-      <c r="AT37" s="127"/>
+      <c r="AD37" s="136"/>
+      <c r="AE37" s="136"/>
+      <c r="AF37" s="136"/>
+      <c r="AG37" s="136"/>
+      <c r="AH37" s="136"/>
+      <c r="AI37" s="136"/>
+      <c r="AJ37" s="136"/>
+      <c r="AK37" s="136"/>
+      <c r="AL37" s="136"/>
+      <c r="AM37" s="136"/>
+      <c r="AN37" s="136"/>
+      <c r="AO37" s="136"/>
+      <c r="AP37" s="136"/>
+      <c r="AQ37" s="136"/>
+      <c r="AR37" s="136"/>
+      <c r="AS37" s="136"/>
+      <c r="AT37" s="136"/>
     </row>
     <row r="42" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD42" s="125" t="s">
+      <c r="AD42" s="134" t="s">
         <v>421</v>
       </c>
-      <c r="AE42" s="125"/>
-      <c r="AF42" s="125"/>
-      <c r="AG42" s="125"/>
-      <c r="AH42" s="125"/>
-      <c r="AI42" s="125"/>
-      <c r="AJ42" s="125"/>
-      <c r="AK42" s="125"/>
+      <c r="AE42" s="134"/>
+      <c r="AF42" s="134"/>
+      <c r="AG42" s="134"/>
+      <c r="AH42" s="134"/>
+      <c r="AI42" s="134"/>
+      <c r="AJ42" s="134"/>
+      <c r="AK42" s="134"/>
     </row>
     <row r="43" spans="20:46" ht="33" x14ac:dyDescent="0.4">
       <c r="T43" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="AD43" s="125"/>
-      <c r="AE43" s="125"/>
-      <c r="AF43" s="125"/>
-      <c r="AG43" s="125"/>
-      <c r="AH43" s="125"/>
-      <c r="AI43" s="125"/>
-      <c r="AJ43" s="125"/>
-      <c r="AK43" s="125"/>
+      <c r="AD43" s="134"/>
+      <c r="AE43" s="134"/>
+      <c r="AF43" s="134"/>
+      <c r="AG43" s="134"/>
+      <c r="AH43" s="134"/>
+      <c r="AI43" s="134"/>
+      <c r="AJ43" s="134"/>
+      <c r="AK43" s="134"/>
     </row>
     <row r="44" spans="20:46" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T44" s="34" t="s">
@@ -22526,59 +22916,148 @@
         <v>422</v>
       </c>
     </row>
-    <row r="55" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C56" s="144" t="s">
+    <row r="55" spans="3:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="3:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C56" s="125" t="s">
         <v>436</v>
       </c>
-      <c r="D56" s="145"/>
-      <c r="E56" s="145"/>
-      <c r="F56" s="145"/>
-      <c r="G56" s="145"/>
-      <c r="H56" s="145"/>
-      <c r="I56" s="145"/>
-      <c r="J56" s="145"/>
-      <c r="K56" s="145"/>
-      <c r="L56" s="145"/>
-      <c r="M56" s="145"/>
-      <c r="N56" s="145"/>
-      <c r="O56" s="145"/>
-      <c r="P56" s="146"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.4">
-      <c r="C57" s="147"/>
-      <c r="D57" s="148"/>
-      <c r="E57" s="148"/>
-      <c r="F57" s="148"/>
-      <c r="G57" s="148"/>
-      <c r="H57" s="148"/>
-      <c r="I57" s="148"/>
-      <c r="J57" s="148"/>
-      <c r="K57" s="148"/>
-      <c r="L57" s="148"/>
-      <c r="M57" s="148"/>
-      <c r="N57" s="148"/>
-      <c r="O57" s="148"/>
-      <c r="P57" s="149"/>
-    </row>
-    <row r="58" spans="3:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="150"/>
-      <c r="D58" s="151"/>
-      <c r="E58" s="151"/>
-      <c r="F58" s="151"/>
-      <c r="G58" s="151"/>
-      <c r="H58" s="151"/>
-      <c r="I58" s="151"/>
-      <c r="J58" s="151"/>
-      <c r="K58" s="151"/>
-      <c r="L58" s="151"/>
-      <c r="M58" s="151"/>
-      <c r="N58" s="151"/>
-      <c r="O58" s="151"/>
-      <c r="P58" s="152"/>
+      <c r="D56" s="126"/>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="126"/>
+      <c r="H56" s="126"/>
+      <c r="I56" s="126"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="126"/>
+      <c r="L56" s="126"/>
+      <c r="M56" s="126"/>
+      <c r="N56" s="126"/>
+      <c r="O56" s="126"/>
+      <c r="P56" s="127"/>
+      <c r="W56" s="125" t="s">
+        <v>437</v>
+      </c>
+      <c r="X56" s="126"/>
+      <c r="Y56" s="126"/>
+      <c r="Z56" s="126"/>
+      <c r="AA56" s="126"/>
+      <c r="AB56" s="126"/>
+      <c r="AC56" s="126"/>
+      <c r="AD56" s="126"/>
+      <c r="AE56" s="126"/>
+      <c r="AF56" s="127"/>
+    </row>
+    <row r="57" spans="3:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C57" s="128"/>
+      <c r="D57" s="129"/>
+      <c r="E57" s="129"/>
+      <c r="F57" s="129"/>
+      <c r="G57" s="129"/>
+      <c r="H57" s="129"/>
+      <c r="I57" s="129"/>
+      <c r="J57" s="129"/>
+      <c r="K57" s="129"/>
+      <c r="L57" s="129"/>
+      <c r="M57" s="129"/>
+      <c r="N57" s="129"/>
+      <c r="O57" s="129"/>
+      <c r="P57" s="130"/>
+      <c r="W57" s="128"/>
+      <c r="X57" s="129"/>
+      <c r="Y57" s="129"/>
+      <c r="Z57" s="129"/>
+      <c r="AA57" s="129"/>
+      <c r="AB57" s="129"/>
+      <c r="AC57" s="129"/>
+      <c r="AD57" s="129"/>
+      <c r="AE57" s="129"/>
+      <c r="AF57" s="130"/>
+    </row>
+    <row r="58" spans="3:32" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C58" s="131"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="132"/>
+      <c r="G58" s="132"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="132"/>
+      <c r="L58" s="132"/>
+      <c r="M58" s="132"/>
+      <c r="N58" s="132"/>
+      <c r="O58" s="132"/>
+      <c r="P58" s="133"/>
+      <c r="W58" s="131"/>
+      <c r="X58" s="132"/>
+      <c r="Y58" s="132"/>
+      <c r="Z58" s="132"/>
+      <c r="AA58" s="132"/>
+      <c r="AB58" s="132"/>
+      <c r="AC58" s="132"/>
+      <c r="AD58" s="132"/>
+      <c r="AE58" s="132"/>
+      <c r="AF58" s="133"/>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.4">
+      <c r="W61" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.4">
+      <c r="S62" t="s">
+        <v>438</v>
+      </c>
+      <c r="T62" t="s">
+        <v>439</v>
+      </c>
+      <c r="W62" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.4">
+      <c r="S63" t="s">
+        <v>440</v>
+      </c>
+      <c r="T63" t="s">
+        <v>441</v>
+      </c>
+      <c r="W63" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.4">
+      <c r="S64" t="s">
+        <v>442</v>
+      </c>
+      <c r="T64" t="s">
+        <v>443</v>
+      </c>
+      <c r="W64" t="s">
+        <v>444</v>
+      </c>
+      <c r="X64" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="65" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S65" t="s">
+        <v>447</v>
+      </c>
+      <c r="T65" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="66" spans="19:20" x14ac:dyDescent="0.4">
+      <c r="S66" t="s">
+        <v>444</v>
+      </c>
+      <c r="T66" t="s">
+        <v>445</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C56:P58"/>
     <mergeCell ref="AD42:AK43"/>
     <mergeCell ref="AD34:AT35"/>
@@ -22587,6 +23066,7 @@
     <mergeCell ref="AD28:AT29"/>
     <mergeCell ref="AD30:AT31"/>
     <mergeCell ref="AD32:AT33"/>
+    <mergeCell ref="W56:AF58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23774,20 +24254,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="148" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="139"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="139"/>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
       <c r="F3" s="72" t="s">
         <v>341</v>
       </c>
@@ -23870,7 +24350,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="149" t="s">
         <v>189</v>
       </c>
       <c r="C2" s="117"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA3F311-938B-4757-AD5C-5EC229C74858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E7E02-94CC-46BA-B14A-EEB291E1CD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="455">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -3724,10 +3724,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">300 * 300 </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵はカメラの範囲に入っているならミニマップに移す</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -3741,6 +3737,65 @@
     <rPh sb="22" eb="23">
       <t>ウツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾薬補給</t>
+    <rPh sb="0" eb="4">
+      <t>ダンヤクホキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲に入っている間、キーを入力し続けると補給できる</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ホキュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>補給している間、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>何もできない</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ホキュウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>300 * 300 　1/2</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3752,7 +3807,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3959,6 +4014,14 @@
       <b/>
       <sz val="36"/>
       <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4956,15 +5019,7 @@
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="予定" xfId="7" xr:uid="{F50910B9-FE2C-4E6F-B2E3-BEDFA886AE69}"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -16391,7 +16446,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H15" sqref="H15:I15"/>
     </sheetView>
   </sheetViews>
@@ -20604,7 +20659,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C37">
-    <sortCondition descending="1" sortBy="cellColor" ref="A8:A37" dxfId="1"/>
+    <sortCondition descending="1" sortBy="cellColor" ref="A8:A37" dxfId="0"/>
     <sortCondition ref="B8:B37"/>
   </sortState>
   <mergeCells count="2">
@@ -22597,8 +22652,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AT66"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="AB44" sqref="AB44"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X65" sqref="X65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22916,8 +22971,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="55" spans="3:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="56" spans="3:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="3:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C56" s="125" t="s">
         <v>436</v>
       </c>
@@ -22946,8 +23001,19 @@
       <c r="AD56" s="126"/>
       <c r="AE56" s="126"/>
       <c r="AF56" s="127"/>
-    </row>
-    <row r="57" spans="3:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="AJ56" s="125" t="s">
+        <v>451</v>
+      </c>
+      <c r="AK56" s="126"/>
+      <c r="AL56" s="126"/>
+      <c r="AM56" s="126"/>
+      <c r="AN56" s="126"/>
+      <c r="AO56" s="126"/>
+      <c r="AP56" s="126"/>
+      <c r="AQ56" s="126"/>
+      <c r="AR56" s="127"/>
+    </row>
+    <row r="57" spans="3:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C57" s="128"/>
       <c r="D57" s="129"/>
       <c r="E57" s="129"/>
@@ -22972,8 +23038,17 @@
       <c r="AD57" s="129"/>
       <c r="AE57" s="129"/>
       <c r="AF57" s="130"/>
-    </row>
-    <row r="58" spans="3:32" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AJ57" s="128"/>
+      <c r="AK57" s="129"/>
+      <c r="AL57" s="129"/>
+      <c r="AM57" s="129"/>
+      <c r="AN57" s="129"/>
+      <c r="AO57" s="129"/>
+      <c r="AP57" s="129"/>
+      <c r="AQ57" s="129"/>
+      <c r="AR57" s="130"/>
+    </row>
+    <row r="58" spans="3:44" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C58" s="131"/>
       <c r="D58" s="132"/>
       <c r="E58" s="132"/>
@@ -22998,13 +23073,25 @@
       <c r="AD58" s="132"/>
       <c r="AE58" s="132"/>
       <c r="AF58" s="133"/>
-    </row>
-    <row r="61" spans="3:32" x14ac:dyDescent="0.4">
+      <c r="AJ58" s="131"/>
+      <c r="AK58" s="132"/>
+      <c r="AL58" s="132"/>
+      <c r="AM58" s="132"/>
+      <c r="AN58" s="132"/>
+      <c r="AO58" s="132"/>
+      <c r="AP58" s="132"/>
+      <c r="AQ58" s="132"/>
+      <c r="AR58" s="133"/>
+    </row>
+    <row r="61" spans="3:44" x14ac:dyDescent="0.4">
       <c r="W61" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.4">
+      <c r="AJ61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62" spans="3:44" x14ac:dyDescent="0.4">
       <c r="S62" t="s">
         <v>438</v>
       </c>
@@ -23014,8 +23101,11 @@
       <c r="W62" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.4">
+      <c r="AJ62" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="63" spans="3:44" x14ac:dyDescent="0.4">
       <c r="S63" t="s">
         <v>440</v>
       </c>
@@ -23023,10 +23113,10 @@
         <v>441</v>
       </c>
       <c r="W63" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="64" spans="3:44" x14ac:dyDescent="0.4">
       <c r="S64" t="s">
         <v>442</v>
       </c>
@@ -23037,7 +23127,7 @@
         <v>444</v>
       </c>
       <c r="X64" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="19:20" x14ac:dyDescent="0.4">
@@ -23057,7 +23147,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="C56:P58"/>
     <mergeCell ref="AD42:AK43"/>
     <mergeCell ref="AD34:AT35"/>
@@ -23067,6 +23157,7 @@
     <mergeCell ref="AD30:AT31"/>
     <mergeCell ref="AD32:AT33"/>
     <mergeCell ref="W56:AF58"/>
+    <mergeCell ref="AJ56:AR58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600E7E02-94CC-46BA-B14A-EEB291E1CD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AA986D-16A4-4D00-8549-933C9BA3E02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="12" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="458">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -3769,12 +3769,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>300 * 300 　1/2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>補給している間、</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="20"/>
         <color rgb="FFFF0000"/>
         <rFont val="游ゴシック"/>
         <family val="3"/>
@@ -3795,7 +3799,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>300 * 300 　1/2</t>
+    <t>クイックリロード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RELOAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reload</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4020,7 +4032,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="20"/>
       <color rgb="FFFF0000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -4545,7 +4557,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5004,6 +5016,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -8074,7 +8089,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>121229</xdr:rowOff>
@@ -8140,7 +8155,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>13854</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>100448</xdr:rowOff>
@@ -8269,16 +8284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8658</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8659</xdr:colOff>
       <xdr:row>97</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>22514</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8293,8 +8308,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1352550" y="17278350"/>
-          <a:ext cx="9601200" cy="8972550"/>
+          <a:off x="1394113" y="16902546"/>
+          <a:ext cx="9698182" cy="8785513"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8994,16 +9009,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>668481</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>131618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>394854</xdr:colOff>
       <xdr:row>81</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>93518</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9018,8 +9033,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5600700" y="20859750"/>
-          <a:ext cx="1790700" cy="1447800"/>
+          <a:off x="5517572" y="20463163"/>
+          <a:ext cx="1804555" cy="1416628"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9552,6 +9567,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>606137</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>27141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>188763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7626BAD-7FF7-43B4-A6F1-0EEA5FC4B404}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1298864" y="1481868"/>
+          <a:ext cx="11187546" cy="6482759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16446,7 +16505,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H15" sqref="H15:I15"/>
     </sheetView>
   </sheetViews>
@@ -17005,8 +17064,8 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17:F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17268,6 +17327,15 @@
         <v>347</v>
       </c>
       <c r="E11" s="1"/>
+      <c r="F11" s="19" t="s">
+        <v>455</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
@@ -20186,8 +20254,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22650,10 +22718,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F840A3-C673-472F-B158-91E7EE049523}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:AT66"/>
+  <dimension ref="A1:AR66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X65" sqref="X65"/>
+    <sheetView topLeftCell="A79" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AO23" sqref="AO23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -22661,89 +22729,133 @@
     <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-    </row>
-    <row r="8" spans="1:32" ht="39.75" x14ac:dyDescent="0.4">
-      <c r="AB8" s="50" t="s">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="AJ4" s="125" t="s">
+        <v>451</v>
+      </c>
+      <c r="AK4" s="126"/>
+      <c r="AL4" s="126"/>
+      <c r="AM4" s="126"/>
+      <c r="AN4" s="126"/>
+      <c r="AO4" s="126"/>
+      <c r="AP4" s="126"/>
+      <c r="AQ4" s="126"/>
+      <c r="AR4" s="127"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.4">
+      <c r="AJ5" s="128"/>
+      <c r="AK5" s="129"/>
+      <c r="AL5" s="129"/>
+      <c r="AM5" s="129"/>
+      <c r="AN5" s="129"/>
+      <c r="AO5" s="129"/>
+      <c r="AP5" s="129"/>
+      <c r="AQ5" s="129"/>
+      <c r="AR5" s="130"/>
+    </row>
+    <row r="6" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AJ6" s="131"/>
+      <c r="AK6" s="132"/>
+      <c r="AL6" s="132"/>
+      <c r="AM6" s="132"/>
+      <c r="AN6" s="132"/>
+      <c r="AO6" s="132"/>
+      <c r="AP6" s="132"/>
+      <c r="AQ6" s="132"/>
+      <c r="AR6" s="133"/>
+    </row>
+    <row r="8" spans="1:44" ht="39.75" x14ac:dyDescent="0.4">
+      <c r="U8" s="50" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="9" spans="1:32" ht="39.75" x14ac:dyDescent="0.4">
-      <c r="AB9" s="50" t="s">
+      <c r="AJ8" s="153" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" ht="39.75" x14ac:dyDescent="0.4">
+      <c r="U9" s="50" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="10" spans="1:32" ht="39.75" x14ac:dyDescent="0.4">
-      <c r="AB10" s="50" t="s">
+      <c r="AJ9" s="153" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" ht="39.75" x14ac:dyDescent="0.4">
+      <c r="U10" s="50" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="17" spans="28:46" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AB17" s="69" t="s">
+    <row r="17" spans="21:37" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U17" s="69" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="18" spans="28:46" ht="42.75" x14ac:dyDescent="0.4">
-      <c r="AB18" s="76" t="s">
+    <row r="18" spans="21:37" ht="42.75" x14ac:dyDescent="0.4">
+      <c r="U18" s="76" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="22" spans="28:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="28:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AD23" s="137" t="s">
+    <row r="22" spans="21:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="23" spans="21:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U23" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="AE23" s="138"/>
-      <c r="AF23" s="138"/>
-      <c r="AG23" s="138"/>
-      <c r="AH23" s="138"/>
-      <c r="AI23" s="139"/>
-    </row>
-    <row r="24" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD24" s="140"/>
-      <c r="AE24" s="141"/>
-      <c r="AF24" s="141"/>
-      <c r="AG24" s="141"/>
-      <c r="AH24" s="141"/>
-      <c r="AI24" s="142"/>
-    </row>
-    <row r="25" spans="28:46" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="AD25" s="140"/>
-      <c r="AE25" s="141"/>
-      <c r="AF25" s="141"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="141"/>
-      <c r="AI25" s="142"/>
-    </row>
-    <row r="26" spans="28:46" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AD26" s="143"/>
-      <c r="AE26" s="144"/>
-      <c r="AF26" s="144"/>
-      <c r="AG26" s="144"/>
-      <c r="AH26" s="144"/>
-      <c r="AI26" s="145"/>
-    </row>
-    <row r="28" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD28" s="146" t="s">
+      <c r="V23" s="138"/>
+      <c r="W23" s="138"/>
+      <c r="X23" s="138"/>
+      <c r="Y23" s="138"/>
+      <c r="Z23" s="139"/>
+    </row>
+    <row r="24" spans="21:37" x14ac:dyDescent="0.4">
+      <c r="U24" s="140"/>
+      <c r="V24" s="141"/>
+      <c r="W24" s="141"/>
+      <c r="X24" s="141"/>
+      <c r="Y24" s="141"/>
+      <c r="Z24" s="142"/>
+    </row>
+    <row r="25" spans="21:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="U25" s="140"/>
+      <c r="V25" s="141"/>
+      <c r="W25" s="141"/>
+      <c r="X25" s="141"/>
+      <c r="Y25" s="141"/>
+      <c r="Z25" s="142"/>
+    </row>
+    <row r="26" spans="21:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U26" s="143"/>
+      <c r="V26" s="144"/>
+      <c r="W26" s="144"/>
+      <c r="X26" s="144"/>
+      <c r="Y26" s="144"/>
+      <c r="Z26" s="145"/>
+    </row>
+    <row r="28" spans="21:37" x14ac:dyDescent="0.4">
+      <c r="U28" s="146" t="s">
         <v>388</v>
       </c>
+      <c r="V28" s="147"/>
+      <c r="W28" s="147"/>
+      <c r="X28" s="147"/>
+      <c r="Y28" s="147"/>
+      <c r="Z28" s="147"/>
+      <c r="AA28" s="147"/>
+      <c r="AB28" s="147"/>
+      <c r="AC28" s="147"/>
+      <c r="AD28" s="147"/>
       <c r="AE28" s="147"/>
       <c r="AF28" s="147"/>
       <c r="AG28" s="147"/>
@@ -22751,17 +22863,17 @@
       <c r="AI28" s="147"/>
       <c r="AJ28" s="147"/>
       <c r="AK28" s="147"/>
-      <c r="AL28" s="147"/>
-      <c r="AM28" s="147"/>
-      <c r="AN28" s="147"/>
-      <c r="AO28" s="147"/>
-      <c r="AP28" s="147"/>
-      <c r="AQ28" s="147"/>
-      <c r="AR28" s="147"/>
-      <c r="AS28" s="147"/>
-      <c r="AT28" s="147"/>
-    </row>
-    <row r="29" spans="28:46" x14ac:dyDescent="0.4">
+    </row>
+    <row r="29" spans="21:37" x14ac:dyDescent="0.4">
+      <c r="U29" s="147"/>
+      <c r="V29" s="147"/>
+      <c r="W29" s="147"/>
+      <c r="X29" s="147"/>
+      <c r="Y29" s="147"/>
+      <c r="Z29" s="147"/>
+      <c r="AA29" s="147"/>
+      <c r="AB29" s="147"/>
+      <c r="AC29" s="147"/>
       <c r="AD29" s="147"/>
       <c r="AE29" s="147"/>
       <c r="AF29" s="147"/>
@@ -22770,20 +22882,20 @@
       <c r="AI29" s="147"/>
       <c r="AJ29" s="147"/>
       <c r="AK29" s="147"/>
-      <c r="AL29" s="147"/>
-      <c r="AM29" s="147"/>
-      <c r="AN29" s="147"/>
-      <c r="AO29" s="147"/>
-      <c r="AP29" s="147"/>
-      <c r="AQ29" s="147"/>
-      <c r="AR29" s="147"/>
-      <c r="AS29" s="147"/>
-      <c r="AT29" s="147"/>
-    </row>
-    <row r="30" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD30" s="135" t="s">
+    </row>
+    <row r="30" spans="21:37" x14ac:dyDescent="0.4">
+      <c r="U30" s="135" t="s">
         <v>389</v>
       </c>
+      <c r="V30" s="136"/>
+      <c r="W30" s="136"/>
+      <c r="X30" s="136"/>
+      <c r="Y30" s="136"/>
+      <c r="Z30" s="136"/>
+      <c r="AA30" s="136"/>
+      <c r="AB30" s="136"/>
+      <c r="AC30" s="136"/>
+      <c r="AD30" s="136"/>
       <c r="AE30" s="136"/>
       <c r="AF30" s="136"/>
       <c r="AG30" s="136"/>
@@ -22791,17 +22903,17 @@
       <c r="AI30" s="136"/>
       <c r="AJ30" s="136"/>
       <c r="AK30" s="136"/>
-      <c r="AL30" s="136"/>
-      <c r="AM30" s="136"/>
-      <c r="AN30" s="136"/>
-      <c r="AO30" s="136"/>
-      <c r="AP30" s="136"/>
-      <c r="AQ30" s="136"/>
-      <c r="AR30" s="136"/>
-      <c r="AS30" s="136"/>
-      <c r="AT30" s="136"/>
-    </row>
-    <row r="31" spans="28:46" x14ac:dyDescent="0.4">
+    </row>
+    <row r="31" spans="21:37" x14ac:dyDescent="0.4">
+      <c r="U31" s="136"/>
+      <c r="V31" s="136"/>
+      <c r="W31" s="136"/>
+      <c r="X31" s="136"/>
+      <c r="Y31" s="136"/>
+      <c r="Z31" s="136"/>
+      <c r="AA31" s="136"/>
+      <c r="AB31" s="136"/>
+      <c r="AC31" s="136"/>
       <c r="AD31" s="136"/>
       <c r="AE31" s="136"/>
       <c r="AF31" s="136"/>
@@ -22810,20 +22922,20 @@
       <c r="AI31" s="136"/>
       <c r="AJ31" s="136"/>
       <c r="AK31" s="136"/>
-      <c r="AL31" s="136"/>
-      <c r="AM31" s="136"/>
-      <c r="AN31" s="136"/>
-      <c r="AO31" s="136"/>
-      <c r="AP31" s="136"/>
-      <c r="AQ31" s="136"/>
-      <c r="AR31" s="136"/>
-      <c r="AS31" s="136"/>
-      <c r="AT31" s="136"/>
-    </row>
-    <row r="32" spans="28:46" x14ac:dyDescent="0.4">
-      <c r="AD32" s="135" t="s">
+    </row>
+    <row r="32" spans="21:37" x14ac:dyDescent="0.4">
+      <c r="U32" s="135" t="s">
         <v>390</v>
       </c>
+      <c r="V32" s="136"/>
+      <c r="W32" s="136"/>
+      <c r="X32" s="136"/>
+      <c r="Y32" s="136"/>
+      <c r="Z32" s="136"/>
+      <c r="AA32" s="136"/>
+      <c r="AB32" s="136"/>
+      <c r="AC32" s="136"/>
+      <c r="AD32" s="136"/>
       <c r="AE32" s="136"/>
       <c r="AF32" s="136"/>
       <c r="AG32" s="136"/>
@@ -22831,17 +22943,17 @@
       <c r="AI32" s="136"/>
       <c r="AJ32" s="136"/>
       <c r="AK32" s="136"/>
-      <c r="AL32" s="136"/>
-      <c r="AM32" s="136"/>
-      <c r="AN32" s="136"/>
-      <c r="AO32" s="136"/>
-      <c r="AP32" s="136"/>
-      <c r="AQ32" s="136"/>
-      <c r="AR32" s="136"/>
-      <c r="AS32" s="136"/>
-      <c r="AT32" s="136"/>
-    </row>
-    <row r="33" spans="20:46" x14ac:dyDescent="0.4">
+    </row>
+    <row r="33" spans="20:37" x14ac:dyDescent="0.4">
+      <c r="U33" s="136"/>
+      <c r="V33" s="136"/>
+      <c r="W33" s="136"/>
+      <c r="X33" s="136"/>
+      <c r="Y33" s="136"/>
+      <c r="Z33" s="136"/>
+      <c r="AA33" s="136"/>
+      <c r="AB33" s="136"/>
+      <c r="AC33" s="136"/>
       <c r="AD33" s="136"/>
       <c r="AE33" s="136"/>
       <c r="AF33" s="136"/>
@@ -22850,20 +22962,20 @@
       <c r="AI33" s="136"/>
       <c r="AJ33" s="136"/>
       <c r="AK33" s="136"/>
-      <c r="AL33" s="136"/>
-      <c r="AM33" s="136"/>
-      <c r="AN33" s="136"/>
-      <c r="AO33" s="136"/>
-      <c r="AP33" s="136"/>
-      <c r="AQ33" s="136"/>
-      <c r="AR33" s="136"/>
-      <c r="AS33" s="136"/>
-      <c r="AT33" s="136"/>
-    </row>
-    <row r="34" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD34" s="135" t="s">
+    </row>
+    <row r="34" spans="20:37" x14ac:dyDescent="0.4">
+      <c r="U34" s="135" t="s">
         <v>391</v>
       </c>
+      <c r="V34" s="136"/>
+      <c r="W34" s="136"/>
+      <c r="X34" s="136"/>
+      <c r="Y34" s="136"/>
+      <c r="Z34" s="136"/>
+      <c r="AA34" s="136"/>
+      <c r="AB34" s="136"/>
+      <c r="AC34" s="136"/>
+      <c r="AD34" s="136"/>
       <c r="AE34" s="136"/>
       <c r="AF34" s="136"/>
       <c r="AG34" s="136"/>
@@ -22871,17 +22983,17 @@
       <c r="AI34" s="136"/>
       <c r="AJ34" s="136"/>
       <c r="AK34" s="136"/>
-      <c r="AL34" s="136"/>
-      <c r="AM34" s="136"/>
-      <c r="AN34" s="136"/>
-      <c r="AO34" s="136"/>
-      <c r="AP34" s="136"/>
-      <c r="AQ34" s="136"/>
-      <c r="AR34" s="136"/>
-      <c r="AS34" s="136"/>
-      <c r="AT34" s="136"/>
-    </row>
-    <row r="35" spans="20:46" x14ac:dyDescent="0.4">
+    </row>
+    <row r="35" spans="20:37" x14ac:dyDescent="0.4">
+      <c r="U35" s="136"/>
+      <c r="V35" s="136"/>
+      <c r="W35" s="136"/>
+      <c r="X35" s="136"/>
+      <c r="Y35" s="136"/>
+      <c r="Z35" s="136"/>
+      <c r="AA35" s="136"/>
+      <c r="AB35" s="136"/>
+      <c r="AC35" s="136"/>
       <c r="AD35" s="136"/>
       <c r="AE35" s="136"/>
       <c r="AF35" s="136"/>
@@ -22890,18 +23002,18 @@
       <c r="AI35" s="136"/>
       <c r="AJ35" s="136"/>
       <c r="AK35" s="136"/>
-      <c r="AL35" s="136"/>
-      <c r="AM35" s="136"/>
-      <c r="AN35" s="136"/>
-      <c r="AO35" s="136"/>
-      <c r="AP35" s="136"/>
-      <c r="AQ35" s="136"/>
-      <c r="AR35" s="136"/>
-      <c r="AS35" s="136"/>
-      <c r="AT35" s="136"/>
-    </row>
-    <row r="36" spans="20:46" x14ac:dyDescent="0.4">
-      <c r="AD36" s="135"/>
+    </row>
+    <row r="36" spans="20:37" x14ac:dyDescent="0.4">
+      <c r="U36" s="135"/>
+      <c r="V36" s="136"/>
+      <c r="W36" s="136"/>
+      <c r="X36" s="136"/>
+      <c r="Y36" s="136"/>
+      <c r="Z36" s="136"/>
+      <c r="AA36" s="136"/>
+      <c r="AB36" s="136"/>
+      <c r="AC36" s="136"/>
+      <c r="AD36" s="136"/>
       <c r="AE36" s="136"/>
       <c r="AF36" s="136"/>
       <c r="AG36" s="136"/>
@@ -22909,17 +23021,17 @@
       <c r="AI36" s="136"/>
       <c r="AJ36" s="136"/>
       <c r="AK36" s="136"/>
-      <c r="AL36" s="136"/>
-      <c r="AM36" s="136"/>
-      <c r="AN36" s="136"/>
-      <c r="AO36" s="136"/>
-      <c r="AP36" s="136"/>
-      <c r="AQ36" s="136"/>
-      <c r="AR36" s="136"/>
-      <c r="AS36" s="136"/>
-      <c r="AT36" s="136"/>
-    </row>
-    <row r="37" spans="20:46" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="20:37" x14ac:dyDescent="0.4">
+      <c r="U37" s="136"/>
+      <c r="V37" s="136"/>
+      <c r="W37" s="136"/>
+      <c r="X37" s="136"/>
+      <c r="Y37" s="136"/>
+      <c r="Z37" s="136"/>
+      <c r="AA37" s="136"/>
+      <c r="AB37" s="136"/>
+      <c r="AC37" s="136"/>
       <c r="AD37" s="136"/>
       <c r="AE37" s="136"/>
       <c r="AF37" s="136"/>
@@ -22928,17 +23040,8 @@
       <c r="AI37" s="136"/>
       <c r="AJ37" s="136"/>
       <c r="AK37" s="136"/>
-      <c r="AL37" s="136"/>
-      <c r="AM37" s="136"/>
-      <c r="AN37" s="136"/>
-      <c r="AO37" s="136"/>
-      <c r="AP37" s="136"/>
-      <c r="AQ37" s="136"/>
-      <c r="AR37" s="136"/>
-      <c r="AS37" s="136"/>
-      <c r="AT37" s="136"/>
-    </row>
-    <row r="42" spans="20:46" x14ac:dyDescent="0.4">
+    </row>
+    <row r="42" spans="20:37" x14ac:dyDescent="0.4">
       <c r="AD42" s="134" t="s">
         <v>421</v>
       </c>
@@ -22950,7 +23053,7 @@
       <c r="AJ42" s="134"/>
       <c r="AK42" s="134"/>
     </row>
-    <row r="43" spans="20:46" ht="33" x14ac:dyDescent="0.4">
+    <row r="43" spans="20:37" ht="33" x14ac:dyDescent="0.4">
       <c r="T43" s="35" t="s">
         <v>262</v>
       </c>
@@ -22963,7 +23066,7 @@
       <c r="AJ43" s="134"/>
       <c r="AK43" s="134"/>
     </row>
-    <row r="44" spans="20:46" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="20:37" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T44" s="34" t="s">
         <v>261</v>
       </c>
@@ -22971,8 +23074,8 @@
         <v>422</v>
       </c>
     </row>
-    <row r="55" spans="3:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="56" spans="3:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="56" spans="3:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C56" s="125" t="s">
         <v>436</v>
       </c>
@@ -23001,19 +23104,8 @@
       <c r="AD56" s="126"/>
       <c r="AE56" s="126"/>
       <c r="AF56" s="127"/>
-      <c r="AJ56" s="125" t="s">
-        <v>451</v>
-      </c>
-      <c r="AK56" s="126"/>
-      <c r="AL56" s="126"/>
-      <c r="AM56" s="126"/>
-      <c r="AN56" s="126"/>
-      <c r="AO56" s="126"/>
-      <c r="AP56" s="126"/>
-      <c r="AQ56" s="126"/>
-      <c r="AR56" s="127"/>
-    </row>
-    <row r="57" spans="3:44" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="3:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C57" s="128"/>
       <c r="D57" s="129"/>
       <c r="E57" s="129"/>
@@ -23038,17 +23130,8 @@
       <c r="AD57" s="129"/>
       <c r="AE57" s="129"/>
       <c r="AF57" s="130"/>
-      <c r="AJ57" s="128"/>
-      <c r="AK57" s="129"/>
-      <c r="AL57" s="129"/>
-      <c r="AM57" s="129"/>
-      <c r="AN57" s="129"/>
-      <c r="AO57" s="129"/>
-      <c r="AP57" s="129"/>
-      <c r="AQ57" s="129"/>
-      <c r="AR57" s="130"/>
-    </row>
-    <row r="58" spans="3:44" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="3:32" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C58" s="131"/>
       <c r="D58" s="132"/>
       <c r="E58" s="132"/>
@@ -23073,25 +23156,13 @@
       <c r="AD58" s="132"/>
       <c r="AE58" s="132"/>
       <c r="AF58" s="133"/>
-      <c r="AJ58" s="131"/>
-      <c r="AK58" s="132"/>
-      <c r="AL58" s="132"/>
-      <c r="AM58" s="132"/>
-      <c r="AN58" s="132"/>
-      <c r="AO58" s="132"/>
-      <c r="AP58" s="132"/>
-      <c r="AQ58" s="132"/>
-      <c r="AR58" s="133"/>
-    </row>
-    <row r="61" spans="3:44" x14ac:dyDescent="0.4">
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.4">
       <c r="W61" t="s">
         <v>448</v>
       </c>
-      <c r="AJ61" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="62" spans="3:44" x14ac:dyDescent="0.4">
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.4">
       <c r="S62" t="s">
         <v>438</v>
       </c>
@@ -23101,11 +23172,8 @@
       <c r="W62" t="s">
         <v>449</v>
       </c>
-      <c r="AJ62" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="63" spans="3:44" x14ac:dyDescent="0.4">
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.4">
       <c r="S63" t="s">
         <v>440</v>
       </c>
@@ -23116,7 +23184,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="64" spans="3:44" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:32" x14ac:dyDescent="0.4">
       <c r="S64" t="s">
         <v>442</v>
       </c>
@@ -23127,7 +23195,7 @@
         <v>444</v>
       </c>
       <c r="X64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="19:20" x14ac:dyDescent="0.4">
@@ -23150,14 +23218,14 @@
   <mergeCells count="10">
     <mergeCell ref="C56:P58"/>
     <mergeCell ref="AD42:AK43"/>
-    <mergeCell ref="AD34:AT35"/>
-    <mergeCell ref="AD36:AT37"/>
-    <mergeCell ref="AD23:AI26"/>
-    <mergeCell ref="AD28:AT29"/>
-    <mergeCell ref="AD30:AT31"/>
-    <mergeCell ref="AD32:AT33"/>
+    <mergeCell ref="U34:AK35"/>
+    <mergeCell ref="U36:AK37"/>
+    <mergeCell ref="U23:Z26"/>
+    <mergeCell ref="U28:AK29"/>
+    <mergeCell ref="U30:AK31"/>
+    <mergeCell ref="U32:AK33"/>
     <mergeCell ref="W56:AF58"/>
-    <mergeCell ref="AJ56:AR58"/>
+    <mergeCell ref="AJ4:AR6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AA986D-16A4-4D00-8549-933C9BA3E02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCE0640-FA7C-4271-A53E-8BA4A1F7A839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="12" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId1"/>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="465">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -3808,6 +3808,85 @@
   </si>
   <si>
     <t>Reload</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力が1.2倍</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度が1.5倍</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力1.5倍</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPが回復、防御力2.0倍</t>
+    <rPh sb="3" eb="5">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPが回復、防御力1.2倍、攻撃力1.2倍</t>
+    <rPh sb="3" eb="5">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力が1.3倍</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通でリロードは1秒でできる</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ビョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4843,6 +4922,9 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5016,9 +5098,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -16513,32 +16592,32 @@
   <sheetData>
     <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="96"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="97"/>
-      <c r="I2" s="110" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
+      <c r="I2" s="111" t="s">
         <v>218</v>
       </c>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
     </row>
     <row r="3" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="100"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="114"/>
-      <c r="M3" s="115"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="I4" s="27" t="s">
@@ -16574,13 +16653,13 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="116" t="s">
+      <c r="B7" s="117" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -16589,11 +16668,11 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -16612,56 +16691,56 @@
       </c>
     </row>
     <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="107"/>
     </row>
     <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="107"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="109"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110"/>
     </row>
     <row r="15" spans="2:15" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="101" t="s">
+      <c r="B15" s="102" t="s">
         <v>330</v>
       </c>
-      <c r="C15" s="101"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="101" t="s">
+      <c r="E15" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="101"/>
+      <c r="F15" s="102"/>
       <c r="G15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="101" t="s">
+      <c r="H15" s="102" t="s">
         <v>80</v>
       </c>
-      <c r="I15" s="101"/>
+      <c r="I15" s="102"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="101" t="s">
+      <c r="K15" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="L15" s="101"/>
+      <c r="L15" s="102"/>
       <c r="M15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="101" t="s">
+      <c r="N15" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="101"/>
+      <c r="O15" s="102"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.4">
       <c r="E16" t="s">
@@ -16675,10 +16754,10 @@
     </row>
     <row r="18" spans="5:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="5:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H19" s="102" t="s">
+      <c r="H19" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="103"/>
+      <c r="I19" s="104"/>
       <c r="J19" t="s">
         <v>211</v>
       </c>
@@ -16720,58 +16799,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="150" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="O1" s="149" t="s">
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="O1" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
+      <c r="P1" s="150"/>
+      <c r="Q1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="S1" s="150"/>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="150"/>
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="150"/>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="117"/>
+      <c r="S33" s="118"/>
+      <c r="T33" s="118"/>
+      <c r="U33" s="118"/>
+      <c r="V33" s="118"/>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C34" s="149" t="s">
+      <c r="C34" s="150" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="117"/>
+      <c r="D34" s="150"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="150"/>
+      <c r="G34" s="150"/>
+      <c r="S34" s="118"/>
+      <c r="T34" s="118"/>
+      <c r="U34" s="118"/>
+      <c r="V34" s="118"/>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C35" s="149"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="150"/>
+      <c r="E35" s="150"/>
+      <c r="F35" s="150"/>
+      <c r="G35" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -17064,7 +17143,7 @@
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -17392,14 +17471,14 @@
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A1" s="73"/>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="151" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="153"/>
       <c r="H1" s="44">
         <v>44413</v>
       </c>
@@ -20278,10 +20357,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="118" t="s">
+      <c r="E1" s="119" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="118"/>
+      <c r="F1" s="119"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -20352,11 +20431,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="120" t="s">
         <v>428</v>
       </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="121"/>
+      <c r="B7" s="121"/>
+      <c r="C7" s="122"/>
       <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
@@ -20746,8 +20825,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:Z46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X13" sqref="X13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -20768,7 +20847,7 @@
     <col min="20" max="20" width="10.875" style="25" customWidth="1"/>
     <col min="21" max="21" width="10.5" style="25" customWidth="1"/>
     <col min="22" max="23" width="7.625" style="25" customWidth="1"/>
-    <col min="24" max="24" width="44.875" style="90" customWidth="1"/>
+    <col min="24" max="24" width="36" style="90" customWidth="1"/>
     <col min="25" max="25" width="56.625" style="42" customWidth="1"/>
     <col min="27" max="16384" width="9" style="42"/>
   </cols>
@@ -20809,31 +20888,31 @@
       <c r="D3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="123" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122" t="s">
+      <c r="F3" s="123"/>
+      <c r="G3" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="122"/>
+      <c r="H3" s="123"/>
       <c r="I3" s="20" t="s">
         <v>96</v>
       </c>
       <c r="J3" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="K3" s="122" t="s">
+      <c r="K3" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122" t="s">
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="122"/>
+      <c r="Q3" s="123"/>
       <c r="R3" s="42" t="s">
         <v>97</v>
       </c>
@@ -20909,7 +20988,9 @@
         <v>133</v>
       </c>
       <c r="W4" s="49"/>
-      <c r="X4" s="91"/>
+      <c r="X4" s="91" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
@@ -20989,7 +21070,9 @@
         <f>V5/10</f>
         <v>36.25</v>
       </c>
-      <c r="X5" s="92"/>
+      <c r="X5" s="92" t="s">
+        <v>458</v>
+      </c>
       <c r="Y5" s="7" t="s">
         <v>101</v>
       </c>
@@ -21072,7 +21155,9 @@
         <f t="shared" ref="W6:W20" si="7">V6/10</f>
         <v>45.32</v>
       </c>
-      <c r="X6" s="92"/>
+      <c r="X6" s="92" t="s">
+        <v>459</v>
+      </c>
       <c r="Y6" s="42" t="s">
         <v>102</v>
       </c>
@@ -21235,7 +21320,9 @@
         <f t="shared" si="7"/>
         <v>30.838000000000001</v>
       </c>
-      <c r="X8" s="92"/>
+      <c r="X8" s="92" t="s">
+        <v>461</v>
+      </c>
       <c r="Y8" s="42" t="s">
         <v>112</v>
       </c>
@@ -21318,16 +21405,18 @@
         <f t="shared" si="7"/>
         <v>26.27</v>
       </c>
-      <c r="X9" s="92"/>
+      <c r="X9" s="92" t="s">
+        <v>462</v>
+      </c>
       <c r="Y9" s="42" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="6" t="s">
         <v>114</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -21401,7 +21490,9 @@
         <f t="shared" si="7"/>
         <v>26.919</v>
       </c>
-      <c r="X10" s="92"/>
+      <c r="X10" s="92" t="s">
+        <v>463</v>
+      </c>
       <c r="Y10" s="42" t="s">
         <v>119</v>
       </c>
@@ -21482,7 +21573,9 @@
         <f t="shared" si="7"/>
         <v>47.244</v>
       </c>
-      <c r="X11" s="92"/>
+      <c r="X11" s="92" t="s">
+        <v>460</v>
+      </c>
       <c r="Y11" s="42" t="s">
         <v>117</v>
       </c>
@@ -22397,18 +22490,18 @@
       <c r="B26" s="70" t="s">
         <v>406</v>
       </c>
-      <c r="D26" s="123" t="s">
+      <c r="D26" s="124" t="s">
         <v>414</v>
       </c>
-      <c r="E26" s="123"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="123"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="123"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="123"/>
+      <c r="E26" s="124"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="124"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
       <c r="X26" s="93"/>
     </row>
     <row r="27" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
@@ -22620,18 +22713,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="O4" t="s">
@@ -22743,45 +22836,45 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="AJ4" s="125" t="s">
+      <c r="AJ4" s="126" t="s">
         <v>451</v>
       </c>
-      <c r="AK4" s="126"/>
-      <c r="AL4" s="126"/>
-      <c r="AM4" s="126"/>
-      <c r="AN4" s="126"/>
-      <c r="AO4" s="126"/>
-      <c r="AP4" s="126"/>
-      <c r="AQ4" s="126"/>
-      <c r="AR4" s="127"/>
+      <c r="AK4" s="127"/>
+      <c r="AL4" s="127"/>
+      <c r="AM4" s="127"/>
+      <c r="AN4" s="127"/>
+      <c r="AO4" s="127"/>
+      <c r="AP4" s="127"/>
+      <c r="AQ4" s="127"/>
+      <c r="AR4" s="128"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="AJ5" s="128"/>
-      <c r="AK5" s="129"/>
-      <c r="AL5" s="129"/>
-      <c r="AM5" s="129"/>
-      <c r="AN5" s="129"/>
-      <c r="AO5" s="129"/>
-      <c r="AP5" s="129"/>
-      <c r="AQ5" s="129"/>
-      <c r="AR5" s="130"/>
+      <c r="AJ5" s="129"/>
+      <c r="AK5" s="130"/>
+      <c r="AL5" s="130"/>
+      <c r="AM5" s="130"/>
+      <c r="AN5" s="130"/>
+      <c r="AO5" s="130"/>
+      <c r="AP5" s="130"/>
+      <c r="AQ5" s="130"/>
+      <c r="AR5" s="131"/>
     </row>
     <row r="6" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AJ6" s="131"/>
-      <c r="AK6" s="132"/>
-      <c r="AL6" s="132"/>
-      <c r="AM6" s="132"/>
-      <c r="AN6" s="132"/>
-      <c r="AO6" s="132"/>
-      <c r="AP6" s="132"/>
-      <c r="AQ6" s="132"/>
-      <c r="AR6" s="133"/>
+      <c r="AJ6" s="132"/>
+      <c r="AK6" s="133"/>
+      <c r="AL6" s="133"/>
+      <c r="AM6" s="133"/>
+      <c r="AN6" s="133"/>
+      <c r="AO6" s="133"/>
+      <c r="AP6" s="133"/>
+      <c r="AQ6" s="133"/>
+      <c r="AR6" s="134"/>
     </row>
     <row r="8" spans="1:44" ht="39.75" x14ac:dyDescent="0.4">
       <c r="U8" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="AJ8" s="153" t="s">
+      <c r="AJ8" s="95" t="s">
         <v>452</v>
       </c>
     </row>
@@ -22789,7 +22882,7 @@
       <c r="U9" s="50" t="s">
         <v>392</v>
       </c>
-      <c r="AJ9" s="153" t="s">
+      <c r="AJ9" s="95" t="s">
         <v>454</v>
       </c>
     </row>
@@ -22810,261 +22903,261 @@
     </row>
     <row r="22" spans="21:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="21:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U23" s="137" t="s">
+      <c r="U23" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="V23" s="138"/>
-      <c r="W23" s="138"/>
-      <c r="X23" s="138"/>
-      <c r="Y23" s="138"/>
-      <c r="Z23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="140"/>
     </row>
     <row r="24" spans="21:37" x14ac:dyDescent="0.4">
-      <c r="U24" s="140"/>
-      <c r="V24" s="141"/>
-      <c r="W24" s="141"/>
-      <c r="X24" s="141"/>
-      <c r="Y24" s="141"/>
-      <c r="Z24" s="142"/>
+      <c r="U24" s="141"/>
+      <c r="V24" s="142"/>
+      <c r="W24" s="142"/>
+      <c r="X24" s="142"/>
+      <c r="Y24" s="142"/>
+      <c r="Z24" s="143"/>
     </row>
     <row r="25" spans="21:37" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U25" s="140"/>
-      <c r="V25" s="141"/>
-      <c r="W25" s="141"/>
-      <c r="X25" s="141"/>
-      <c r="Y25" s="141"/>
-      <c r="Z25" s="142"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="142"/>
+      <c r="W25" s="142"/>
+      <c r="X25" s="142"/>
+      <c r="Y25" s="142"/>
+      <c r="Z25" s="143"/>
     </row>
     <row r="26" spans="21:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="U26" s="143"/>
-      <c r="V26" s="144"/>
-      <c r="W26" s="144"/>
-      <c r="X26" s="144"/>
-      <c r="Y26" s="144"/>
-      <c r="Z26" s="145"/>
+      <c r="U26" s="144"/>
+      <c r="V26" s="145"/>
+      <c r="W26" s="145"/>
+      <c r="X26" s="145"/>
+      <c r="Y26" s="145"/>
+      <c r="Z26" s="146"/>
     </row>
     <row r="28" spans="21:37" x14ac:dyDescent="0.4">
-      <c r="U28" s="146" t="s">
+      <c r="U28" s="147" t="s">
         <v>388</v>
       </c>
-      <c r="V28" s="147"/>
-      <c r="W28" s="147"/>
-      <c r="X28" s="147"/>
-      <c r="Y28" s="147"/>
-      <c r="Z28" s="147"/>
-      <c r="AA28" s="147"/>
-      <c r="AB28" s="147"/>
-      <c r="AC28" s="147"/>
-      <c r="AD28" s="147"/>
-      <c r="AE28" s="147"/>
-      <c r="AF28" s="147"/>
-      <c r="AG28" s="147"/>
-      <c r="AH28" s="147"/>
-      <c r="AI28" s="147"/>
-      <c r="AJ28" s="147"/>
-      <c r="AK28" s="147"/>
+      <c r="V28" s="148"/>
+      <c r="W28" s="148"/>
+      <c r="X28" s="148"/>
+      <c r="Y28" s="148"/>
+      <c r="Z28" s="148"/>
+      <c r="AA28" s="148"/>
+      <c r="AB28" s="148"/>
+      <c r="AC28" s="148"/>
+      <c r="AD28" s="148"/>
+      <c r="AE28" s="148"/>
+      <c r="AF28" s="148"/>
+      <c r="AG28" s="148"/>
+      <c r="AH28" s="148"/>
+      <c r="AI28" s="148"/>
+      <c r="AJ28" s="148"/>
+      <c r="AK28" s="148"/>
     </row>
     <row r="29" spans="21:37" x14ac:dyDescent="0.4">
-      <c r="U29" s="147"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="147"/>
-      <c r="AA29" s="147"/>
-      <c r="AB29" s="147"/>
-      <c r="AC29" s="147"/>
-      <c r="AD29" s="147"/>
-      <c r="AE29" s="147"/>
-      <c r="AF29" s="147"/>
-      <c r="AG29" s="147"/>
-      <c r="AH29" s="147"/>
-      <c r="AI29" s="147"/>
-      <c r="AJ29" s="147"/>
-      <c r="AK29" s="147"/>
+      <c r="U29" s="148"/>
+      <c r="V29" s="148"/>
+      <c r="W29" s="148"/>
+      <c r="X29" s="148"/>
+      <c r="Y29" s="148"/>
+      <c r="Z29" s="148"/>
+      <c r="AA29" s="148"/>
+      <c r="AB29" s="148"/>
+      <c r="AC29" s="148"/>
+      <c r="AD29" s="148"/>
+      <c r="AE29" s="148"/>
+      <c r="AF29" s="148"/>
+      <c r="AG29" s="148"/>
+      <c r="AH29" s="148"/>
+      <c r="AI29" s="148"/>
+      <c r="AJ29" s="148"/>
+      <c r="AK29" s="148"/>
     </row>
     <row r="30" spans="21:37" x14ac:dyDescent="0.4">
-      <c r="U30" s="135" t="s">
+      <c r="U30" s="136" t="s">
         <v>389</v>
       </c>
-      <c r="V30" s="136"/>
-      <c r="W30" s="136"/>
-      <c r="X30" s="136"/>
-      <c r="Y30" s="136"/>
-      <c r="Z30" s="136"/>
-      <c r="AA30" s="136"/>
-      <c r="AB30" s="136"/>
-      <c r="AC30" s="136"/>
-      <c r="AD30" s="136"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="136"/>
-      <c r="AG30" s="136"/>
-      <c r="AH30" s="136"/>
-      <c r="AI30" s="136"/>
-      <c r="AJ30" s="136"/>
-      <c r="AK30" s="136"/>
+      <c r="V30" s="137"/>
+      <c r="W30" s="137"/>
+      <c r="X30" s="137"/>
+      <c r="Y30" s="137"/>
+      <c r="Z30" s="137"/>
+      <c r="AA30" s="137"/>
+      <c r="AB30" s="137"/>
+      <c r="AC30" s="137"/>
+      <c r="AD30" s="137"/>
+      <c r="AE30" s="137"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="137"/>
+      <c r="AH30" s="137"/>
+      <c r="AI30" s="137"/>
+      <c r="AJ30" s="137"/>
+      <c r="AK30" s="137"/>
     </row>
     <row r="31" spans="21:37" x14ac:dyDescent="0.4">
-      <c r="U31" s="136"/>
-      <c r="V31" s="136"/>
-      <c r="W31" s="136"/>
-      <c r="X31" s="136"/>
-      <c r="Y31" s="136"/>
-      <c r="Z31" s="136"/>
-      <c r="AA31" s="136"/>
-      <c r="AB31" s="136"/>
-      <c r="AC31" s="136"/>
-      <c r="AD31" s="136"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="136"/>
-      <c r="AG31" s="136"/>
-      <c r="AH31" s="136"/>
-      <c r="AI31" s="136"/>
-      <c r="AJ31" s="136"/>
-      <c r="AK31" s="136"/>
+      <c r="U31" s="137"/>
+      <c r="V31" s="137"/>
+      <c r="W31" s="137"/>
+      <c r="X31" s="137"/>
+      <c r="Y31" s="137"/>
+      <c r="Z31" s="137"/>
+      <c r="AA31" s="137"/>
+      <c r="AB31" s="137"/>
+      <c r="AC31" s="137"/>
+      <c r="AD31" s="137"/>
+      <c r="AE31" s="137"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="137"/>
+      <c r="AH31" s="137"/>
+      <c r="AI31" s="137"/>
+      <c r="AJ31" s="137"/>
+      <c r="AK31" s="137"/>
     </row>
     <row r="32" spans="21:37" x14ac:dyDescent="0.4">
-      <c r="U32" s="135" t="s">
+      <c r="U32" s="136" t="s">
         <v>390</v>
       </c>
-      <c r="V32" s="136"/>
-      <c r="W32" s="136"/>
-      <c r="X32" s="136"/>
-      <c r="Y32" s="136"/>
-      <c r="Z32" s="136"/>
-      <c r="AA32" s="136"/>
-      <c r="AB32" s="136"/>
-      <c r="AC32" s="136"/>
-      <c r="AD32" s="136"/>
-      <c r="AE32" s="136"/>
-      <c r="AF32" s="136"/>
-      <c r="AG32" s="136"/>
-      <c r="AH32" s="136"/>
-      <c r="AI32" s="136"/>
-      <c r="AJ32" s="136"/>
-      <c r="AK32" s="136"/>
+      <c r="V32" s="137"/>
+      <c r="W32" s="137"/>
+      <c r="X32" s="137"/>
+      <c r="Y32" s="137"/>
+      <c r="Z32" s="137"/>
+      <c r="AA32" s="137"/>
+      <c r="AB32" s="137"/>
+      <c r="AC32" s="137"/>
+      <c r="AD32" s="137"/>
+      <c r="AE32" s="137"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="137"/>
+      <c r="AH32" s="137"/>
+      <c r="AI32" s="137"/>
+      <c r="AJ32" s="137"/>
+      <c r="AK32" s="137"/>
     </row>
     <row r="33" spans="20:37" x14ac:dyDescent="0.4">
-      <c r="U33" s="136"/>
-      <c r="V33" s="136"/>
-      <c r="W33" s="136"/>
-      <c r="X33" s="136"/>
-      <c r="Y33" s="136"/>
-      <c r="Z33" s="136"/>
-      <c r="AA33" s="136"/>
-      <c r="AB33" s="136"/>
-      <c r="AC33" s="136"/>
-      <c r="AD33" s="136"/>
-      <c r="AE33" s="136"/>
-      <c r="AF33" s="136"/>
-      <c r="AG33" s="136"/>
-      <c r="AH33" s="136"/>
-      <c r="AI33" s="136"/>
-      <c r="AJ33" s="136"/>
-      <c r="AK33" s="136"/>
+      <c r="U33" s="137"/>
+      <c r="V33" s="137"/>
+      <c r="W33" s="137"/>
+      <c r="X33" s="137"/>
+      <c r="Y33" s="137"/>
+      <c r="Z33" s="137"/>
+      <c r="AA33" s="137"/>
+      <c r="AB33" s="137"/>
+      <c r="AC33" s="137"/>
+      <c r="AD33" s="137"/>
+      <c r="AE33" s="137"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="137"/>
+      <c r="AH33" s="137"/>
+      <c r="AI33" s="137"/>
+      <c r="AJ33" s="137"/>
+      <c r="AK33" s="137"/>
     </row>
     <row r="34" spans="20:37" x14ac:dyDescent="0.4">
-      <c r="U34" s="135" t="s">
+      <c r="U34" s="136" t="s">
         <v>391</v>
       </c>
-      <c r="V34" s="136"/>
-      <c r="W34" s="136"/>
-      <c r="X34" s="136"/>
-      <c r="Y34" s="136"/>
-      <c r="Z34" s="136"/>
-      <c r="AA34" s="136"/>
-      <c r="AB34" s="136"/>
-      <c r="AC34" s="136"/>
-      <c r="AD34" s="136"/>
-      <c r="AE34" s="136"/>
-      <c r="AF34" s="136"/>
-      <c r="AG34" s="136"/>
-      <c r="AH34" s="136"/>
-      <c r="AI34" s="136"/>
-      <c r="AJ34" s="136"/>
-      <c r="AK34" s="136"/>
+      <c r="V34" s="137"/>
+      <c r="W34" s="137"/>
+      <c r="X34" s="137"/>
+      <c r="Y34" s="137"/>
+      <c r="Z34" s="137"/>
+      <c r="AA34" s="137"/>
+      <c r="AB34" s="137"/>
+      <c r="AC34" s="137"/>
+      <c r="AD34" s="137"/>
+      <c r="AE34" s="137"/>
+      <c r="AF34" s="137"/>
+      <c r="AG34" s="137"/>
+      <c r="AH34" s="137"/>
+      <c r="AI34" s="137"/>
+      <c r="AJ34" s="137"/>
+      <c r="AK34" s="137"/>
     </row>
     <row r="35" spans="20:37" x14ac:dyDescent="0.4">
-      <c r="U35" s="136"/>
-      <c r="V35" s="136"/>
-      <c r="W35" s="136"/>
-      <c r="X35" s="136"/>
-      <c r="Y35" s="136"/>
-      <c r="Z35" s="136"/>
-      <c r="AA35" s="136"/>
-      <c r="AB35" s="136"/>
-      <c r="AC35" s="136"/>
-      <c r="AD35" s="136"/>
-      <c r="AE35" s="136"/>
-      <c r="AF35" s="136"/>
-      <c r="AG35" s="136"/>
-      <c r="AH35" s="136"/>
-      <c r="AI35" s="136"/>
-      <c r="AJ35" s="136"/>
-      <c r="AK35" s="136"/>
+      <c r="U35" s="137"/>
+      <c r="V35" s="137"/>
+      <c r="W35" s="137"/>
+      <c r="X35" s="137"/>
+      <c r="Y35" s="137"/>
+      <c r="Z35" s="137"/>
+      <c r="AA35" s="137"/>
+      <c r="AB35" s="137"/>
+      <c r="AC35" s="137"/>
+      <c r="AD35" s="137"/>
+      <c r="AE35" s="137"/>
+      <c r="AF35" s="137"/>
+      <c r="AG35" s="137"/>
+      <c r="AH35" s="137"/>
+      <c r="AI35" s="137"/>
+      <c r="AJ35" s="137"/>
+      <c r="AK35" s="137"/>
     </row>
     <row r="36" spans="20:37" x14ac:dyDescent="0.4">
-      <c r="U36" s="135"/>
-      <c r="V36" s="136"/>
-      <c r="W36" s="136"/>
-      <c r="X36" s="136"/>
-      <c r="Y36" s="136"/>
-      <c r="Z36" s="136"/>
-      <c r="AA36" s="136"/>
-      <c r="AB36" s="136"/>
-      <c r="AC36" s="136"/>
-      <c r="AD36" s="136"/>
-      <c r="AE36" s="136"/>
-      <c r="AF36" s="136"/>
-      <c r="AG36" s="136"/>
-      <c r="AH36" s="136"/>
-      <c r="AI36" s="136"/>
-      <c r="AJ36" s="136"/>
-      <c r="AK36" s="136"/>
+      <c r="U36" s="136"/>
+      <c r="V36" s="137"/>
+      <c r="W36" s="137"/>
+      <c r="X36" s="137"/>
+      <c r="Y36" s="137"/>
+      <c r="Z36" s="137"/>
+      <c r="AA36" s="137"/>
+      <c r="AB36" s="137"/>
+      <c r="AC36" s="137"/>
+      <c r="AD36" s="137"/>
+      <c r="AE36" s="137"/>
+      <c r="AF36" s="137"/>
+      <c r="AG36" s="137"/>
+      <c r="AH36" s="137"/>
+      <c r="AI36" s="137"/>
+      <c r="AJ36" s="137"/>
+      <c r="AK36" s="137"/>
     </row>
     <row r="37" spans="20:37" x14ac:dyDescent="0.4">
-      <c r="U37" s="136"/>
-      <c r="V37" s="136"/>
-      <c r="W37" s="136"/>
-      <c r="X37" s="136"/>
-      <c r="Y37" s="136"/>
-      <c r="Z37" s="136"/>
-      <c r="AA37" s="136"/>
-      <c r="AB37" s="136"/>
-      <c r="AC37" s="136"/>
-      <c r="AD37" s="136"/>
-      <c r="AE37" s="136"/>
-      <c r="AF37" s="136"/>
-      <c r="AG37" s="136"/>
-      <c r="AH37" s="136"/>
-      <c r="AI37" s="136"/>
-      <c r="AJ37" s="136"/>
-      <c r="AK37" s="136"/>
+      <c r="U37" s="137"/>
+      <c r="V37" s="137"/>
+      <c r="W37" s="137"/>
+      <c r="X37" s="137"/>
+      <c r="Y37" s="137"/>
+      <c r="Z37" s="137"/>
+      <c r="AA37" s="137"/>
+      <c r="AB37" s="137"/>
+      <c r="AC37" s="137"/>
+      <c r="AD37" s="137"/>
+      <c r="AE37" s="137"/>
+      <c r="AF37" s="137"/>
+      <c r="AG37" s="137"/>
+      <c r="AH37" s="137"/>
+      <c r="AI37" s="137"/>
+      <c r="AJ37" s="137"/>
+      <c r="AK37" s="137"/>
     </row>
     <row r="42" spans="20:37" x14ac:dyDescent="0.4">
-      <c r="AD42" s="134" t="s">
+      <c r="AD42" s="135" t="s">
         <v>421</v>
       </c>
-      <c r="AE42" s="134"/>
-      <c r="AF42" s="134"/>
-      <c r="AG42" s="134"/>
-      <c r="AH42" s="134"/>
-      <c r="AI42" s="134"/>
-      <c r="AJ42" s="134"/>
-      <c r="AK42" s="134"/>
+      <c r="AE42" s="135"/>
+      <c r="AF42" s="135"/>
+      <c r="AG42" s="135"/>
+      <c r="AH42" s="135"/>
+      <c r="AI42" s="135"/>
+      <c r="AJ42" s="135"/>
+      <c r="AK42" s="135"/>
     </row>
     <row r="43" spans="20:37" ht="33" x14ac:dyDescent="0.4">
       <c r="T43" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="AD43" s="134"/>
-      <c r="AE43" s="134"/>
-      <c r="AF43" s="134"/>
-      <c r="AG43" s="134"/>
-      <c r="AH43" s="134"/>
-      <c r="AI43" s="134"/>
-      <c r="AJ43" s="134"/>
-      <c r="AK43" s="134"/>
+      <c r="AD43" s="135"/>
+      <c r="AE43" s="135"/>
+      <c r="AF43" s="135"/>
+      <c r="AG43" s="135"/>
+      <c r="AH43" s="135"/>
+      <c r="AI43" s="135"/>
+      <c r="AJ43" s="135"/>
+      <c r="AK43" s="135"/>
     </row>
     <row r="44" spans="20:37" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="T44" s="34" t="s">
@@ -23076,86 +23169,86 @@
     </row>
     <row r="55" spans="3:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="56" spans="3:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="125" t="s">
+      <c r="C56" s="126" t="s">
         <v>436</v>
       </c>
-      <c r="D56" s="126"/>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="126"/>
-      <c r="H56" s="126"/>
-      <c r="I56" s="126"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="126"/>
-      <c r="L56" s="126"/>
-      <c r="M56" s="126"/>
-      <c r="N56" s="126"/>
-      <c r="O56" s="126"/>
-      <c r="P56" s="127"/>
-      <c r="W56" s="125" t="s">
+      <c r="D56" s="127"/>
+      <c r="E56" s="127"/>
+      <c r="F56" s="127"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="127"/>
+      <c r="M56" s="127"/>
+      <c r="N56" s="127"/>
+      <c r="O56" s="127"/>
+      <c r="P56" s="128"/>
+      <c r="W56" s="126" t="s">
         <v>437</v>
       </c>
-      <c r="X56" s="126"/>
-      <c r="Y56" s="126"/>
-      <c r="Z56" s="126"/>
-      <c r="AA56" s="126"/>
-      <c r="AB56" s="126"/>
-      <c r="AC56" s="126"/>
-      <c r="AD56" s="126"/>
-      <c r="AE56" s="126"/>
-      <c r="AF56" s="127"/>
+      <c r="X56" s="127"/>
+      <c r="Y56" s="127"/>
+      <c r="Z56" s="127"/>
+      <c r="AA56" s="127"/>
+      <c r="AB56" s="127"/>
+      <c r="AC56" s="127"/>
+      <c r="AD56" s="127"/>
+      <c r="AE56" s="127"/>
+      <c r="AF56" s="128"/>
     </row>
     <row r="57" spans="3:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C57" s="128"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="129"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="129"/>
-      <c r="I57" s="129"/>
-      <c r="J57" s="129"/>
-      <c r="K57" s="129"/>
-      <c r="L57" s="129"/>
-      <c r="M57" s="129"/>
-      <c r="N57" s="129"/>
-      <c r="O57" s="129"/>
-      <c r="P57" s="130"/>
-      <c r="W57" s="128"/>
-      <c r="X57" s="129"/>
-      <c r="Y57" s="129"/>
-      <c r="Z57" s="129"/>
-      <c r="AA57" s="129"/>
-      <c r="AB57" s="129"/>
-      <c r="AC57" s="129"/>
-      <c r="AD57" s="129"/>
-      <c r="AE57" s="129"/>
-      <c r="AF57" s="130"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="130"/>
+      <c r="E57" s="130"/>
+      <c r="F57" s="130"/>
+      <c r="G57" s="130"/>
+      <c r="H57" s="130"/>
+      <c r="I57" s="130"/>
+      <c r="J57" s="130"/>
+      <c r="K57" s="130"/>
+      <c r="L57" s="130"/>
+      <c r="M57" s="130"/>
+      <c r="N57" s="130"/>
+      <c r="O57" s="130"/>
+      <c r="P57" s="131"/>
+      <c r="W57" s="129"/>
+      <c r="X57" s="130"/>
+      <c r="Y57" s="130"/>
+      <c r="Z57" s="130"/>
+      <c r="AA57" s="130"/>
+      <c r="AB57" s="130"/>
+      <c r="AC57" s="130"/>
+      <c r="AD57" s="130"/>
+      <c r="AE57" s="130"/>
+      <c r="AF57" s="131"/>
     </row>
     <row r="58" spans="3:32" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="131"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="132"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="132"/>
-      <c r="L58" s="132"/>
-      <c r="M58" s="132"/>
-      <c r="N58" s="132"/>
-      <c r="O58" s="132"/>
-      <c r="P58" s="133"/>
-      <c r="W58" s="131"/>
-      <c r="X58" s="132"/>
-      <c r="Y58" s="132"/>
-      <c r="Z58" s="132"/>
-      <c r="AA58" s="132"/>
-      <c r="AB58" s="132"/>
-      <c r="AC58" s="132"/>
-      <c r="AD58" s="132"/>
-      <c r="AE58" s="132"/>
-      <c r="AF58" s="133"/>
+      <c r="C58" s="132"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="133"/>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+      <c r="J58" s="133"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="133"/>
+      <c r="M58" s="133"/>
+      <c r="N58" s="133"/>
+      <c r="O58" s="133"/>
+      <c r="P58" s="134"/>
+      <c r="W58" s="132"/>
+      <c r="X58" s="133"/>
+      <c r="Y58" s="133"/>
+      <c r="Z58" s="133"/>
+      <c r="AA58" s="133"/>
+      <c r="AB58" s="133"/>
+      <c r="AC58" s="133"/>
+      <c r="AD58" s="133"/>
+      <c r="AE58" s="133"/>
+      <c r="AF58" s="134"/>
     </row>
     <row r="61" spans="3:32" x14ac:dyDescent="0.4">
       <c r="W61" t="s">
@@ -23216,6 +23309,7 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AJ4:AR6"/>
     <mergeCell ref="C56:P58"/>
     <mergeCell ref="AD42:AK43"/>
     <mergeCell ref="U34:AK35"/>
@@ -23225,7 +23319,6 @@
     <mergeCell ref="U30:AK31"/>
     <mergeCell ref="U32:AK33"/>
     <mergeCell ref="W56:AF58"/>
-    <mergeCell ref="AJ4:AR6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24413,20 +24506,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="149" t="s">
         <v>332</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
       <c r="F2" s="72"/>
       <c r="G2" s="72"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="149"/>
+      <c r="E3" s="149"/>
       <c r="F3" s="72" t="s">
         <v>341</v>
       </c>
@@ -24509,13 +24602,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="150" t="s">
         <v>189</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
       <c r="G2" t="s">
         <v>329</v>
       </c>
@@ -24524,11 +24617,11 @@
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B3" s="117"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
       <c r="G3" t="s">
         <v>328</v>
       </c>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDCE0640-FA7C-4271-A53E-8BA4A1F7A839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4489C51-07B5-420E-8B01-48EC1CECF7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="464">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -3808,16 +3808,6 @@
   </si>
   <si>
     <t>Reload</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃力が1.2倍</t>
-    <rPh sb="0" eb="3">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>バイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -20989,7 +20979,7 @@
       </c>
       <c r="W4" s="49"/>
       <c r="X4" s="91" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -21070,9 +21060,7 @@
         <f>V5/10</f>
         <v>36.25</v>
       </c>
-      <c r="X5" s="92" t="s">
-        <v>458</v>
-      </c>
+      <c r="X5" s="92"/>
       <c r="Y5" s="7" t="s">
         <v>101</v>
       </c>
@@ -21156,7 +21144,7 @@
         <v>45.32</v>
       </c>
       <c r="X6" s="92" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Y6" s="42" t="s">
         <v>102</v>
@@ -21321,7 +21309,7 @@
         <v>30.838000000000001</v>
       </c>
       <c r="X8" s="92" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Y8" s="42" t="s">
         <v>112</v>
@@ -21406,7 +21394,7 @@
         <v>26.27</v>
       </c>
       <c r="X9" s="92" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="Y9" s="42" t="s">
         <v>118</v>
@@ -21491,7 +21479,7 @@
         <v>26.919</v>
       </c>
       <c r="X10" s="92" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="Y10" s="42" t="s">
         <v>119</v>
@@ -21574,7 +21562,7 @@
         <v>47.244</v>
       </c>
       <c r="X11" s="92" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="Y11" s="42" t="s">
         <v>117</v>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -1,35 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4489C51-07B5-420E-8B01-48EC1CECF7FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6B5FCB-B611-4DFD-9E22-743504FF9EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="2" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
-    <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId1"/>
-    <sheet name="ゲーム（プログラム）" sheetId="1" r:id="rId2"/>
-    <sheet name="戦車のステータス" sheetId="9" r:id="rId3"/>
-    <sheet name="タイトル&amp;選択&amp;リザルト" sheetId="4" r:id="rId4"/>
-    <sheet name="ポーズ画面" sheetId="12" r:id="rId5"/>
-    <sheet name="ゲーム画面の仕様" sheetId="13" r:id="rId6"/>
-    <sheet name="敵" sheetId="17" r:id="rId7"/>
-    <sheet name="味方AI" sheetId="16" r:id="rId8"/>
-    <sheet name="チュートリアル" sheetId="11" r:id="rId9"/>
-    <sheet name="クラス図" sheetId="6" state="hidden" r:id="rId10"/>
-    <sheet name="操作方法" sheetId="7" r:id="rId11"/>
-    <sheet name="デザイン" sheetId="5" r:id="rId12"/>
-    <sheet name="サウンド" sheetId="10" r:id="rId13"/>
-    <sheet name="作業スケジュール" sheetId="15" r:id="rId14"/>
+    <sheet name="今後の課題" sheetId="18" r:id="rId1"/>
+    <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId2"/>
+    <sheet name="ゲーム（プログラム）" sheetId="1" r:id="rId3"/>
+    <sheet name="戦車のステータス" sheetId="9" r:id="rId4"/>
+    <sheet name="タイトル&amp;選択&amp;リザルト" sheetId="4" r:id="rId5"/>
+    <sheet name="ポーズ画面" sheetId="12" r:id="rId6"/>
+    <sheet name="ゲーム画面の仕様" sheetId="13" r:id="rId7"/>
+    <sheet name="敵" sheetId="17" r:id="rId8"/>
+    <sheet name="味方AI" sheetId="16" r:id="rId9"/>
+    <sheet name="チュートリアル" sheetId="11" r:id="rId10"/>
+    <sheet name="クラス図" sheetId="6" state="hidden" r:id="rId11"/>
+    <sheet name="操作方法" sheetId="7" r:id="rId12"/>
+    <sheet name="デザイン" sheetId="5" r:id="rId13"/>
+    <sheet name="サウンド" sheetId="10" r:id="rId14"/>
+    <sheet name="作業スケジュール" sheetId="15" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">作業スケジュール!$BL$1:$CF$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">作業スケジュール!$BL$1:$CF$61</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -158,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="467">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -3876,6 +3877,33 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵戦車のAI</t>
+    <rPh sb="0" eb="3">
+      <t>テキセンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップをつくる（LOD）⇒地面に凹凸をつける</t>
+    <rPh sb="13" eb="15">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>オウトツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -16570,200 +16598,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E533947-A56E-4A78-8017-BBE8A1928751}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:O19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5574FF25-7E79-486A-87A5-DB6B01CB065F}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:I15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B46575-883B-481C-B347-C52B57709347}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="B2:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="15" max="15" width="36.125" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="98"/>
-      <c r="I2" s="111" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="112"/>
-      <c r="L2" s="112"/>
-      <c r="M2" s="113"/>
-    </row>
-    <row r="3" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="99"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="101"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="116"/>
+      <c r="B2" s="150" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" t="s">
+        <v>329</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" t="s">
+        <v>328</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="I4" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="117" t="s">
-        <v>352</v>
-      </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="105" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="107"/>
-    </row>
-    <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110"/>
-    </row>
-    <row r="15" spans="2:15" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="102" t="s">
-        <v>330</v>
-      </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="102"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="102"/>
-      <c r="M15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="102" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="102"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="E16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.4">
-      <c r="E17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="5:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="5:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H19" s="103" t="s">
-        <v>189</v>
-      </c>
-      <c r="I19" s="104"/>
-      <c r="J19" t="s">
-        <v>211</v>
+      <c r="O4" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="1">
     <mergeCell ref="B2:F3"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B12:H13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="I2:M3"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B7:F8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16772,7 +16691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E595F97-285D-45D1-8FDC-D251DEBEBBCC}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="C1:V35"/>
@@ -16856,7 +16775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D682D3EA-40D3-4F3B-9CCB-CED52C63D011}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="R14:AB28"/>
@@ -16942,7 +16861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A309391-4223-49DB-A8EB-7D621A5E6BA9}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G12"/>
@@ -17128,7 +17047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD86610-6E0A-4791-B49C-97215B1D62A7}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:J13"/>
@@ -17438,7 +17357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8DC02A-2CF9-4EAE-BFDB-9A1C5F221124}">
   <dimension ref="A1:DB60"/>
   <sheetViews>
@@ -20319,6 +20238,209 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E533947-A56E-4A78-8017-BBE8A1928751}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B1:O19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15:I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B2" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="98"/>
+      <c r="I2" s="111" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="113"/>
+    </row>
+    <row r="3" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="101"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="116"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="I4" s="27" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="117" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="107"/>
+    </row>
+    <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="108"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110"/>
+    </row>
+    <row r="15" spans="2:15" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="B15" s="102" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="102"/>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="102"/>
+      <c r="G15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="102"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="102"/>
+      <c r="M15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="102"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.4">
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="5:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H19" s="103" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" s="104"/>
+      <c r="J19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B12:H13"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="I2:M3"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B7:F8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9333299-5564-4C9F-BA84-D4349436EAE5}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:J37"/>
@@ -20810,12 +20932,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64C319C-B3F7-46D4-A76A-A521F6B05E0F}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="X5" sqref="X5"/>
     </sheetView>
   </sheetViews>
@@ -22585,7 +22707,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A92D0F-E9DE-4982-A6B9-91FAB732DBD9}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R58"/>
@@ -22686,7 +22808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12DCD76-5273-4CA2-9E7A-8BC5E74993CF}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:S32"/>
@@ -22796,7 +22918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F840A3-C673-472F-B158-91E7EE049523}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AR66"/>
@@ -23316,7 +23438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FBE3EA-CD5B-4001-B514-A4237CED1ACB}">
   <dimension ref="C6:AA47"/>
   <sheetViews>
@@ -24479,7 +24601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9B6789-F08D-48A9-9501-8547128533AC}">
   <dimension ref="A2:G9"/>
   <sheetViews>
@@ -24572,63 +24694,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B46575-883B-481C-B347-C52B57709347}">
-  <sheetPr codeName="Sheet5"/>
-  <dimension ref="B2:O4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="15" max="15" width="36.125" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="150" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" t="s">
-        <v>329</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" t="s">
-        <v>328</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="O4" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:F3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6B5FCB-B611-4DFD-9E22-743504FF9EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4DBA2C-AC01-4BBC-A69C-8FB71E4320FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
     <sheet name="今後の課題" sheetId="18" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="468">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -3861,16 +3861,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃力が1.3倍</t>
-    <rPh sb="0" eb="3">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>バイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>共通でリロードは1秒でできる</t>
     <rPh sb="0" eb="2">
       <t>キョウツウ</t>
@@ -3904,6 +3894,26 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力が1.2倍</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力が2倍</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>バイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -16601,7 +16611,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5574FF25-7E79-486A-87A5-DB6B01CB065F}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -16612,17 +16622,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -20242,7 +20252,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="H15" sqref="H15:I15"/>
     </sheetView>
   </sheetViews>
@@ -20937,8 +20947,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:Z46"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -21101,7 +21111,7 @@
       </c>
       <c r="W4" s="49"/>
       <c r="X4" s="91" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -21182,7 +21192,9 @@
         <f>V5/10</f>
         <v>36.25</v>
       </c>
-      <c r="X5" s="92"/>
+      <c r="X5" s="92" t="s">
+        <v>466</v>
+      </c>
       <c r="Y5" s="7" t="s">
         <v>101</v>
       </c>
@@ -21601,7 +21613,7 @@
         <v>26.919</v>
       </c>
       <c r="X10" s="92" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="Y10" s="42" t="s">
         <v>119</v>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4DBA2C-AC01-4BBC-A69C-8FB71E4320FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2634535-8EF1-43F0-9007-DC0891AD395D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
     <sheet name="今後の課題" sheetId="18" r:id="rId1"/>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="471">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -2721,10 +2721,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ロード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ロード時にマルチスレッド</t>
     <rPh sb="3" eb="4">
       <t>ジ</t>
@@ -2931,17 +2927,6 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>空間分割</t>
-    <rPh sb="0" eb="4">
-      <t>クウカンブンカツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3914,6 +3899,48 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームの完成度</t>
+    <rPh sb="4" eb="7">
+      <t>カンセイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面白いシステムを考える</t>
+    <rPh sb="0" eb="2">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>STLやデザインパターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>描画負荷対策</t>
+    <rPh sb="0" eb="4">
+      <t>ビョウガフカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LODや視錐台カリング</t>
+    <rPh sb="4" eb="7">
+      <t>シスイダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5294,16 +5321,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>446484</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>470296</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>17859</xdr:rowOff>
+      <xdr:rowOff>22622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>246507</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>270319</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:rowOff>202407</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5318,8 +5345,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5238750" y="3821906"/>
-          <a:ext cx="484632" cy="636985"/>
+          <a:off x="3893343" y="3826669"/>
+          <a:ext cx="484632" cy="656035"/>
         </a:xfrm>
         <a:prstGeom prst="upDownArrow">
           <a:avLst/>
@@ -5354,16 +5381,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22645</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>31598</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2359</xdr:rowOff>
+      <xdr:rowOff>35078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>659630</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>668583</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>40507</xdr:rowOff>
+      <xdr:rowOff>35126</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5378,8 +5405,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="6260306" y="3283745"/>
-          <a:ext cx="484632" cy="636985"/>
+          <a:off x="4919091" y="3297414"/>
+          <a:ext cx="446532" cy="636985"/>
         </a:xfrm>
         <a:prstGeom prst="upDownArrow">
           <a:avLst/>
@@ -16622,17 +16649,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
   </sheetData>
@@ -16798,10 +16825,10 @@
   <sheetData>
     <row r="14" spans="18:19" x14ac:dyDescent="0.4">
       <c r="R14" s="94" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="S14" s="94" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="26:28" x14ac:dyDescent="0.4">
@@ -16857,10 +16884,10 @@
     </row>
     <row r="28" spans="26:28" x14ac:dyDescent="0.4">
       <c r="Z28" s="94" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AA28" s="94" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -16992,7 +17019,7 @@
         <v>107</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -17283,13 +17310,13 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>350</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>351</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -17305,13 +17332,13 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -17319,43 +17346,43 @@
         <v>327</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="19" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -18016,7 +18043,7 @@
     </row>
     <row r="3" spans="1:106" ht="18.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A3" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>310</v>
@@ -18064,7 +18091,7 @@
     </row>
     <row r="4" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A4" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="54" t="s">
         <v>20</v>
@@ -18101,7 +18128,7 @@
     </row>
     <row r="5" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>20</v>
@@ -18136,7 +18163,7 @@
     </row>
     <row r="6" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A6" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>20</v>
@@ -18172,7 +18199,7 @@
     </row>
     <row r="7" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>282</v>
@@ -18207,7 +18234,7 @@
     </row>
     <row r="8" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A8" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B8" s="54" t="s">
         <v>20</v>
@@ -18244,13 +18271,13 @@
     </row>
     <row r="9" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A9" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D9" s="57">
         <v>44416</v>
@@ -18281,7 +18308,7 @@
     </row>
     <row r="10" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A10" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B10" s="55" t="s">
         <v>310</v>
@@ -18318,7 +18345,7 @@
     </row>
     <row r="11" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A11" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B11" s="54" t="s">
         <v>20</v>
@@ -18355,7 +18382,7 @@
     </row>
     <row r="12" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A12" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B12" s="54" t="s">
         <v>311</v>
@@ -18394,13 +18421,13 @@
     </row>
     <row r="13" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A13" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B13" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D13" s="57">
         <v>44421</v>
@@ -18432,7 +18459,7 @@
     </row>
     <row r="14" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A14" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>20</v>
@@ -18468,13 +18495,13 @@
     </row>
     <row r="15" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A15" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B15" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D15" s="57">
         <v>44421</v>
@@ -18501,7 +18528,7 @@
     </row>
     <row r="16" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A16" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B16" s="54" t="s">
         <v>20</v>
@@ -18536,7 +18563,7 @@
     </row>
     <row r="17" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A17" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>20</v>
@@ -18569,13 +18596,13 @@
     </row>
     <row r="18" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A18" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B18" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D18" s="57">
         <v>44421</v>
@@ -18602,13 +18629,13 @@
     </row>
     <row r="19" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A19" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B19" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D19" s="57">
         <v>44422</v>
@@ -18633,13 +18660,13 @@
     </row>
     <row r="20" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A20" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B20" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D20" s="57">
         <v>44422</v>
@@ -18665,7 +18692,7 @@
     </row>
     <row r="21" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A21" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B21" s="55" t="s">
         <v>20</v>
@@ -18699,7 +18726,7 @@
     </row>
     <row r="22" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A22" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>311</v>
@@ -18734,7 +18761,7 @@
     </row>
     <row r="23" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A23" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>310</v>
@@ -18771,7 +18798,7 @@
     </row>
     <row r="24" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A24" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>20</v>
@@ -18808,13 +18835,13 @@
     </row>
     <row r="25" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A25" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B25" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D25" s="57">
         <v>44424</v>
@@ -18846,13 +18873,13 @@
     </row>
     <row r="26" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A26" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B26" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D26" s="57">
         <v>44424</v>
@@ -18882,13 +18909,13 @@
     </row>
     <row r="27" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A27" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B27" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D27" s="57">
         <v>44424</v>
@@ -18916,13 +18943,13 @@
     </row>
     <row r="28" spans="1:27" ht="18.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A28" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B28" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D28" s="57">
         <v>44424</v>
@@ -18949,13 +18976,13 @@
     </row>
     <row r="29" spans="1:27" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A29" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B29" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D29" s="57">
         <v>44424</v>
@@ -18982,13 +19009,13 @@
     </row>
     <row r="30" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A30" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B30" s="55" t="s">
         <v>311</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D30" s="57">
         <v>44425</v>
@@ -19020,13 +19047,13 @@
     </row>
     <row r="31" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A31" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B31" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D31" s="57">
         <v>44426</v>
@@ -19057,13 +19084,13 @@
     </row>
     <row r="32" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A32" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B32" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D32" s="57">
         <v>44427</v>
@@ -19094,13 +19121,13 @@
     </row>
     <row r="33" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A33" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B33" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="40" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D33" s="57">
         <v>44426</v>
@@ -19133,13 +19160,13 @@
     </row>
     <row r="34" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A34" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B34" s="55" t="s">
         <v>311</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D34" s="57">
         <v>44430</v>
@@ -19169,13 +19196,13 @@
     </row>
     <row r="35" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A35" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B35" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D35" s="57">
         <v>44427</v>
@@ -19207,13 +19234,13 @@
     </row>
     <row r="36" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A36" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B36" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D36" s="57">
         <v>44428</v>
@@ -19247,13 +19274,13 @@
     </row>
     <row r="37" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A37" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B37" s="55" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="36" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D37" s="57">
         <v>44440</v>
@@ -19284,13 +19311,13 @@
     </row>
     <row r="38" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A38" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B38" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D38" s="57">
         <v>44422</v>
@@ -19323,13 +19350,13 @@
     </row>
     <row r="39" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A39" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B39" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D39" s="57">
         <v>44429</v>
@@ -19357,13 +19384,13 @@
     </row>
     <row r="40" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A40" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B40" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D40" s="57">
         <v>44431</v>
@@ -19392,13 +19419,13 @@
     </row>
     <row r="41" spans="1:52" s="40" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A41" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B41" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D41" s="57">
         <v>44428</v>
@@ -19430,13 +19457,13 @@
     </row>
     <row r="42" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A42" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B42" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D42" s="57">
         <v>44438</v>
@@ -19474,13 +19501,13 @@
     </row>
     <row r="43" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A43" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B43" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="40" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D43" s="57">
         <v>44439</v>
@@ -19512,13 +19539,13 @@
     </row>
     <row r="44" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A44" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D44" s="57">
         <v>44438</v>
@@ -19551,13 +19578,13 @@
     </row>
     <row r="45" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A45" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B45" s="55" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D45" s="57">
         <v>44438</v>
@@ -19594,13 +19621,13 @@
     </row>
     <row r="46" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A46" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B46" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D46" s="57">
         <v>44441</v>
@@ -19636,13 +19663,13 @@
     </row>
     <row r="47" spans="1:52" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A47" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B47" s="55" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D47" s="57">
         <v>44440</v>
@@ -19675,13 +19702,13 @@
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A48" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B48" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D48" s="57">
         <v>44441</v>
@@ -19729,13 +19756,13 @@
     </row>
     <row r="49" spans="1:94" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B49" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D49" s="57">
         <v>44442</v>
@@ -19785,13 +19812,13 @@
     </row>
     <row r="50" spans="1:94" s="40" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B50" s="55" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D50" s="57">
         <v>44444</v>
@@ -19812,13 +19839,13 @@
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.4">
       <c r="A51" s="74" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B51" s="55" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C51" s="36" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D51" s="57">
         <v>44444</v>
@@ -19858,7 +19885,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D52" s="57">
         <v>44441</v>
@@ -19931,7 +19958,7 @@
         <v>21</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D54" s="57">
         <v>44443</v>
@@ -19999,7 +20026,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D56" s="57">
         <v>44445</v>
@@ -20033,7 +20060,7 @@
         <v>20</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D57" s="57">
         <v>44469</v>
@@ -20099,7 +20126,7 @@
         <v>20</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D58" s="57">
         <v>44469</v>
@@ -20163,7 +20190,7 @@
         <v>20</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D59" s="57">
         <v>44469</v>
@@ -20212,7 +20239,7 @@
         <v>20</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D60" s="57">
         <v>44490</v>
@@ -20250,16 +20277,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E533947-A56E-4A78-8017-BBE8A1928751}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:O19"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:I15"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B2" s="96" t="s">
         <v>42</v>
       </c>
@@ -20275,7 +20302,7 @@
       <c r="L2" s="112"/>
       <c r="M2" s="113"/>
     </row>
-    <row r="3" spans="2:15" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="99"/>
       <c r="C3" s="100"/>
       <c r="D3" s="100"/>
@@ -20287,12 +20314,12 @@
       <c r="L3" s="115"/>
       <c r="M3" s="116"/>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
       <c r="I4" s="27" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
@@ -20307,7 +20334,7 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -20320,9 +20347,9 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B7" s="117" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C7" s="118"/>
       <c r="D7" s="118"/>
@@ -20335,7 +20362,7 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B8" s="118"/>
       <c r="C8" s="118"/>
       <c r="D8" s="118"/>
@@ -20348,17 +20375,31 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+        <v>465</v>
+      </c>
+      <c r="D9" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>467</v>
+      </c>
+      <c r="D10" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>469</v>
+      </c>
+      <c r="D11" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="105" t="s">
         <v>24</v>
       </c>
@@ -20369,7 +20410,7 @@
       <c r="G12" s="106"/>
       <c r="H12" s="107"/>
     </row>
-    <row r="13" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="108"/>
       <c r="C13" s="109"/>
       <c r="D13" s="109"/>
@@ -20378,69 +20419,62 @@
       <c r="G13" s="109"/>
       <c r="H13" s="110"/>
     </row>
-    <row r="15" spans="2:15" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="102" t="s">
-        <v>330</v>
-      </c>
-      <c r="C15" s="102"/>
-      <c r="D15" s="5" t="s">
+    <row r="15" spans="2:13" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="B15" s="5"/>
+      <c r="C15" s="102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="102"/>
+      <c r="E15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="5" t="s">
+      <c r="F15" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="102"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="102" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="102"/>
+      <c r="K15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="102"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="102" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="102"/>
-      <c r="M15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N15" s="102" t="s">
+      <c r="L15" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="102"/>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="E16" t="s">
+      <c r="M15" s="102"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.4">
-      <c r="E17" t="s">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="5:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="5:10" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H19" s="103" t="s">
+    <row r="18" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="3:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F19" s="103" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="104"/>
-      <c r="J19" t="s">
+      <c r="G19" s="104"/>
+      <c r="H19" t="s">
         <v>211</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="B2:F3"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F19:G19"/>
     <mergeCell ref="B12:H13"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C15:D15"/>
     <mergeCell ref="I2:M3"/>
-    <mergeCell ref="B15:C15"/>
     <mergeCell ref="B7:F8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -20490,13 +20524,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B2" s="4">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>20</v>
@@ -20507,13 +20541,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>17</v>
@@ -20524,7 +20558,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B4" s="4">
         <v>4</v>
@@ -20554,7 +20588,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="120" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B7" s="121"/>
       <c r="C7" s="122"/>
@@ -20760,7 +20794,7 @@
         <v>48</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
@@ -20947,7 +20981,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:Z46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
@@ -20997,7 +21031,7 @@
         <v>296</v>
       </c>
       <c r="X2" s="90" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.4">
@@ -21077,7 +21111,7 @@
         <v>123</v>
       </c>
       <c r="L4" s="49" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M4" s="46" t="s">
         <v>124</v>
@@ -21111,7 +21145,7 @@
       </c>
       <c r="W4" s="49"/>
       <c r="X4" s="91" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -21193,7 +21227,7 @@
         <v>36.25</v>
       </c>
       <c r="X5" s="92" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="Y5" s="7" t="s">
         <v>101</v>
@@ -21278,7 +21312,7 @@
         <v>45.32</v>
       </c>
       <c r="X6" s="92" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="Y6" s="42" t="s">
         <v>102</v>
@@ -21443,7 +21477,7 @@
         <v>30.838000000000001</v>
       </c>
       <c r="X8" s="92" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Y8" s="42" t="s">
         <v>112</v>
@@ -21451,7 +21485,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>113</v>
@@ -21528,7 +21562,7 @@
         <v>26.27</v>
       </c>
       <c r="X9" s="92" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Y9" s="42" t="s">
         <v>118</v>
@@ -21536,7 +21570,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>114</v>
@@ -21613,7 +21647,7 @@
         <v>26.919</v>
       </c>
       <c r="X10" s="92" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Y10" s="42" t="s">
         <v>119</v>
@@ -21696,7 +21730,7 @@
         <v>47.244</v>
       </c>
       <c r="X11" s="92" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="Y11" s="42" t="s">
         <v>117</v>
@@ -22589,13 +22623,13 @@
     </row>
     <row r="25" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="70" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B25" s="70" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D25" s="88" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E25" s="88"/>
       <c r="F25" s="88"/>
@@ -22610,10 +22644,10 @@
     </row>
     <row r="26" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="70" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D26" s="124" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E26" s="124"/>
       <c r="F26" s="124"/>
@@ -22628,37 +22662,37 @@
     </row>
     <row r="27" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="X27" s="93"/>
     </row>
     <row r="28" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="X28" s="93"/>
     </row>
     <row r="29" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="X29" s="93"/>
     </row>
     <row r="30" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="87" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="X30" s="93"/>
     </row>
     <row r="31" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="X31" s="93"/>
     </row>
     <row r="32" spans="1:25" s="70" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="87" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="X32" s="93"/>
     </row>
@@ -22763,7 +22797,7 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="44.25" x14ac:dyDescent="0.4">
@@ -22959,7 +22993,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="AJ4" s="126" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="AK4" s="127"/>
       <c r="AL4" s="127"/>
@@ -22997,20 +23031,20 @@
         <v>307</v>
       </c>
       <c r="AJ8" s="95" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:44" ht="39.75" x14ac:dyDescent="0.4">
       <c r="U9" s="50" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="AJ9" s="95" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10" spans="1:44" ht="39.75" x14ac:dyDescent="0.4">
       <c r="U10" s="50" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="21:37" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -23020,7 +23054,7 @@
     </row>
     <row r="18" spans="21:37" ht="42.75" x14ac:dyDescent="0.4">
       <c r="U18" s="76" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="21:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -23060,7 +23094,7 @@
     </row>
     <row r="28" spans="21:37" x14ac:dyDescent="0.4">
       <c r="U28" s="147" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="V28" s="148"/>
       <c r="W28" s="148"/>
@@ -23100,7 +23134,7 @@
     </row>
     <row r="30" spans="21:37" x14ac:dyDescent="0.4">
       <c r="U30" s="136" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="V30" s="137"/>
       <c r="W30" s="137"/>
@@ -23140,7 +23174,7 @@
     </row>
     <row r="32" spans="21:37" x14ac:dyDescent="0.4">
       <c r="U32" s="136" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="V32" s="137"/>
       <c r="W32" s="137"/>
@@ -23180,7 +23214,7 @@
     </row>
     <row r="34" spans="20:37" x14ac:dyDescent="0.4">
       <c r="U34" s="136" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="V34" s="137"/>
       <c r="W34" s="137"/>
@@ -23258,7 +23292,7 @@
     </row>
     <row r="42" spans="20:37" x14ac:dyDescent="0.4">
       <c r="AD42" s="135" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AE42" s="135"/>
       <c r="AF42" s="135"/>
@@ -23286,13 +23320,13 @@
         <v>261</v>
       </c>
       <c r="AE44" s="76" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="55" spans="3:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="56" spans="3:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C56" s="126" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D56" s="127"/>
       <c r="E56" s="127"/>
@@ -23308,7 +23342,7 @@
       <c r="O56" s="127"/>
       <c r="P56" s="128"/>
       <c r="W56" s="126" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="X56" s="127"/>
       <c r="Y56" s="127"/>
@@ -23374,59 +23408,59 @@
     </row>
     <row r="61" spans="3:32" x14ac:dyDescent="0.4">
       <c r="W61" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="3:32" x14ac:dyDescent="0.4">
       <c r="S62" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="T62" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="W62" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="3:32" x14ac:dyDescent="0.4">
       <c r="S63" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="T63" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="W63" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="3:32" x14ac:dyDescent="0.4">
       <c r="S64" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="T64" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="W64" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="X64" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S65" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="T65" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S66" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="T66" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -24629,7 +24663,7 @@
   <sheetData>
     <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="149" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C2" s="149"/>
       <c r="D2" s="149"/>
@@ -24643,13 +24677,13 @@
       <c r="D3" s="149"/>
       <c r="E3" s="149"/>
       <c r="F3" s="72" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G3" s="72"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -24657,10 +24691,10 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D6" s="70" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -24668,10 +24702,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D7" s="70" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -24679,11 +24713,11 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C8" s="70"/>
       <c r="D8" s="70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -24691,10 +24725,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D9" s="70" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E4C453-9C1A-474B-9612-B163CB980235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F13C29B-EFB3-4F7D-BD5B-D4DEFB29064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="8" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="13" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
-    <sheet name="今後の課題" sheetId="18" r:id="rId1"/>
-    <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId2"/>
-    <sheet name="ゲーム（プログラム）" sheetId="1" r:id="rId3"/>
-    <sheet name="戦車のステータス" sheetId="9" r:id="rId4"/>
-    <sheet name="タイトル&amp;選択&amp;リザルト" sheetId="4" r:id="rId5"/>
-    <sheet name="ポーズ画面" sheetId="12" r:id="rId6"/>
-    <sheet name="ゲーム画面の仕様" sheetId="13" r:id="rId7"/>
+    <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId1"/>
+    <sheet name="ゲーム（プログラム）" sheetId="1" r:id="rId2"/>
+    <sheet name="戦車のステータス" sheetId="9" r:id="rId3"/>
+    <sheet name="タイトル&amp;選択&amp;リザルト" sheetId="4" r:id="rId4"/>
+    <sheet name="ポーズ画面" sheetId="12" r:id="rId5"/>
+    <sheet name="ゲーム画面の仕様" sheetId="13" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId7"/>
     <sheet name="敵" sheetId="17" r:id="rId8"/>
     <sheet name="チュートリアル" sheetId="11" r:id="rId9"/>
     <sheet name="クラス図" sheetId="6" state="hidden" r:id="rId10"/>
@@ -55,7 +55,7 @@
     <author>tc={9F564455-3C72-411C-BD3C-A1431551859E}</author>
   </authors>
   <commentList>
-    <comment ref="A17" authorId="0" shapeId="0" xr:uid="{9F564455-3C72-411C-BD3C-A1431551859E}">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{9F564455-3C72-411C-BD3C-A1431551859E}">
       <text>
         <t>[スレッド化されたコメント]
 使用している Excel のバージョンでは、このスレッド化されたコメントを表示できますが、新しいバージョンの Excel でファイルを開いた場合はコメントに対する編集がすべて削除されます。詳細: https://go.microsoft.com/fwlink/?linkid=870924
@@ -158,7 +158,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="458">
   <si>
     <t>視錐台カリング</t>
     <rPh sb="0" eb="1">
@@ -806,35 +806,6 @@
     <t>2.プレイヤーを探す</t>
     <rPh sb="8" eb="9">
       <t>サガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>11時、13時の角度、30度</t>
-    <rPh sb="2" eb="3">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクド</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前ベクトルを30度回転</t>
-    <rPh sb="0" eb="1">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カイテン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3451,10 +3422,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>マップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ミニマップ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3710,33 +3677,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵戦車のAI</t>
-    <rPh sb="0" eb="3">
-      <t>テキセンシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップをつくる（LOD）⇒地面に凹凸をつける</t>
-    <rPh sb="13" eb="15">
-      <t>ジメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>オウトツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>当たり判定</t>
-    <rPh sb="0" eb="1">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃力が1.2倍</t>
     <rPh sb="0" eb="3">
       <t>コウゲキリョク</t>
@@ -3842,6 +3782,20 @@
     <rPh sb="17" eb="19">
       <t>キョウツウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームマップ（オブジェクトの配置図）</t>
+    <rPh sb="14" eb="16">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPゲージ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4040,15 +3994,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="48"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
@@ -4098,8 +4043,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4162,6 +4115,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4581,7 +4540,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4615,8 +4574,11 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4893,8 +4855,35 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="1" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4986,118 +4975,49 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5124,8 +5044,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="12">
     <cellStyle name="20% - アクセント 2" xfId="2" builtinId="34"/>
     <cellStyle name="20% - アクセント 3" xfId="10" builtinId="38"/>
     <cellStyle name="20% - アクセント 5" xfId="5" builtinId="46"/>
@@ -5133,21 +5071,13 @@
     <cellStyle name="40% - アクセント 5" xfId="6" builtinId="47"/>
     <cellStyle name="パーセント" xfId="3" builtinId="5"/>
     <cellStyle name="悪い" xfId="4" builtinId="27"/>
+    <cellStyle name="桁区切り" xfId="11" builtinId="6"/>
     <cellStyle name="作業" xfId="9" xr:uid="{A37904A0-D199-4676-8EC5-F1E51ABC3E54}"/>
     <cellStyle name="終了日" xfId="8" xr:uid="{DAF5BFF3-2BEE-4582-8ADE-E059365814A8}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="予定" xfId="7" xr:uid="{F50910B9-FE2C-4E6F-B2E3-BEDFA886AE69}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8119,8 +8049,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>19646</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>920191</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8428,7 +8358,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1"/>
-            <a:t>殲滅ゲージ</a:t>
+            <a:t>戦力ゲージ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -8820,8 +8750,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1741714" y="17145000"/>
-          <a:ext cx="908957" cy="897164"/>
+          <a:off x="1766455" y="17179636"/>
+          <a:ext cx="921327" cy="898814"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -8880,8 +8810,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9848850" y="17602200"/>
-          <a:ext cx="914400" cy="914400"/>
+          <a:off x="9945832" y="17255836"/>
+          <a:ext cx="921327" cy="893619"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -10122,6 +10052,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>363681</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4050D8F4-5274-4A56-845B-7052A1CC7B2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10061863" y="15343909"/>
+          <a:ext cx="4208319" cy="727364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400"/>
+            <a:t>ゲームを作りながら考える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -13290,8 +13283,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16861971" y="2079451"/>
-          <a:ext cx="5620378" cy="2222049"/>
+          <a:off x="17028226" y="2114087"/>
+          <a:ext cx="5675796" cy="2265345"/>
           <a:chOff x="1185704" y="2481942"/>
           <a:chExt cx="5576836" cy="2290084"/>
         </a:xfrm>
@@ -16584,6 +16577,68 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>214161</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>426033</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>64882</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="十字形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD981A13-B437-4133-B230-E024BC13D2F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2782821">
+          <a:off x="4345445" y="1351930"/>
+          <a:ext cx="6496577" cy="6446417"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 35203"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16890,7 +16945,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A17" dT="2021-08-03T14:16:24.08" personId="{18D29A4B-27EE-402D-B054-99034510212C}" id="{9F564455-3C72-411C-BD3C-A1431551859E}">
+  <threadedComment ref="A16" dT="2021-08-03T14:16:24.08" personId="{18D29A4B-27EE-402D-B054-99034510212C}" id="{9F564455-3C72-411C-BD3C-A1431551859E}">
     <text>オレンジは完成済み</text>
   </threadedComment>
 </ThreadedComments>
@@ -16944,37 +16999,212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5574FF25-7E79-486A-87A5-DB6B01CB065F}">
-  <dimension ref="A1:A3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E533947-A56E-4A78-8017-BBE8A1928751}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="13.25" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B2" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="104"/>
+      <c r="I2" s="117" t="s">
+        <v>216</v>
+      </c>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="119"/>
+    </row>
+    <row r="3" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="105"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="107"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="121"/>
+      <c r="L3" s="121"/>
+      <c r="M3" s="122"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="I4" s="27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B7" s="123" t="s">
+        <v>338</v>
+      </c>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B8" s="124"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="124"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="D10" t="s">
         <v>449</v>
       </c>
     </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>450</v>
+      </c>
+      <c r="D11" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="113"/>
+    </row>
+    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="116"/>
+    </row>
+    <row r="15" spans="2:13" ht="35.25" x14ac:dyDescent="0.4">
+      <c r="B15" s="5"/>
+      <c r="C15" s="108" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="108"/>
+      <c r="E15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="108"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="108"/>
+      <c r="K15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" s="108"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="3:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F19" s="109" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" s="110"/>
+      <c r="H19" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B12:H13"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="I2:M3"/>
+    <mergeCell ref="B7:F8"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16995,58 +17225,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="157" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="O1" s="146" t="s">
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="O1" s="157" t="s">
         <v>64</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="146"/>
-      <c r="S1" s="146"/>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
     </row>
     <row r="2" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="146"/>
-      <c r="Q2" s="146"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="146"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
     </row>
     <row r="33" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="S33" s="115"/>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115"/>
-      <c r="V33" s="115"/>
+      <c r="S33" s="124"/>
+      <c r="T33" s="124"/>
+      <c r="U33" s="124"/>
+      <c r="V33" s="124"/>
     </row>
     <row r="34" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C34" s="146" t="s">
+      <c r="C34" s="157" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="146"/>
-      <c r="E34" s="146"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="146"/>
-      <c r="S34" s="115"/>
-      <c r="T34" s="115"/>
-      <c r="U34" s="115"/>
-      <c r="V34" s="115"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="S34" s="124"/>
+      <c r="T34" s="124"/>
+      <c r="U34" s="124"/>
+      <c r="V34" s="124"/>
     </row>
     <row r="35" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="146"/>
-      <c r="F35" s="146"/>
-      <c r="G35" s="146"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -17067,77 +17297,77 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="R14:AB28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="14" spans="18:19" x14ac:dyDescent="0.4">
       <c r="R14" s="91" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="S14" s="91" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="26:28" x14ac:dyDescent="0.4">
       <c r="Z22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AA22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="26:28" x14ac:dyDescent="0.4">
       <c r="Z23" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AA23" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AB23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" spans="26:28" x14ac:dyDescent="0.4">
       <c r="Z24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AA24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="26:28" x14ac:dyDescent="0.4">
       <c r="Z25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AA25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="26:28" x14ac:dyDescent="0.4">
       <c r="Z26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AA26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="26:28" x14ac:dyDescent="0.4">
       <c r="Z27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AA27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="26:28" x14ac:dyDescent="0.4">
       <c r="Z28" s="91" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AA28" s="91" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -17153,7 +17383,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -17171,43 +17401,43 @@
   <sheetData>
     <row r="1" spans="1:7" s="57" customFormat="1" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="58" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E1" s="57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="56" t="s">
         <v>317</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>319</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -17216,45 +17446,45 @@
         <v>72</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D3" s="62"/>
       <c r="E3" s="56" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" s="56" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D4" s="62"/>
       <c r="E4" s="56" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F4" s="56" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>70</v>
@@ -17263,22 +17493,22 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="56" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -17286,39 +17516,39 @@
         <v>71</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="61" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -17340,7 +17570,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17358,35 +17588,35 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:10" s="29" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I2" s="28" t="s">
         <v>8</v>
@@ -17394,245 +17624,245 @@
     </row>
     <row r="3" spans="1:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I4" s="33" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H6" s="19" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>337</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>339</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="19" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="19" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>348</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>350</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="C13" s="19" t="s">
         <v>349</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>351</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -17648,8 +17878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8DC02A-2CF9-4EAE-BFDB-9A1C5F221124}">
   <dimension ref="A1:DB60"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -17667,14 +17897,14 @@
   <sheetData>
     <row r="1" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A1" s="70"/>
-      <c r="B1" s="147" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="149"/>
+      <c r="B1" s="158" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="160"/>
       <c r="H1" s="42">
         <v>44413</v>
       </c>
@@ -17976,330 +18206,330 @@
     <row r="2" spans="1:106" x14ac:dyDescent="0.4">
       <c r="A2" s="64"/>
       <c r="B2" s="64" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="65" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="D2" s="43" t="s">
+      <c r="H2" s="41" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="41" t="s">
+        <v>268</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="41" t="s">
+        <v>271</v>
+      </c>
+      <c r="N2" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="F2" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="G2" s="65" t="s">
+      <c r="O2" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="P2" s="41" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q2" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="R2" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="S2" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="T2" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="L2" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="M2" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="N2" s="41" t="s">
-        <v>266</v>
-      </c>
-      <c r="O2" s="41" t="s">
+      <c r="U2" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="V2" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="W2" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="X2" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y2" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="Q2" s="41" t="s">
+      <c r="Z2" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="AA2" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="S2" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="T2" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="U2" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="V2" s="76" t="s">
+      <c r="AB2" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC2" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD2" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="W2" s="76" t="s">
+      <c r="AE2" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF2" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="X2" s="76" t="s">
+      <c r="AG2" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="Y2" s="76" t="s">
+      <c r="AH2" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="Z2" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA2" s="76" t="s">
-        <v>273</v>
-      </c>
-      <c r="AB2" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="AC2" s="76" t="s">
+      <c r="AI2" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="AJ2" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="AK2" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="AD2" s="76" t="s">
+      <c r="AL2" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="AM2" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="AE2" s="76" t="s">
+      <c r="AN2" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="AF2" s="76" t="s">
+      <c r="AO2" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="AG2" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="AH2" s="76" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI2" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ2" s="76" t="s">
+      <c r="AP2" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="AQ2" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="AR2" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="AK2" s="76" t="s">
+      <c r="AS2" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="AT2" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="AL2" s="76" t="s">
+      <c r="AU2" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="AM2" s="76" t="s">
+      <c r="AV2" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="AN2" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="AO2" s="76" t="s">
-        <v>273</v>
-      </c>
-      <c r="AP2" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="AQ2" s="76" t="s">
+      <c r="AW2" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="AX2" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="AY2" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="AR2" s="76" t="s">
+      <c r="AZ2" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="BA2" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="AS2" s="76" t="s">
+      <c r="BB2" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="AT2" s="76" t="s">
+      <c r="BC2" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="AU2" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="AV2" s="76" t="s">
-        <v>273</v>
-      </c>
-      <c r="AW2" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="AX2" s="76" t="s">
+      <c r="BD2" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="BE2" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="BF2" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="AY2" s="76" t="s">
+      <c r="BG2" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="BH2" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="AZ2" s="76" t="s">
+      <c r="BI2" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="BA2" s="76" t="s">
+      <c r="BJ2" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="BB2" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="BC2" s="76" t="s">
-        <v>273</v>
-      </c>
-      <c r="BD2" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="BE2" s="76" t="s">
+      <c r="BK2" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="BL2" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="BM2" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="BF2" s="76" t="s">
+      <c r="BN2" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="BO2" s="76" t="s">
         <v>269</v>
       </c>
-      <c r="BG2" s="76" t="s">
+      <c r="BP2" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="BH2" s="76" t="s">
+      <c r="BQ2" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="BI2" s="76" t="s">
-        <v>272</v>
-      </c>
-      <c r="BJ2" s="76" t="s">
-        <v>273</v>
-      </c>
-      <c r="BK2" s="76" t="s">
-        <v>266</v>
-      </c>
-      <c r="BL2" s="76" t="s">
+      <c r="BR2" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="BS2" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="BT2" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="BM2" s="76" t="s">
+      <c r="BU2" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="BV2" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="BN2" s="76" t="s">
+      <c r="BW2" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="BO2" s="76" t="s">
+      <c r="BX2" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="BP2" s="86" t="s">
-        <v>272</v>
-      </c>
-      <c r="BQ2" s="86" t="s">
-        <v>273</v>
-      </c>
-      <c r="BR2" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="BS2" s="86" t="s">
+      <c r="BY2" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="BZ2" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="CA2" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="BT2" s="86" t="s">
+      <c r="CB2" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC2" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="BU2" s="86" t="s">
+      <c r="CD2" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="BV2" s="86" t="s">
+      <c r="CE2" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="BW2" s="86" t="s">
-        <v>272</v>
-      </c>
-      <c r="BX2" s="86" t="s">
-        <v>273</v>
-      </c>
-      <c r="BY2" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="BZ2" s="86" t="s">
+      <c r="CF2" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="CG2" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="CH2" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="CA2" s="86" t="s">
+      <c r="CI2" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="CJ2" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="CB2" s="86" t="s">
+      <c r="CK2" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="CC2" s="86" t="s">
+      <c r="CL2" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="CD2" s="86" t="s">
-        <v>272</v>
-      </c>
-      <c r="CE2" s="86" t="s">
-        <v>273</v>
-      </c>
-      <c r="CF2" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="CG2" s="86" t="s">
+      <c r="CM2" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="CN2" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="CO2" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="CH2" s="86" t="s">
+      <c r="CP2" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="CQ2" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="CI2" s="86" t="s">
+      <c r="CR2" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="CJ2" s="86" t="s">
+      <c r="CS2" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="CK2" s="86" t="s">
-        <v>272</v>
-      </c>
-      <c r="CL2" s="86" t="s">
-        <v>273</v>
-      </c>
-      <c r="CM2" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="CN2" s="86" t="s">
+      <c r="CT2" s="86" t="s">
+        <v>264</v>
+      </c>
+      <c r="CU2" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="CV2" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="CO2" s="86" t="s">
+      <c r="CW2" s="86" t="s">
+        <v>268</v>
+      </c>
+      <c r="CX2" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="CP2" s="86" t="s">
+      <c r="CY2" s="86" t="s">
         <v>270</v>
       </c>
-      <c r="CQ2" s="86" t="s">
+      <c r="CZ2" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="CR2" s="86" t="s">
-        <v>272</v>
-      </c>
-      <c r="CS2" s="86" t="s">
-        <v>273</v>
-      </c>
-      <c r="CT2" s="86" t="s">
-        <v>266</v>
-      </c>
-      <c r="CU2" s="86" t="s">
-        <v>267</v>
-      </c>
-      <c r="CV2" s="86" t="s">
-        <v>269</v>
-      </c>
-      <c r="CW2" s="86" t="s">
-        <v>270</v>
-      </c>
-      <c r="CX2" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="CY2" s="86" t="s">
-        <v>272</v>
-      </c>
-      <c r="CZ2" s="86" t="s">
-        <v>273</v>
-      </c>
       <c r="DA2" s="86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="DB2" s="86" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:106" ht="18.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A3" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B3" s="52" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D3" s="50">
         <v>44413</v>
@@ -18341,13 +18571,13 @@
     </row>
     <row r="4" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A4" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B4" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D4" s="50">
         <v>44413</v>
@@ -18378,13 +18608,13 @@
     </row>
     <row r="5" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A5" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B5" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D5" s="50">
         <v>44415</v>
@@ -18413,13 +18643,13 @@
     </row>
     <row r="6" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A6" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D6" s="50">
         <v>44414</v>
@@ -18449,13 +18679,13 @@
     </row>
     <row r="7" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A7" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B7" s="52" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D7" s="50">
         <v>44416</v>
@@ -18484,13 +18714,13 @@
     </row>
     <row r="8" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A8" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B8" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="49" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D8" s="50">
         <v>44417</v>
@@ -18521,13 +18751,13 @@
     </row>
     <row r="9" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A9" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D9" s="55">
         <v>44416</v>
@@ -18558,13 +18788,13 @@
     </row>
     <row r="10" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A10" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B10" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>310</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>312</v>
       </c>
       <c r="D10" s="55">
         <v>44416</v>
@@ -18595,13 +18825,13 @@
     </row>
     <row r="11" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A11" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B11" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="49" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D11" s="50">
         <v>44420</v>
@@ -18632,13 +18862,13 @@
     </row>
     <row r="12" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A12" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B12" s="52" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D12" s="50">
         <v>44416</v>
@@ -18671,13 +18901,13 @@
     </row>
     <row r="13" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A13" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B13" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D13" s="55">
         <v>44421</v>
@@ -18709,13 +18939,13 @@
     </row>
     <row r="14" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A14" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B14" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="49" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D14" s="50">
         <v>44418</v>
@@ -18745,13 +18975,13 @@
     </row>
     <row r="15" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A15" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B15" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D15" s="55">
         <v>44421</v>
@@ -18778,13 +19008,13 @@
     </row>
     <row r="16" spans="1:106" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A16" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B16" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="49" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D16" s="50">
         <v>44419</v>
@@ -18813,13 +19043,13 @@
     </row>
     <row r="17" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A17" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D17" s="50">
         <v>44421</v>
@@ -18846,13 +19076,13 @@
     </row>
     <row r="18" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A18" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B18" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D18" s="55">
         <v>44421</v>
@@ -18879,13 +19109,13 @@
     </row>
     <row r="19" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A19" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D19" s="55">
         <v>44422</v>
@@ -18910,13 +19140,13 @@
     </row>
     <row r="20" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A20" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B20" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D20" s="55">
         <v>44422</v>
@@ -18942,13 +19172,13 @@
     </row>
     <row r="21" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A21" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B21" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D21" s="55">
         <v>44423</v>
@@ -18976,13 +19206,13 @@
     </row>
     <row r="22" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A22" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B22" s="52" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C22" s="49" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D22" s="50">
         <v>44422</v>
@@ -19011,13 +19241,13 @@
     </row>
     <row r="23" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A23" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B23" s="52" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C23" s="49" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D23" s="50">
         <v>44422</v>
@@ -19048,13 +19278,13 @@
     </row>
     <row r="24" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A24" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B24" s="52" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="49" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D24" s="50">
         <v>44423</v>
@@ -19085,13 +19315,13 @@
     </row>
     <row r="25" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A25" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B25" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="38" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D25" s="55">
         <v>44424</v>
@@ -19123,13 +19353,13 @@
     </row>
     <row r="26" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A26" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B26" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D26" s="55">
         <v>44424</v>
@@ -19159,13 +19389,13 @@
     </row>
     <row r="27" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A27" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B27" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="38" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D27" s="55">
         <v>44424</v>
@@ -19193,13 +19423,13 @@
     </row>
     <row r="28" spans="1:27" ht="18.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A28" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B28" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="38" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D28" s="55">
         <v>44424</v>
@@ -19226,13 +19456,13 @@
     </row>
     <row r="29" spans="1:27" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A29" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B29" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C29" s="38" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D29" s="55">
         <v>44424</v>
@@ -19259,13 +19489,13 @@
     </row>
     <row r="30" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A30" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B30" s="53" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C30" s="38" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D30" s="55">
         <v>44425</v>
@@ -19297,13 +19527,13 @@
     </row>
     <row r="31" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A31" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B31" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="38" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D31" s="55">
         <v>44426</v>
@@ -19334,13 +19564,13 @@
     </row>
     <row r="32" spans="1:27" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A32" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B32" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="38" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D32" s="55">
         <v>44427</v>
@@ -19371,13 +19601,13 @@
     </row>
     <row r="33" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A33" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B33" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C33" s="38" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D33" s="55">
         <v>44426</v>
@@ -19410,13 +19640,13 @@
     </row>
     <row r="34" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A34" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C34" s="38" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D34" s="55">
         <v>44430</v>
@@ -19446,13 +19676,13 @@
     </row>
     <row r="35" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A35" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B35" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C35" s="38" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D35" s="55">
         <v>44427</v>
@@ -19484,13 +19714,13 @@
     </row>
     <row r="36" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A36" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B36" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D36" s="55">
         <v>44428</v>
@@ -19524,13 +19754,13 @@
     </row>
     <row r="37" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A37" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B37" s="53" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D37" s="55">
         <v>44440</v>
@@ -19561,13 +19791,13 @@
     </row>
     <row r="38" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A38" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B38" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C38" s="38" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D38" s="55">
         <v>44422</v>
@@ -19600,13 +19830,13 @@
     </row>
     <row r="39" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A39" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B39" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D39" s="55">
         <v>44429</v>
@@ -19634,13 +19864,13 @@
     </row>
     <row r="40" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A40" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B40" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="38" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D40" s="55">
         <v>44431</v>
@@ -19669,13 +19899,13 @@
     </row>
     <row r="41" spans="1:52" s="38" customFormat="1" hidden="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A41" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B41" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C41" s="38" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D41" s="55">
         <v>44428</v>
@@ -19707,13 +19937,13 @@
     </row>
     <row r="42" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A42" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B42" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="38" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D42" s="55">
         <v>44438</v>
@@ -19751,13 +19981,13 @@
     </row>
     <row r="43" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A43" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B43" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C43" s="38" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D43" s="55">
         <v>44439</v>
@@ -19789,13 +20019,13 @@
     </row>
     <row r="44" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A44" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B44" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C44" s="38" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D44" s="55">
         <v>44438</v>
@@ -19828,13 +20058,13 @@
     </row>
     <row r="45" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A45" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B45" s="53" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D45" s="55">
         <v>44438</v>
@@ -19871,13 +20101,13 @@
     </row>
     <row r="46" spans="1:52" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A46" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B46" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D46" s="55">
         <v>44441</v>
@@ -19913,13 +20143,13 @@
     </row>
     <row r="47" spans="1:52" collapsed="1" x14ac:dyDescent="0.4">
       <c r="A47" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B47" s="53" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D47" s="55">
         <v>44440</v>
@@ -19952,13 +20182,13 @@
     </row>
     <row r="48" spans="1:52" x14ac:dyDescent="0.4">
       <c r="A48" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B48" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D48" s="55">
         <v>44441</v>
@@ -20006,13 +20236,13 @@
     </row>
     <row r="49" spans="1:94" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B49" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D49" s="55">
         <v>44442</v>
@@ -20062,13 +20292,13 @@
     </row>
     <row r="50" spans="1:94" s="38" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B50" s="53" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="38" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D50" s="55">
         <v>44444</v>
@@ -20089,13 +20319,13 @@
     </row>
     <row r="51" spans="1:94" x14ac:dyDescent="0.4">
       <c r="A51" s="71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D51" s="55">
         <v>44444</v>
@@ -20135,7 +20365,7 @@
         <v>21</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D52" s="55">
         <v>44441</v>
@@ -20208,7 +20438,7 @@
         <v>21</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D54" s="55">
         <v>44443</v>
@@ -20241,7 +20471,7 @@
         <v>21</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D55" s="55">
         <v>44444</v>
@@ -20276,7 +20506,7 @@
         <v>21</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D56" s="55">
         <v>44445</v>
@@ -20310,7 +20540,7 @@
         <v>20</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D57" s="55">
         <v>44469</v>
@@ -20376,7 +20606,7 @@
         <v>20</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D58" s="55">
         <v>44469</v>
@@ -20440,7 +20670,7 @@
         <v>20</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D59" s="55">
         <v>44469</v>
@@ -20489,7 +20719,7 @@
         <v>20</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D60" s="55">
         <v>44490</v>
@@ -20525,222 +20755,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E533947-A56E-4A78-8017-BBE8A1928751}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:M19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="95"/>
-      <c r="I2" s="108" t="s">
-        <v>218</v>
-      </c>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="110"/>
-    </row>
-    <row r="3" spans="2:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="96"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="98"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
-      <c r="M3" s="113"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="I4" s="27" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="114" t="s">
-        <v>340</v>
-      </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>452</v>
-      </c>
-      <c r="D9" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>454</v>
-      </c>
-      <c r="D10" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>456</v>
-      </c>
-      <c r="D11" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="104"/>
-    </row>
-    <row r="13" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="105"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="107"/>
-    </row>
-    <row r="15" spans="2:13" ht="35.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="5"/>
-      <c r="C15" s="99" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="99"/>
-      <c r="E15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="99" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="99"/>
-      <c r="K15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="99" t="s">
-        <v>27</v>
-      </c>
-      <c r="M15" s="99"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="19" spans="3:8" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F19" s="100" t="s">
-        <v>189</v>
-      </c>
-      <c r="G19" s="101"/>
-      <c r="H19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B12:H13"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="I2:M3"/>
-    <mergeCell ref="B7:F8"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9333299-5564-4C9F-BA84-D4349436EAE5}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -20763,10 +20783,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="3"/>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="125" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="116"/>
+      <c r="F1" s="125"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
@@ -20777,7 +20797,7 @@
         <v>413</v>
       </c>
       <c r="B2" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>414</v>
@@ -20796,9 +20816,6 @@
       <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>416</v>
-      </c>
       <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
@@ -20808,10 +20825,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B4" s="4">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>412</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>16</v>
@@ -20837,141 +20857,141 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="117" t="s">
-        <v>412</v>
-      </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="119"/>
+      <c r="A7" s="126" t="s">
+        <v>410</v>
+      </c>
+      <c r="B7" s="127"/>
+      <c r="C7" s="128"/>
       <c r="E7" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="72" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="B8" s="72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="72">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="72" t="s">
-        <v>69</v>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="101">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>13</v>
+      <c r="C10" s="101" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="101" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="101">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>39</v>
+      <c r="C11" s="101" t="s">
+        <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="4">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>41</v>
+      <c r="A12" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="101">
+        <v>5</v>
+      </c>
+      <c r="C12" s="101" t="s">
+        <v>61</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="A13" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>61</v>
+      <c r="B13" s="101">
+        <v>5</v>
+      </c>
+      <c r="C13" s="101" t="s">
+        <v>14</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="101">
         <v>5</v>
       </c>
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>14</v>
+      <c r="C14" s="101" t="s">
+        <v>61</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="4">
-        <v>5</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="E15" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="6">
+        <v>1</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>78</v>
@@ -20979,13 +20999,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>79</v>
@@ -20993,227 +21013,215 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
-        <v>168</v>
+        <v>4</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B20" s="6">
         <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="6" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="B21" s="6">
         <v>1</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="6" t="s">
-        <v>45</v>
+        <v>194</v>
       </c>
       <c r="B23" s="6">
         <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>11</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="6" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="6" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="B25" s="6">
         <v>2</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>195</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B26" s="6">
         <v>2</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>77</v>
-      </c>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B27" s="6">
         <v>2</v>
       </c>
-      <c r="C27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="B28" s="6">
         <v>2</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B29" s="6">
         <v>2</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B30" s="6">
         <v>2</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="6">
         <v>2</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="6" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="B32" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B33" s="6">
         <v>3</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="6" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="B34" s="6">
         <v>3</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="B35" s="6">
         <v>3</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>57</v>
+        <v>211</v>
       </c>
       <c r="B36" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A37" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="B37" s="6">
-        <v>5</v>
-      </c>
-      <c r="C37" s="6" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:C37">
-    <sortCondition descending="1" sortBy="cellColor" ref="A8:A37" dxfId="0"/>
-    <sortCondition ref="B8:B37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
+    <sortCondition descending="1" ref="A2:A4"/>
   </sortState>
   <mergeCells count="2">
     <mergeCell ref="E1:F1"/>
@@ -21226,13 +21234,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64C319C-B3F7-46D4-A76A-A521F6B05E0F}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:Z46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -21260,156 +21268,156 @@
   <sheetData>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
       <c r="J2" s="23" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q2" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="W2" s="25" t="s">
         <v>294</v>
       </c>
-      <c r="S2" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="T2" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" s="25" t="s">
-        <v>295</v>
-      </c>
-      <c r="W2" s="25" t="s">
-        <v>296</v>
-      </c>
       <c r="X2" s="87" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B3" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="129" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="40" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="120" t="s">
+      <c r="F3" s="129"/>
+      <c r="G3" s="129" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" s="129"/>
+      <c r="I3" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="J3" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="K3" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="129"/>
+      <c r="M3" s="129"/>
+      <c r="N3" s="129"/>
+      <c r="O3" s="129"/>
+      <c r="P3" s="129" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="V3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y3" s="40" t="s">
         <v>93</v>
-      </c>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="120"/>
-      <c r="I3" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="K3" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="120"/>
-      <c r="P3" s="120" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q3" s="120"/>
-      <c r="R3" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="T3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="V3" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y3" s="40" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="44" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="44" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E4" s="44" t="s">
+        <v>288</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>290</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="H4" s="44" t="s">
         <v>291</v>
       </c>
-      <c r="G4" s="44" t="s">
-        <v>292</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>293</v>
-      </c>
       <c r="I4" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="M4" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="N4" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="O4" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="P4" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="R4" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="K4" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="M4" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="N4" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="O4" s="44" t="s">
-        <v>194</v>
-      </c>
-      <c r="P4" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="47" t="s">
+      <c r="S4" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="T4" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="U4" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="R4" s="44" t="s">
-        <v>100</v>
-      </c>
-      <c r="S4" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="T4" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="U4" s="47" t="s">
+      <c r="V4" s="47" t="s">
         <v>131</v>
-      </c>
-      <c r="V4" s="47" t="s">
-        <v>133</v>
       </c>
       <c r="W4" s="47"/>
       <c r="X4" s="88" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="8" customFormat="1" ht="17.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="7">
         <v>135</v>
@@ -21477,24 +21485,24 @@
         <v>36.25</v>
       </c>
       <c r="X5" s="89" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="Y5" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>72</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" s="40">
         <v>230</v>
@@ -21562,10 +21570,10 @@
         <v>45.32</v>
       </c>
       <c r="X6" s="89" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="Y6" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.4">
@@ -21573,10 +21581,10 @@
         <v>71</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="40">
         <v>370</v>
@@ -21645,21 +21653,21 @@
       </c>
       <c r="X7" s="89"/>
       <c r="Y7" s="40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C8" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="40" t="s">
         <v>109</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>111</v>
       </c>
       <c r="E8" s="40">
         <v>115</v>
@@ -21727,24 +21735,24 @@
         <v>30.838000000000001</v>
       </c>
       <c r="X8" s="89" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="Y8" s="40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C9" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E9" s="40">
         <v>110</v>
@@ -21812,24 +21820,24 @@
         <v>26.27</v>
       </c>
       <c r="X9" s="89" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="Y9" s="40" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E10" s="40">
         <v>110</v>
@@ -21897,24 +21905,24 @@
         <v>26.919</v>
       </c>
       <c r="X10" s="89" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="Y10" s="40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C11" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E11" s="40">
         <v>240</v>
@@ -21980,21 +21988,21 @@
         <v>47.244</v>
       </c>
       <c r="X11" s="89" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Y11" s="40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B12" s="40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E12" s="40">
         <v>135</v>
@@ -22063,18 +22071,18 @@
       </c>
       <c r="X12" s="89"/>
       <c r="Y12" s="40" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B13" s="40" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E13" s="40">
         <v>75</v>
@@ -22143,18 +22151,18 @@
       </c>
       <c r="X13" s="89"/>
       <c r="Y13" s="40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B14" s="40" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E14" s="40">
         <v>390</v>
@@ -22223,18 +22231,18 @@
       </c>
       <c r="X14" s="89"/>
       <c r="Y14" s="40" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="B15" s="40" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C15" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E15" s="40">
         <v>110</v>
@@ -22303,18 +22311,18 @@
       </c>
       <c r="X15" s="89"/>
       <c r="Y15" s="40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E16" s="40">
         <v>115</v>
@@ -22383,18 +22391,18 @@
       </c>
       <c r="X16" s="89"/>
       <c r="Y16" s="40" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B17" s="21" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C17" s="40" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E17" s="40">
         <v>50</v>
@@ -22463,18 +22471,18 @@
       </c>
       <c r="X17" s="89"/>
       <c r="Y17" s="40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B18" s="21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E18" s="40">
         <v>50</v>
@@ -22543,18 +22551,18 @@
       </c>
       <c r="X18" s="89"/>
       <c r="Y18" s="40" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B19" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C19" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E19" s="40">
         <v>75</v>
@@ -22623,18 +22631,18 @@
       </c>
       <c r="X19" s="89"/>
       <c r="Y19" s="40" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:25" s="21" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B20" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E20" s="40">
         <v>240</v>
@@ -22703,19 +22711,19 @@
       </c>
       <c r="X20" s="89"/>
       <c r="Y20" s="40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" s="21"/>
       <c r="B21" s="21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" s="40">
         <v>115</v>
@@ -22784,19 +22792,19 @@
       </c>
       <c r="X21" s="89"/>
       <c r="Y21" s="40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A22" s="21"/>
       <c r="B22" s="21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C22" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="40" t="s">
         <v>109</v>
-      </c>
-      <c r="D22" s="40" t="s">
-        <v>111</v>
       </c>
       <c r="E22" s="40">
         <v>110</v>
@@ -22865,7 +22873,7 @@
       </c>
       <c r="X22" s="89"/>
       <c r="Y22" s="40" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.4">
@@ -22873,13 +22881,13 @@
     </row>
     <row r="25" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="68" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D25" s="85" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E25" s="85"/>
       <c r="F25" s="85"/>
@@ -22894,55 +22902,55 @@
     </row>
     <row r="26" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B26" s="68" t="s">
-        <v>392</v>
-      </c>
-      <c r="D26" s="121" t="s">
-        <v>400</v>
-      </c>
-      <c r="E26" s="121"/>
-      <c r="F26" s="121"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="121"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="121"/>
-      <c r="K26" s="121"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="121"/>
+        <v>390</v>
+      </c>
+      <c r="D26" s="130" t="s">
+        <v>398</v>
+      </c>
+      <c r="E26" s="130"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
+      <c r="K26" s="130"/>
+      <c r="L26" s="130"/>
+      <c r="M26" s="130"/>
       <c r="X26" s="90"/>
     </row>
     <row r="27" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="X27" s="90"/>
     </row>
     <row r="28" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B28" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="X28" s="90"/>
     </row>
     <row r="29" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B29" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="X29" s="90"/>
     </row>
     <row r="30" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B30" s="84" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="X30" s="90"/>
     </row>
     <row r="31" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B31" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="X31" s="90"/>
     </row>
     <row r="32" spans="1:25" s="68" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B32" s="84" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="X32" s="90"/>
     </row>
@@ -23003,7 +23011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A92D0F-E9DE-4982-A6B9-91FAB732DBD9}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:R58"/>
@@ -23042,53 +23050,53 @@
     </row>
     <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
       <c r="H9" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="44.25" x14ac:dyDescent="0.4">
       <c r="P25" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="33" x14ac:dyDescent="0.4">
       <c r="B30" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.4">
       <c r="D41" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="2:18" ht="35.25" x14ac:dyDescent="0.4">
       <c r="R52" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="35.25" x14ac:dyDescent="0.4">
       <c r="R53" s="36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="2:18" ht="35.25" x14ac:dyDescent="0.4">
       <c r="B54" s="35" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H54" s="36" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="2:18" ht="35.25" x14ac:dyDescent="0.4">
       <c r="B55" s="35" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H55" s="36" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="2:18" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -23104,7 +23112,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C12DCD76-5273-4CA2-9E7A-8BC5E74993CF}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:S32"/>
@@ -23119,37 +23127,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B2" s="122" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
+      <c r="B2" s="131" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.4">
       <c r="O4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.4">
       <c r="O5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.4">
       <c r="O6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.4">
       <c r="O7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.4">
@@ -23159,48 +23167,48 @@
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.4">
       <c r="O10" s="17" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="S10" s="16"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.4">
       <c r="O12" s="17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.4">
       <c r="O15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.4">
       <c r="O16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28" spans="15:15" x14ac:dyDescent="0.4">
       <c r="O28" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29" spans="15:15" ht="42" x14ac:dyDescent="0.4">
       <c r="O29" s="26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="15:15" ht="42" x14ac:dyDescent="0.4">
       <c r="O30" s="26" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="15:15" ht="42" x14ac:dyDescent="0.4">
       <c r="O31" s="26" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" spans="15:15" ht="42" x14ac:dyDescent="0.4">
       <c r="O32" s="26" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -23214,13 +23222,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F840A3-C673-472F-B158-91E7EE049523}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AU66"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W61" sqref="W61:W64"/>
+    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23242,167 +23250,167 @@
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
-      <c r="AJ4" s="123" t="s">
-        <v>435</v>
-      </c>
-      <c r="AK4" s="124"/>
-      <c r="AL4" s="124"/>
-      <c r="AM4" s="124"/>
-      <c r="AN4" s="124"/>
-      <c r="AO4" s="124"/>
-      <c r="AP4" s="124"/>
-      <c r="AQ4" s="124"/>
-      <c r="AR4" s="125"/>
+      <c r="AJ4" s="132" t="s">
+        <v>432</v>
+      </c>
+      <c r="AK4" s="133"/>
+      <c r="AL4" s="133"/>
+      <c r="AM4" s="133"/>
+      <c r="AN4" s="133"/>
+      <c r="AO4" s="133"/>
+      <c r="AP4" s="133"/>
+      <c r="AQ4" s="133"/>
+      <c r="AR4" s="134"/>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="AJ5" s="126"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
-      <c r="AR5" s="128"/>
+      <c r="AJ5" s="135"/>
+      <c r="AK5" s="136"/>
+      <c r="AL5" s="136"/>
+      <c r="AM5" s="136"/>
+      <c r="AN5" s="136"/>
+      <c r="AO5" s="136"/>
+      <c r="AP5" s="136"/>
+      <c r="AQ5" s="136"/>
+      <c r="AR5" s="137"/>
     </row>
     <row r="6" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AJ6" s="129"/>
-      <c r="AK6" s="130"/>
-      <c r="AL6" s="130"/>
-      <c r="AM6" s="130"/>
-      <c r="AN6" s="130"/>
-      <c r="AO6" s="130"/>
-      <c r="AP6" s="130"/>
-      <c r="AQ6" s="130"/>
-      <c r="AR6" s="131"/>
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="139"/>
+      <c r="AL6" s="139"/>
+      <c r="AM6" s="139"/>
+      <c r="AN6" s="139"/>
+      <c r="AO6" s="139"/>
+      <c r="AP6" s="139"/>
+      <c r="AQ6" s="139"/>
+      <c r="AR6" s="140"/>
     </row>
     <row r="8" spans="1:44" ht="39.75" x14ac:dyDescent="0.4">
       <c r="U8" s="48" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AJ8" s="92" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:44" ht="39.75" x14ac:dyDescent="0.4">
       <c r="U9" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="AB9" s="151" t="s">
-        <v>458</v>
+        <v>376</v>
+      </c>
+      <c r="AB9" s="94" t="s">
+        <v>452</v>
       </c>
       <c r="AJ9" s="92" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:44" ht="39.75" x14ac:dyDescent="0.4">
       <c r="U10" s="48" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="13" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="AJ13" s="160" t="s">
-        <v>459</v>
-      </c>
-      <c r="AK13" s="161"/>
-      <c r="AL13" s="161"/>
-      <c r="AM13" s="161"/>
-      <c r="AN13" s="161"/>
-      <c r="AO13" s="162"/>
+      <c r="AJ13" s="146" t="s">
+        <v>453</v>
+      </c>
+      <c r="AK13" s="147"/>
+      <c r="AL13" s="147"/>
+      <c r="AM13" s="147"/>
+      <c r="AN13" s="147"/>
+      <c r="AO13" s="148"/>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.4">
-      <c r="AJ14" s="163"/>
-      <c r="AK14" s="164"/>
-      <c r="AL14" s="164"/>
-      <c r="AM14" s="164"/>
-      <c r="AN14" s="164"/>
-      <c r="AO14" s="165"/>
+      <c r="AJ14" s="149"/>
+      <c r="AK14" s="150"/>
+      <c r="AL14" s="150"/>
+      <c r="AM14" s="150"/>
+      <c r="AN14" s="150"/>
+      <c r="AO14" s="151"/>
     </row>
     <row r="15" spans="1:44" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AJ15" s="166"/>
-      <c r="AK15" s="167"/>
-      <c r="AL15" s="167"/>
-      <c r="AM15" s="167"/>
-      <c r="AN15" s="167"/>
-      <c r="AO15" s="168"/>
+      <c r="AJ15" s="152"/>
+      <c r="AK15" s="153"/>
+      <c r="AL15" s="153"/>
+      <c r="AM15" s="153"/>
+      <c r="AN15" s="153"/>
+      <c r="AO15" s="154"/>
     </row>
     <row r="17" spans="21:47" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="U17" s="67" t="s">
-        <v>323</v>
-      </c>
-      <c r="AJ17" s="158" t="s">
-        <v>460</v>
-      </c>
-      <c r="AK17" s="158"/>
-      <c r="AL17" s="158"/>
-      <c r="AM17" s="158"/>
-      <c r="AN17" s="158"/>
-      <c r="AO17" s="158"/>
-      <c r="AP17" s="158"/>
-      <c r="AQ17" s="158"/>
-      <c r="AR17" s="158"/>
-      <c r="AS17" s="158"/>
-      <c r="AT17" s="158"/>
-      <c r="AU17" s="158"/>
+        <v>321</v>
+      </c>
+      <c r="AJ17" s="155" t="s">
+        <v>454</v>
+      </c>
+      <c r="AK17" s="155"/>
+      <c r="AL17" s="155"/>
+      <c r="AM17" s="155"/>
+      <c r="AN17" s="155"/>
+      <c r="AO17" s="155"/>
+      <c r="AP17" s="155"/>
+      <c r="AQ17" s="155"/>
+      <c r="AR17" s="155"/>
+      <c r="AS17" s="155"/>
+      <c r="AT17" s="155"/>
+      <c r="AU17" s="155"/>
     </row>
     <row r="18" spans="21:47" ht="42.75" x14ac:dyDescent="0.4">
       <c r="U18" s="73" t="s">
-        <v>334</v>
-      </c>
-      <c r="AJ18" s="159" t="s">
-        <v>461</v>
-      </c>
-      <c r="AK18" s="159"/>
-      <c r="AL18" s="159"/>
-      <c r="AM18" s="159"/>
-      <c r="AN18" s="159"/>
-      <c r="AO18" s="159"/>
-      <c r="AP18" s="159"/>
-      <c r="AQ18" s="159"/>
-      <c r="AR18" s="159"/>
-      <c r="AS18" s="159"/>
-      <c r="AT18" s="159"/>
-      <c r="AU18" s="159"/>
+        <v>332</v>
+      </c>
+      <c r="AJ18" s="156" t="s">
+        <v>455</v>
+      </c>
+      <c r="AK18" s="156"/>
+      <c r="AL18" s="156"/>
+      <c r="AM18" s="156"/>
+      <c r="AN18" s="156"/>
+      <c r="AO18" s="156"/>
+      <c r="AP18" s="156"/>
+      <c r="AQ18" s="156"/>
+      <c r="AR18" s="156"/>
+      <c r="AS18" s="156"/>
+      <c r="AT18" s="156"/>
+      <c r="AU18" s="156"/>
     </row>
     <row r="22" spans="21:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="23" spans="21:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U23" s="135" t="s">
-        <v>123</v>
-      </c>
-      <c r="V23" s="136"/>
-      <c r="W23" s="136"/>
-      <c r="X23" s="136"/>
-      <c r="Y23" s="136"/>
-      <c r="Z23" s="137"/>
+      <c r="U23" s="132" t="s">
+        <v>457</v>
+      </c>
+      <c r="V23" s="133"/>
+      <c r="W23" s="133"/>
+      <c r="X23" s="133"/>
+      <c r="Y23" s="133"/>
+      <c r="Z23" s="134"/>
     </row>
     <row r="24" spans="21:47" x14ac:dyDescent="0.4">
-      <c r="U24" s="138"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="139"/>
-      <c r="X24" s="139"/>
-      <c r="Y24" s="139"/>
-      <c r="Z24" s="140"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="136"/>
+      <c r="W24" s="136"/>
+      <c r="X24" s="136"/>
+      <c r="Y24" s="136"/>
+      <c r="Z24" s="137"/>
     </row>
     <row r="25" spans="21:47" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="U25" s="138"/>
-      <c r="V25" s="139"/>
-      <c r="W25" s="139"/>
-      <c r="X25" s="139"/>
-      <c r="Y25" s="139"/>
-      <c r="Z25" s="140"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="136"/>
+      <c r="W25" s="136"/>
+      <c r="X25" s="136"/>
+      <c r="Y25" s="136"/>
+      <c r="Z25" s="137"/>
     </row>
     <row r="26" spans="21:47" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="U26" s="141"/>
-      <c r="V26" s="142"/>
-      <c r="W26" s="142"/>
-      <c r="X26" s="142"/>
-      <c r="Y26" s="142"/>
-      <c r="Z26" s="143"/>
+      <c r="U26" s="138"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="140"/>
     </row>
     <row r="28" spans="21:47" x14ac:dyDescent="0.4">
       <c r="U28" s="144" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="V28" s="145"/>
       <c r="W28" s="145"/>
@@ -23441,346 +23449,351 @@
       <c r="AK29" s="145"/>
     </row>
     <row r="30" spans="21:47" x14ac:dyDescent="0.4">
-      <c r="U30" s="133" t="s">
+      <c r="U30" s="142" t="s">
+        <v>373</v>
+      </c>
+      <c r="V30" s="143"/>
+      <c r="W30" s="143"/>
+      <c r="X30" s="143"/>
+      <c r="Y30" s="143"/>
+      <c r="Z30" s="143"/>
+      <c r="AA30" s="143"/>
+      <c r="AB30" s="143"/>
+      <c r="AC30" s="143"/>
+      <c r="AD30" s="143"/>
+      <c r="AE30" s="143"/>
+      <c r="AF30" s="143"/>
+      <c r="AG30" s="143"/>
+      <c r="AH30" s="143"/>
+      <c r="AI30" s="143"/>
+      <c r="AJ30" s="143"/>
+      <c r="AK30" s="143"/>
+    </row>
+    <row r="31" spans="21:47" x14ac:dyDescent="0.4">
+      <c r="U31" s="143"/>
+      <c r="V31" s="143"/>
+      <c r="W31" s="143"/>
+      <c r="X31" s="143"/>
+      <c r="Y31" s="143"/>
+      <c r="Z31" s="143"/>
+      <c r="AA31" s="143"/>
+      <c r="AB31" s="143"/>
+      <c r="AC31" s="143"/>
+      <c r="AD31" s="143"/>
+      <c r="AE31" s="143"/>
+      <c r="AF31" s="143"/>
+      <c r="AG31" s="143"/>
+      <c r="AH31" s="143"/>
+      <c r="AI31" s="143"/>
+      <c r="AJ31" s="143"/>
+      <c r="AK31" s="143"/>
+    </row>
+    <row r="32" spans="21:47" x14ac:dyDescent="0.4">
+      <c r="U32" s="142" t="s">
+        <v>374</v>
+      </c>
+      <c r="V32" s="143"/>
+      <c r="W32" s="143"/>
+      <c r="X32" s="143"/>
+      <c r="Y32" s="143"/>
+      <c r="Z32" s="143"/>
+      <c r="AA32" s="143"/>
+      <c r="AB32" s="143"/>
+      <c r="AC32" s="143"/>
+      <c r="AD32" s="143"/>
+      <c r="AE32" s="143"/>
+      <c r="AF32" s="143"/>
+      <c r="AG32" s="143"/>
+      <c r="AH32" s="143"/>
+      <c r="AI32" s="143"/>
+      <c r="AJ32" s="143"/>
+      <c r="AK32" s="143"/>
+    </row>
+    <row r="33" spans="21:37" x14ac:dyDescent="0.4">
+      <c r="U33" s="143"/>
+      <c r="V33" s="143"/>
+      <c r="W33" s="143"/>
+      <c r="X33" s="143"/>
+      <c r="Y33" s="143"/>
+      <c r="Z33" s="143"/>
+      <c r="AA33" s="143"/>
+      <c r="AB33" s="143"/>
+      <c r="AC33" s="143"/>
+      <c r="AD33" s="143"/>
+      <c r="AE33" s="143"/>
+      <c r="AF33" s="143"/>
+      <c r="AG33" s="143"/>
+      <c r="AH33" s="143"/>
+      <c r="AI33" s="143"/>
+      <c r="AJ33" s="143"/>
+      <c r="AK33" s="143"/>
+    </row>
+    <row r="34" spans="21:37" x14ac:dyDescent="0.4">
+      <c r="U34" s="142" t="s">
         <v>375</v>
       </c>
-      <c r="V30" s="134"/>
-      <c r="W30" s="134"/>
-      <c r="X30" s="134"/>
-      <c r="Y30" s="134"/>
-      <c r="Z30" s="134"/>
-      <c r="AA30" s="134"/>
-      <c r="AB30" s="134"/>
-      <c r="AC30" s="134"/>
-      <c r="AD30" s="134"/>
-      <c r="AE30" s="134"/>
-      <c r="AF30" s="134"/>
-      <c r="AG30" s="134"/>
-      <c r="AH30" s="134"/>
-      <c r="AI30" s="134"/>
-      <c r="AJ30" s="134"/>
-      <c r="AK30" s="134"/>
-    </row>
-    <row r="31" spans="21:47" x14ac:dyDescent="0.4">
-      <c r="U31" s="134"/>
-      <c r="V31" s="134"/>
-      <c r="W31" s="134"/>
-      <c r="X31" s="134"/>
-      <c r="Y31" s="134"/>
-      <c r="Z31" s="134"/>
-      <c r="AA31" s="134"/>
-      <c r="AB31" s="134"/>
-      <c r="AC31" s="134"/>
-      <c r="AD31" s="134"/>
-      <c r="AE31" s="134"/>
-      <c r="AF31" s="134"/>
-      <c r="AG31" s="134"/>
-      <c r="AH31" s="134"/>
-      <c r="AI31" s="134"/>
-      <c r="AJ31" s="134"/>
-      <c r="AK31" s="134"/>
-    </row>
-    <row r="32" spans="21:47" x14ac:dyDescent="0.4">
-      <c r="U32" s="133" t="s">
-        <v>376</v>
-      </c>
-      <c r="V32" s="134"/>
-      <c r="W32" s="134"/>
-      <c r="X32" s="134"/>
-      <c r="Y32" s="134"/>
-      <c r="Z32" s="134"/>
-      <c r="AA32" s="134"/>
-      <c r="AB32" s="134"/>
-      <c r="AC32" s="134"/>
-      <c r="AD32" s="134"/>
-      <c r="AE32" s="134"/>
-      <c r="AF32" s="134"/>
-      <c r="AG32" s="134"/>
-      <c r="AH32" s="134"/>
-      <c r="AI32" s="134"/>
-      <c r="AJ32" s="134"/>
-      <c r="AK32" s="134"/>
-    </row>
-    <row r="33" spans="20:37" x14ac:dyDescent="0.4">
-      <c r="U33" s="134"/>
-      <c r="V33" s="134"/>
-      <c r="W33" s="134"/>
-      <c r="X33" s="134"/>
-      <c r="Y33" s="134"/>
-      <c r="Z33" s="134"/>
-      <c r="AA33" s="134"/>
-      <c r="AB33" s="134"/>
-      <c r="AC33" s="134"/>
-      <c r="AD33" s="134"/>
-      <c r="AE33" s="134"/>
-      <c r="AF33" s="134"/>
-      <c r="AG33" s="134"/>
-      <c r="AH33" s="134"/>
-      <c r="AI33" s="134"/>
-      <c r="AJ33" s="134"/>
-      <c r="AK33" s="134"/>
-    </row>
-    <row r="34" spans="20:37" x14ac:dyDescent="0.4">
-      <c r="U34" s="133" t="s">
-        <v>377</v>
-      </c>
-      <c r="V34" s="134"/>
-      <c r="W34" s="134"/>
-      <c r="X34" s="134"/>
-      <c r="Y34" s="134"/>
-      <c r="Z34" s="134"/>
-      <c r="AA34" s="134"/>
-      <c r="AB34" s="134"/>
-      <c r="AC34" s="134"/>
-      <c r="AD34" s="134"/>
-      <c r="AE34" s="134"/>
-      <c r="AF34" s="134"/>
-      <c r="AG34" s="134"/>
-      <c r="AH34" s="134"/>
-      <c r="AI34" s="134"/>
-      <c r="AJ34" s="134"/>
-      <c r="AK34" s="134"/>
-    </row>
-    <row r="35" spans="20:37" x14ac:dyDescent="0.4">
-      <c r="U35" s="134"/>
-      <c r="V35" s="134"/>
-      <c r="W35" s="134"/>
-      <c r="X35" s="134"/>
-      <c r="Y35" s="134"/>
-      <c r="Z35" s="134"/>
-      <c r="AA35" s="134"/>
-      <c r="AB35" s="134"/>
-      <c r="AC35" s="134"/>
-      <c r="AD35" s="134"/>
-      <c r="AE35" s="134"/>
-      <c r="AF35" s="134"/>
-      <c r="AG35" s="134"/>
-      <c r="AH35" s="134"/>
-      <c r="AI35" s="134"/>
-      <c r="AJ35" s="134"/>
-      <c r="AK35" s="134"/>
-    </row>
-    <row r="36" spans="20:37" x14ac:dyDescent="0.4">
-      <c r="U36" s="133"/>
-      <c r="V36" s="134"/>
-      <c r="W36" s="134"/>
-      <c r="X36" s="134"/>
-      <c r="Y36" s="134"/>
-      <c r="Z36" s="134"/>
-      <c r="AA36" s="134"/>
-      <c r="AB36" s="134"/>
-      <c r="AC36" s="134"/>
-      <c r="AD36" s="134"/>
-      <c r="AE36" s="134"/>
-      <c r="AF36" s="134"/>
-      <c r="AG36" s="134"/>
-      <c r="AH36" s="134"/>
-      <c r="AI36" s="134"/>
-      <c r="AJ36" s="134"/>
-      <c r="AK36" s="134"/>
-    </row>
-    <row r="37" spans="20:37" x14ac:dyDescent="0.4">
-      <c r="U37" s="134"/>
-      <c r="V37" s="134"/>
-      <c r="W37" s="134"/>
-      <c r="X37" s="134"/>
-      <c r="Y37" s="134"/>
-      <c r="Z37" s="134"/>
-      <c r="AA37" s="134"/>
-      <c r="AB37" s="134"/>
-      <c r="AC37" s="134"/>
-      <c r="AD37" s="134"/>
-      <c r="AE37" s="134"/>
-      <c r="AF37" s="134"/>
-      <c r="AG37" s="134"/>
-      <c r="AH37" s="134"/>
-      <c r="AI37" s="134"/>
-      <c r="AJ37" s="134"/>
-      <c r="AK37" s="134"/>
-    </row>
-    <row r="42" spans="20:37" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="AD42" s="132"/>
-      <c r="AE42" s="132"/>
-      <c r="AF42" s="132"/>
-      <c r="AG42" s="132"/>
-      <c r="AH42" s="132"/>
-      <c r="AI42" s="132"/>
-      <c r="AJ42" s="132"/>
-      <c r="AK42" s="132"/>
-    </row>
-    <row r="43" spans="20:37" ht="33" x14ac:dyDescent="0.4">
-      <c r="T43" s="152" t="s">
-        <v>262</v>
-      </c>
-      <c r="U43" s="153"/>
-      <c r="V43" s="153"/>
-      <c r="W43" s="153"/>
-      <c r="X43" s="153"/>
-      <c r="Y43" s="153"/>
-      <c r="Z43" s="153"/>
-      <c r="AA43" s="153"/>
-      <c r="AB43" s="154"/>
-      <c r="AD43" s="132"/>
-      <c r="AE43" s="132"/>
-      <c r="AF43" s="132"/>
-      <c r="AG43" s="132"/>
-      <c r="AH43" s="132"/>
-      <c r="AI43" s="132"/>
-      <c r="AJ43" s="132"/>
-      <c r="AK43" s="132"/>
-    </row>
-    <row r="44" spans="20:37" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="T44" s="155" t="s">
-        <v>261</v>
-      </c>
-      <c r="U44" s="156"/>
-      <c r="V44" s="156"/>
-      <c r="W44" s="156"/>
-      <c r="X44" s="156"/>
-      <c r="Y44" s="156"/>
-      <c r="Z44" s="156"/>
-      <c r="AA44" s="156"/>
-      <c r="AB44" s="157"/>
+      <c r="V34" s="143"/>
+      <c r="W34" s="143"/>
+      <c r="X34" s="143"/>
+      <c r="Y34" s="143"/>
+      <c r="Z34" s="143"/>
+      <c r="AA34" s="143"/>
+      <c r="AB34" s="143"/>
+      <c r="AC34" s="143"/>
+      <c r="AD34" s="143"/>
+      <c r="AE34" s="143"/>
+      <c r="AF34" s="143"/>
+      <c r="AG34" s="143"/>
+      <c r="AH34" s="143"/>
+      <c r="AI34" s="143"/>
+      <c r="AJ34" s="143"/>
+      <c r="AK34" s="143"/>
+    </row>
+    <row r="35" spans="21:37" x14ac:dyDescent="0.4">
+      <c r="U35" s="143"/>
+      <c r="V35" s="143"/>
+      <c r="W35" s="143"/>
+      <c r="X35" s="143"/>
+      <c r="Y35" s="143"/>
+      <c r="Z35" s="143"/>
+      <c r="AA35" s="143"/>
+      <c r="AB35" s="143"/>
+      <c r="AC35" s="143"/>
+      <c r="AD35" s="143"/>
+      <c r="AE35" s="143"/>
+      <c r="AF35" s="143"/>
+      <c r="AG35" s="143"/>
+      <c r="AH35" s="143"/>
+      <c r="AI35" s="143"/>
+      <c r="AJ35" s="143"/>
+      <c r="AK35" s="143"/>
+    </row>
+    <row r="36" spans="21:37" x14ac:dyDescent="0.4">
+      <c r="U36" s="142"/>
+      <c r="V36" s="143"/>
+      <c r="W36" s="143"/>
+      <c r="X36" s="143"/>
+      <c r="Y36" s="143"/>
+      <c r="Z36" s="143"/>
+      <c r="AA36" s="143"/>
+      <c r="AB36" s="143"/>
+      <c r="AC36" s="143"/>
+      <c r="AD36" s="143"/>
+      <c r="AE36" s="143"/>
+      <c r="AF36" s="143"/>
+      <c r="AG36" s="143"/>
+      <c r="AH36" s="143"/>
+      <c r="AI36" s="143"/>
+      <c r="AJ36" s="143"/>
+      <c r="AK36" s="143"/>
+    </row>
+    <row r="37" spans="21:37" x14ac:dyDescent="0.4">
+      <c r="U37" s="143"/>
+      <c r="V37" s="143"/>
+      <c r="W37" s="143"/>
+      <c r="X37" s="143"/>
+      <c r="Y37" s="143"/>
+      <c r="Z37" s="143"/>
+      <c r="AA37" s="143"/>
+      <c r="AB37" s="143"/>
+      <c r="AC37" s="143"/>
+      <c r="AD37" s="143"/>
+      <c r="AE37" s="143"/>
+      <c r="AF37" s="143"/>
+      <c r="AG37" s="143"/>
+      <c r="AH37" s="143"/>
+      <c r="AI37" s="143"/>
+      <c r="AJ37" s="143"/>
+      <c r="AK37" s="143"/>
+    </row>
+    <row r="42" spans="21:37" x14ac:dyDescent="0.4">
+      <c r="AD42" s="141"/>
+      <c r="AE42" s="141"/>
+      <c r="AF42" s="141"/>
+      <c r="AG42" s="141"/>
+      <c r="AH42" s="141"/>
+      <c r="AI42" s="141"/>
+      <c r="AJ42" s="141"/>
+      <c r="AK42" s="141"/>
+    </row>
+    <row r="43" spans="21:37" x14ac:dyDescent="0.4">
+      <c r="AD43" s="141"/>
+      <c r="AE43" s="141"/>
+      <c r="AF43" s="141"/>
+      <c r="AG43" s="141"/>
+      <c r="AH43" s="141"/>
+      <c r="AI43" s="141"/>
+      <c r="AJ43" s="141"/>
+      <c r="AK43" s="141"/>
+    </row>
+    <row r="44" spans="21:37" ht="58.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="AE44" s="73"/>
+    </row>
+    <row r="51" spans="3:32" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="52" spans="3:32" ht="48" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C52" s="95" t="s">
+        <v>260</v>
+      </c>
+      <c r="D52" s="96"/>
+      <c r="E52" s="96"/>
+      <c r="F52" s="96"/>
+      <c r="G52" s="96"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
+      <c r="J52" s="96"/>
+      <c r="K52" s="97"/>
+    </row>
+    <row r="53" spans="3:32" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C53" s="98" t="s">
+        <v>259</v>
+      </c>
+      <c r="D53" s="99"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="99"/>
+      <c r="G53" s="99"/>
+      <c r="H53" s="99"/>
+      <c r="I53" s="99"/>
+      <c r="J53" s="99"/>
+      <c r="K53" s="100"/>
     </row>
     <row r="55" spans="3:32" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="56" spans="3:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C56" s="123" t="s">
-        <v>420</v>
-      </c>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="124"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
-      <c r="L56" s="124"/>
-      <c r="M56" s="124"/>
-      <c r="N56" s="124"/>
-      <c r="O56" s="124"/>
-      <c r="P56" s="125"/>
-      <c r="W56" s="123" t="s">
-        <v>421</v>
-      </c>
-      <c r="X56" s="124"/>
-      <c r="Y56" s="124"/>
-      <c r="Z56" s="124"/>
-      <c r="AA56" s="124"/>
-      <c r="AB56" s="124"/>
-      <c r="AC56" s="124"/>
-      <c r="AD56" s="124"/>
-      <c r="AE56" s="124"/>
-      <c r="AF56" s="125"/>
+      <c r="C56" s="132" t="s">
+        <v>456</v>
+      </c>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+      <c r="J56" s="133"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="133"/>
+      <c r="M56" s="133"/>
+      <c r="N56" s="133"/>
+      <c r="O56" s="133"/>
+      <c r="P56" s="134"/>
+      <c r="W56" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="X56" s="133"/>
+      <c r="Y56" s="133"/>
+      <c r="Z56" s="133"/>
+      <c r="AA56" s="133"/>
+      <c r="AB56" s="133"/>
+      <c r="AC56" s="133"/>
+      <c r="AD56" s="133"/>
+      <c r="AE56" s="133"/>
+      <c r="AF56" s="134"/>
     </row>
     <row r="57" spans="3:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C57" s="126"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="127"/>
-      <c r="K57" s="127"/>
-      <c r="L57" s="127"/>
-      <c r="M57" s="127"/>
-      <c r="N57" s="127"/>
-      <c r="O57" s="127"/>
-      <c r="P57" s="128"/>
-      <c r="W57" s="126"/>
-      <c r="X57" s="127"/>
-      <c r="Y57" s="127"/>
-      <c r="Z57" s="127"/>
-      <c r="AA57" s="127"/>
-      <c r="AB57" s="127"/>
-      <c r="AC57" s="127"/>
-      <c r="AD57" s="127"/>
-      <c r="AE57" s="127"/>
-      <c r="AF57" s="128"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="136"/>
+      <c r="K57" s="136"/>
+      <c r="L57" s="136"/>
+      <c r="M57" s="136"/>
+      <c r="N57" s="136"/>
+      <c r="O57" s="136"/>
+      <c r="P57" s="137"/>
+      <c r="W57" s="135"/>
+      <c r="X57" s="136"/>
+      <c r="Y57" s="136"/>
+      <c r="Z57" s="136"/>
+      <c r="AA57" s="136"/>
+      <c r="AB57" s="136"/>
+      <c r="AC57" s="136"/>
+      <c r="AD57" s="136"/>
+      <c r="AE57" s="136"/>
+      <c r="AF57" s="137"/>
     </row>
     <row r="58" spans="3:32" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C58" s="129"/>
-      <c r="D58" s="130"/>
-      <c r="E58" s="130"/>
-      <c r="F58" s="130"/>
-      <c r="G58" s="130"/>
-      <c r="H58" s="130"/>
-      <c r="I58" s="130"/>
-      <c r="J58" s="130"/>
-      <c r="K58" s="130"/>
-      <c r="L58" s="130"/>
-      <c r="M58" s="130"/>
-      <c r="N58" s="130"/>
-      <c r="O58" s="130"/>
-      <c r="P58" s="131"/>
-      <c r="W58" s="129"/>
-      <c r="X58" s="130"/>
-      <c r="Y58" s="130"/>
-      <c r="Z58" s="130"/>
-      <c r="AA58" s="130"/>
-      <c r="AB58" s="130"/>
-      <c r="AC58" s="130"/>
-      <c r="AD58" s="130"/>
-      <c r="AE58" s="130"/>
-      <c r="AF58" s="131"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="139"/>
+      <c r="E58" s="139"/>
+      <c r="F58" s="139"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="139"/>
+      <c r="I58" s="139"/>
+      <c r="J58" s="139"/>
+      <c r="K58" s="139"/>
+      <c r="L58" s="139"/>
+      <c r="M58" s="139"/>
+      <c r="N58" s="139"/>
+      <c r="O58" s="139"/>
+      <c r="P58" s="140"/>
+      <c r="W58" s="138"/>
+      <c r="X58" s="139"/>
+      <c r="Y58" s="139"/>
+      <c r="Z58" s="139"/>
+      <c r="AA58" s="139"/>
+      <c r="AB58" s="139"/>
+      <c r="AC58" s="139"/>
+      <c r="AD58" s="139"/>
+      <c r="AE58" s="139"/>
+      <c r="AF58" s="140"/>
     </row>
     <row r="61" spans="3:32" x14ac:dyDescent="0.4">
-      <c r="W61" s="150" t="s">
-        <v>432</v>
+      <c r="W61" s="93" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="3:32" x14ac:dyDescent="0.4">
       <c r="S62" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="T62" t="s">
-        <v>423</v>
-      </c>
-      <c r="W62" s="150" t="s">
-        <v>433</v>
+        <v>420</v>
+      </c>
+      <c r="W62" s="93" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="63" spans="3:32" x14ac:dyDescent="0.4">
       <c r="S63" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="T63" t="s">
-        <v>425</v>
-      </c>
-      <c r="W63" s="150" t="s">
-        <v>434</v>
+        <v>422</v>
+      </c>
+      <c r="W63" s="93" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="3:32" x14ac:dyDescent="0.4">
       <c r="S64" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="T64" t="s">
-        <v>427</v>
-      </c>
-      <c r="W64" s="150" t="s">
-        <v>428</v>
+        <v>424</v>
+      </c>
+      <c r="W64" s="93" t="s">
+        <v>425</v>
       </c>
       <c r="X64" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S65" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="T65" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="19:20" x14ac:dyDescent="0.4">
       <c r="S66" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="T66" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -23804,6 +23817,19 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA19D001-56F3-4D8C-B12A-96CD4E8FA875}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -24975,7 +25001,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -24986,36 +25012,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="146" t="s">
-        <v>189</v>
-      </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
+      <c r="B2" s="157" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
       <c r="G2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="O2" s="15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="115"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
       <c r="G3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.4">
       <c r="O4" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\プログラムDirectX11\就職作品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F13C29B-EFB3-4F7D-BD5B-D4DEFB29064A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3777B92A-1575-4073-9E4C-FD9D2EA002B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="13" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{855462B4-7347-42B2-88ED-3255395570A0}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様書（ルールなど）" sheetId="3" r:id="rId1"/>
@@ -19,17 +19,16 @@
     <sheet name="タイトル&amp;選択&amp;リザルト" sheetId="4" r:id="rId4"/>
     <sheet name="ポーズ画面" sheetId="12" r:id="rId5"/>
     <sheet name="ゲーム画面の仕様" sheetId="13" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId7"/>
-    <sheet name="敵" sheetId="17" r:id="rId8"/>
-    <sheet name="チュートリアル" sheetId="11" r:id="rId9"/>
-    <sheet name="クラス図" sheetId="6" state="hidden" r:id="rId10"/>
-    <sheet name="操作方法" sheetId="7" r:id="rId11"/>
-    <sheet name="デザイン" sheetId="5" r:id="rId12"/>
-    <sheet name="サウンド" sheetId="10" r:id="rId13"/>
-    <sheet name="作業スケジュール" sheetId="15" r:id="rId14"/>
+    <sheet name="敵" sheetId="17" r:id="rId7"/>
+    <sheet name="チュートリアル" sheetId="11" r:id="rId8"/>
+    <sheet name="クラス図" sheetId="6" state="hidden" r:id="rId9"/>
+    <sheet name="操作方法" sheetId="7" r:id="rId10"/>
+    <sheet name="デザイン" sheetId="5" r:id="rId11"/>
+    <sheet name="サウンド" sheetId="10" r:id="rId12"/>
+    <sheet name="作業スケジュール" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">作業スケジュール!$BL$1:$CF$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">作業スケジュール!$BL$1:$CF$61</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -6867,8 +6866,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -6944,9 +6944,8 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -17003,7 +17002,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:M19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:H13"/>
     </sheetView>
   </sheetViews>
@@ -17209,90 +17208,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E595F97-285D-45D1-8FDC-D251DEBEBBCC}">
-  <sheetPr codeName="Sheet9"/>
-  <dimension ref="C1:V35"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="29" max="29" width="7.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C1" s="157" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="O1" s="157" t="s">
-        <v>64</v>
-      </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-    </row>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.4">
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="O2" s="157"/>
-      <c r="P2" s="157"/>
-      <c r="Q2" s="157"/>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-    </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="S33" s="124"/>
-      <c r="T33" s="124"/>
-      <c r="U33" s="124"/>
-      <c r="V33" s="124"/>
-    </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C34" s="157" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="157"/>
-      <c r="S34" s="124"/>
-      <c r="T34" s="124"/>
-      <c r="U34" s="124"/>
-      <c r="V34" s="124"/>
-    </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.4">
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
-      <c r="E35" s="157"/>
-      <c r="F35" s="157"/>
-      <c r="G35" s="157"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:G2"/>
-    <mergeCell ref="O1:S2"/>
-    <mergeCell ref="C34:G35"/>
-    <mergeCell ref="S33:V34"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D682D3EA-40D3-4F3B-9CCB-CED52C63D011}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="R14:AB28"/>
@@ -17378,7 +17293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A309391-4223-49DB-A8EB-7D621A5E6BA9}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G12"/>
@@ -17564,7 +17479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD86610-6E0A-4791-B49C-97215B1D62A7}">
   <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:J13"/>
@@ -17874,11 +17789,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8DC02A-2CF9-4EAE-BFDB-9A1C5F221124}">
   <dimension ref="A1:DB60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
@@ -23017,7 +22932,7 @@
   <dimension ref="B1:R58"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:N19"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -23117,7 +23032,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -23821,24 +23736,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA19D001-56F3-4D8C-B12A-96CD4E8FA875}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FBE3EA-CD5B-4001-B514-A4237CED1ACB}">
   <dimension ref="C6:AA47"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Y46" sqref="Y46"/>
+      <selection activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -24996,7 +24898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B46575-883B-481C-B347-C52B57709347}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:O4"/>
@@ -25053,4 +24955,88 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E595F97-285D-45D1-8FDC-D251DEBEBBCC}">
+  <sheetPr codeName="Sheet9"/>
+  <dimension ref="C1:V35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="29" max="29" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C1" s="157" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="O1" s="157" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="157"/>
+      <c r="S1" s="157"/>
+    </row>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="157"/>
+      <c r="G2" s="157"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="157"/>
+      <c r="Q2" s="157"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+    </row>
+    <row r="33" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="S33" s="124"/>
+      <c r="T33" s="124"/>
+      <c r="U33" s="124"/>
+      <c r="V33" s="124"/>
+    </row>
+    <row r="34" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C34" s="157" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="157"/>
+      <c r="E34" s="157"/>
+      <c r="F34" s="157"/>
+      <c r="G34" s="157"/>
+      <c r="S34" s="124"/>
+      <c r="T34" s="124"/>
+      <c r="U34" s="124"/>
+      <c r="V34" s="124"/>
+    </row>
+    <row r="35" spans="3:22" x14ac:dyDescent="0.4">
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="157"/>
+      <c r="F35" s="157"/>
+      <c r="G35" s="157"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="O1:S2"/>
+    <mergeCell ref="C34:G35"/>
+    <mergeCell ref="S33:V34"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>